--- a/data/即时通讯测试用例V2.0.xlsx
+++ b/data/即时通讯测试用例V2.0.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3884" uniqueCount="1621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3886" uniqueCount="1621">
   <si>
     <t>系统模块</t>
   </si>
@@ -4917,8 +4917,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -4968,14 +4968,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -4984,21 +4977,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5020,39 +5006,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5074,8 +5028,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5090,9 +5052,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5104,9 +5074,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5145,7 +5145,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5157,19 +5187,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5193,25 +5211,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5229,97 +5319,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5424,9 +5424,68 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5446,32 +5505,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5486,39 +5519,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5527,10 +5527,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5539,133 +5539,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -13524,9 +13524,9 @@
   <dimension ref="A1:AB875"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" customHeight="1"/>
@@ -15334,7 +15334,7 @@
         <v>807</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -15474,7 +15474,7 @@
         <v>821</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>163</v>
+        <v>351</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -15493,7 +15493,9 @@
       <c r="E97" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="F97" s="5"/>
+      <c r="F97" s="5" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="21" t="s">
@@ -15511,7 +15513,9 @@
       <c r="E98" s="5" t="s">
         <v>825</v>
       </c>
-      <c r="F98" s="5"/>
+      <c r="F98" s="5" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="21" t="s">

--- a/data/即时通讯测试用例V2.0.xlsx
+++ b/data/即时通讯测试用例V2.0.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3886" uniqueCount="1621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3888" uniqueCount="1621">
   <si>
     <t>系统模块</t>
   </si>
@@ -2621,7 +2621,7 @@
     <t>输入框中输入地名，校验是否搜索到该地址</t>
   </si>
   <si>
-    <t>搜索结果显示在地名列表中，地名不存在则显示无此地区</t>
+    <t>搜索结果显示在地名列表中，地名不存在则没有结果</t>
   </si>
   <si>
     <t>选择地名发送，校验是否发送定位信息到对话框</t>
@@ -4917,8 +4917,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -4968,7 +4968,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -4977,14 +4976,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5006,7 +5006,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5037,32 +5075,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5082,13 +5097,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -5099,14 +5107,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5145,7 +5145,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5157,7 +5187,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5169,25 +5199,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5205,85 +5259,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5301,19 +5301,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5422,22 +5422,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5451,26 +5446,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5490,17 +5487,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5527,10 +5527,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5539,133 +5539,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -13524,9 +13524,9 @@
   <dimension ref="A1:AB875"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D103" sqref="D103"/>
+      <selection pane="bottomLeft" activeCell="F120" sqref="F120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" customHeight="1"/>
@@ -15534,7 +15534,7 @@
         <v>827</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -15554,7 +15554,7 @@
         <v>829</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -15574,7 +15574,7 @@
         <v>831</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -15594,7 +15594,7 @@
         <v>833</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -15614,7 +15614,7 @@
         <v>836</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -15634,7 +15634,7 @@
         <v>839</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -15654,7 +15654,7 @@
         <v>842</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -15674,7 +15674,7 @@
         <v>844</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -15693,7 +15693,9 @@
       <c r="E107" s="5" t="s">
         <v>846</v>
       </c>
-      <c r="F107" s="5"/>
+      <c r="F107" s="5" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="21" t="s">
@@ -15711,7 +15713,9 @@
       <c r="E108" s="5" t="s">
         <v>848</v>
       </c>
-      <c r="F108" s="5"/>
+      <c r="F108" s="5" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="21" t="s">
@@ -15730,7 +15734,7 @@
         <v>850</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -15750,7 +15754,7 @@
         <v>852</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -15770,7 +15774,7 @@
         <v>855</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -15790,7 +15794,7 @@
         <v>857</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -15810,7 +15814,7 @@
         <v>859</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -15830,7 +15834,7 @@
         <v>861</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -15850,7 +15854,7 @@
         <v>863</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -15870,7 +15874,7 @@
         <v>865</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
     </row>
     <row r="117" ht="34.5" spans="1:6">
@@ -15890,7 +15894,7 @@
         <v>867</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -15910,7 +15914,7 @@
         <v>869</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -15930,7 +15934,7 @@
         <v>871</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
     </row>
     <row r="120" spans="1:6">

--- a/data/即时通讯测试用例V2.0.xlsx
+++ b/data/即时通讯测试用例V2.0.xlsx
@@ -4917,10 +4917,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -4968,28 +4968,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -5006,14 +4984,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5021,7 +4992,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5035,26 +5028,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5069,13 +5046,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5098,8 +5068,38 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5145,19 +5145,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5175,7 +5175,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5187,13 +5247,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5205,97 +5301,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5313,13 +5319,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5422,16 +5422,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -5441,6 +5450,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -5461,17 +5481,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -5487,11 +5496,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5499,23 +5514,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5527,10 +5527,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5539,133 +5539,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -13524,9 +13524,9 @@
   <dimension ref="A1:AB875"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F120" sqref="F120"/>
+      <selection pane="bottomLeft" activeCell="F122" sqref="F122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" customHeight="1"/>
@@ -15954,7 +15954,7 @@
         <v>874</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -15974,7 +15974,7 @@
         <v>876</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
     </row>
     <row r="122" spans="1:6">

--- a/data/即时通讯测试用例V2.0.xlsx
+++ b/data/即时通讯测试用例V2.0.xlsx
@@ -4968,21 +4968,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -4990,9 +4975,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5000,14 +4991,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5028,10 +5012,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5068,47 +5097,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5145,13 +5145,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5163,7 +5163,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5175,25 +5223,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5205,13 +5253,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5223,7 +5271,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5235,25 +5283,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5271,55 +5307,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5422,50 +5422,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -5481,17 +5437,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5519,6 +5471,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5527,10 +5527,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5539,133 +5539,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -13524,9 +13524,9 @@
   <dimension ref="A1:AB875"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F122" sqref="F122"/>
+      <selection pane="bottomLeft" activeCell="F123" sqref="F123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" customHeight="1"/>
@@ -15994,7 +15994,7 @@
         <v>878</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
     </row>
     <row r="123" spans="1:6">

--- a/data/即时通讯测试用例V2.0.xlsx
+++ b/data/即时通讯测试用例V2.0.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3888" uniqueCount="1621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3889" uniqueCount="1622">
   <si>
     <t>系统模块</t>
   </si>
@@ -2736,6 +2736,9 @@
   </si>
   <si>
     <t>领取后进去红包详情页面</t>
+  </si>
+  <si>
+    <t>信息正常</t>
   </si>
   <si>
     <t>校验红包超过24小时未领取，是否自动过期退回</t>
@@ -13524,9 +13527,9 @@
   <dimension ref="A1:AB875"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F123" sqref="F123"/>
+      <selection pane="bottomLeft" activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" customHeight="1"/>
@@ -16014,7 +16017,7 @@
         <v>880</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -16034,7 +16037,7 @@
         <v>882</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -16054,7 +16057,7 @@
         <v>884</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -16074,7 +16077,7 @@
         <v>886</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -16094,7 +16097,7 @@
         <v>888</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -16114,7 +16117,7 @@
         <v>890</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>163</v>
+        <v>357</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -16134,7 +16137,7 @@
         <v>892</v>
       </c>
       <c r="F129" s="22" t="s">
-        <v>163</v>
+        <v>357</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -16154,7 +16157,7 @@
         <v>894</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -16174,7 +16177,7 @@
         <v>896</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -16194,7 +16197,7 @@
         <v>896</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -16214,7 +16217,7 @@
         <v>900</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -16234,7 +16237,7 @@
         <v>902</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -16250,9 +16253,11 @@
       <c r="D135" s="5" t="s">
         <v>903</v>
       </c>
-      <c r="E135" s="5"/>
+      <c r="E135" s="5" t="s">
+        <v>904</v>
+      </c>
       <c r="F135" s="5" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -16264,10 +16269,10 @@
         <v>898</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>148</v>
@@ -16284,7 +16289,7 @@
         <v>898</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="5" t="s">
@@ -16302,10 +16307,10 @@
         <v>898</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>148</v>
@@ -16322,10 +16327,10 @@
         <v>898</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>148</v>
@@ -16342,10 +16347,10 @@
         <v>898</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>148</v>
@@ -16362,10 +16367,10 @@
         <v>898</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>148</v>
@@ -16379,10 +16384,10 @@
         <v>715</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="E142" s="5"/>
       <c r="F142" s="5" t="s">
@@ -16397,13 +16402,13 @@
         <v>715</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>148</v>
@@ -16417,13 +16422,13 @@
         <v>715</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>148</v>
@@ -16437,13 +16442,13 @@
         <v>715</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="F145" s="5" t="s">
         <v>148</v>
@@ -16457,13 +16462,13 @@
         <v>715</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="F146" s="5" t="s">
         <v>148</v>
@@ -16477,13 +16482,13 @@
         <v>715</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="F147" s="5" t="s">
         <v>148</v>
@@ -16497,13 +16502,13 @@
         <v>715</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>148</v>
@@ -16517,13 +16522,13 @@
         <v>715</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="F149" s="5"/>
     </row>
@@ -16535,10 +16540,10 @@
         <v>715</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E150" s="5" t="s">
         <v>888</v>
@@ -16555,7 +16560,7 @@
         <v>715</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>889</v>
@@ -16575,7 +16580,7 @@
         <v>715</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>891</v>
@@ -16595,13 +16600,13 @@
         <v>715</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="F153" s="5" t="s">
         <v>148</v>
@@ -16615,13 +16620,13 @@
         <v>715</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="F154" s="5" t="s">
         <v>148</v>
@@ -16635,13 +16640,13 @@
         <v>715</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="F155" s="5" t="s">
         <v>148</v>
@@ -16655,13 +16660,13 @@
         <v>715</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="F156" s="5" t="s">
         <v>148</v>
@@ -16675,13 +16680,13 @@
         <v>715</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>148</v>
@@ -16695,13 +16700,13 @@
         <v>715</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="F158" s="5" t="s">
         <v>148</v>
@@ -16715,13 +16720,13 @@
         <v>715</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="F159" s="5" t="s">
         <v>148</v>
@@ -16735,13 +16740,13 @@
         <v>715</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="F160" s="5" t="s">
         <v>148</v>
@@ -16755,13 +16760,13 @@
         <v>715</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="F161" s="5" t="s">
         <v>148</v>
@@ -16775,13 +16780,13 @@
         <v>715</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="F162" s="5" t="s">
         <v>148</v>
@@ -16795,13 +16800,13 @@
         <v>715</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="F163" s="5" t="s">
         <v>148</v>
@@ -16812,16 +16817,16 @@
         <v>630</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F164" s="5" t="s">
         <v>148</v>
@@ -16832,16 +16837,16 @@
         <v>630</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="F165" s="5" t="s">
         <v>148</v>
@@ -16852,16 +16857,16 @@
         <v>630</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="F166" s="5" t="s">
         <v>148</v>
@@ -16872,16 +16877,16 @@
         <v>630</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="F167" s="5" t="s">
         <v>148</v>
@@ -16892,16 +16897,16 @@
         <v>630</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="F168" s="5" t="s">
         <v>148</v>
@@ -16912,16 +16917,16 @@
         <v>630</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="F169" s="5" t="s">
         <v>148</v>
@@ -16932,16 +16937,16 @@
         <v>630</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="F170" s="5" t="s">
         <v>148</v>
@@ -16952,16 +16957,16 @@
         <v>630</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="F171" s="5" t="s">
         <v>148</v>
@@ -16972,16 +16977,16 @@
         <v>630</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="F172" s="5" t="s">
         <v>148</v>
@@ -16992,16 +16997,16 @@
         <v>630</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="F173" s="5" t="s">
         <v>148</v>
@@ -17012,16 +17017,16 @@
         <v>630</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="F174" s="5"/>
     </row>
@@ -17030,16 +17035,16 @@
         <v>630</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="F175" s="5" t="s">
         <v>148</v>
@@ -17050,16 +17055,16 @@
         <v>630</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="F176" s="5"/>
     </row>
@@ -17068,16 +17073,16 @@
         <v>630</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="F177" s="5"/>
     </row>
@@ -17086,16 +17091,16 @@
         <v>630</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="F178" s="5"/>
     </row>
@@ -17104,16 +17109,16 @@
         <v>630</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="F179" s="5"/>
     </row>
@@ -17122,16 +17127,16 @@
         <v>630</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="F180" s="5"/>
     </row>
@@ -17140,16 +17145,16 @@
         <v>630</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F181" s="5"/>
     </row>
@@ -17158,16 +17163,16 @@
         <v>630</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="F182" s="5"/>
     </row>
@@ -17176,16 +17181,16 @@
         <v>630</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="F183" s="5"/>
     </row>
@@ -17194,16 +17199,16 @@
         <v>630</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="F184" s="5"/>
     </row>
@@ -17212,16 +17217,16 @@
         <v>630</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="F185" s="5"/>
     </row>
@@ -17230,16 +17235,16 @@
         <v>630</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="F186" s="5"/>
     </row>
@@ -17248,16 +17253,16 @@
         <v>630</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="F187" s="5"/>
     </row>
@@ -17266,16 +17271,16 @@
         <v>630</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="F188" s="5"/>
     </row>
@@ -17284,16 +17289,16 @@
         <v>630</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="F189" s="5"/>
     </row>
@@ -17302,16 +17307,16 @@
         <v>630</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="F190" s="2"/>
     </row>
@@ -17320,16 +17325,16 @@
         <v>630</v>
       </c>
       <c r="B191" s="21" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="F191" s="5"/>
     </row>
@@ -17338,13 +17343,13 @@
         <v>630</v>
       </c>
       <c r="B192" s="21" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E192" s="5" t="s">
         <v>381</v>
@@ -17356,16 +17361,16 @@
         <v>630</v>
       </c>
       <c r="B193" s="21" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="F193" s="5"/>
     </row>
@@ -17374,16 +17379,16 @@
         <v>630</v>
       </c>
       <c r="B194" s="21" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="F194" s="5"/>
     </row>
@@ -17392,16 +17397,16 @@
         <v>630</v>
       </c>
       <c r="B195" s="21" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="F195" s="5"/>
     </row>
@@ -17410,16 +17415,16 @@
         <v>630</v>
       </c>
       <c r="B196" s="21" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="F196" s="5"/>
     </row>
@@ -17428,16 +17433,16 @@
         <v>630</v>
       </c>
       <c r="B197" s="21" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="F197" s="5"/>
     </row>
@@ -17446,16 +17451,16 @@
         <v>630</v>
       </c>
       <c r="B198" s="21" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="F198" s="5"/>
     </row>
@@ -17464,16 +17469,16 @@
         <v>630</v>
       </c>
       <c r="B199" s="21" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="F199" s="5"/>
     </row>
@@ -17482,16 +17487,16 @@
         <v>630</v>
       </c>
       <c r="B200" s="21" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="F200" s="5"/>
     </row>
@@ -17500,16 +17505,16 @@
         <v>630</v>
       </c>
       <c r="B201" s="21" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="F201" s="5"/>
     </row>
@@ -17518,16 +17523,16 @@
         <v>630</v>
       </c>
       <c r="B202" s="21" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="F202" s="5"/>
     </row>
@@ -17536,16 +17541,16 @@
         <v>630</v>
       </c>
       <c r="B203" s="21" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="F203" s="5"/>
     </row>
@@ -17554,16 +17559,16 @@
         <v>630</v>
       </c>
       <c r="B204" s="21" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="F204" s="5"/>
     </row>
@@ -17572,16 +17577,16 @@
         <v>630</v>
       </c>
       <c r="B205" s="21" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D205" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E205" s="5" t="s">
         <v>1051</v>
-      </c>
-      <c r="E205" s="5" t="s">
-        <v>1050</v>
       </c>
       <c r="F205" s="5"/>
     </row>
@@ -17590,16 +17595,16 @@
         <v>630</v>
       </c>
       <c r="B206" s="21" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="F206" s="5"/>
     </row>
@@ -17608,16 +17613,16 @@
         <v>630</v>
       </c>
       <c r="B207" s="21" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="F207" s="5"/>
     </row>
@@ -17626,16 +17631,16 @@
         <v>630</v>
       </c>
       <c r="B208" s="21" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="F208" s="5"/>
     </row>
@@ -17644,16 +17649,16 @@
         <v>630</v>
       </c>
       <c r="B209" s="21" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="F209" s="5"/>
     </row>
@@ -17662,16 +17667,16 @@
         <v>630</v>
       </c>
       <c r="B210" s="21" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="F210" s="5"/>
     </row>
@@ -17680,16 +17685,16 @@
         <v>630</v>
       </c>
       <c r="B211" s="21" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="F211" s="5"/>
     </row>
@@ -17698,16 +17703,16 @@
         <v>630</v>
       </c>
       <c r="B212" s="21" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="F212" s="5"/>
     </row>
@@ -17716,16 +17721,16 @@
         <v>630</v>
       </c>
       <c r="B213" s="21" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="F213" s="5"/>
     </row>
@@ -17734,16 +17739,16 @@
         <v>630</v>
       </c>
       <c r="B214" s="21" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="F214" s="5"/>
     </row>
@@ -17752,16 +17757,16 @@
         <v>630</v>
       </c>
       <c r="B215" s="21" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="F215" s="5"/>
     </row>
@@ -17770,16 +17775,16 @@
         <v>630</v>
       </c>
       <c r="B216" s="21" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="F216" s="5"/>
     </row>
@@ -17788,16 +17793,16 @@
         <v>630</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="F217" s="5"/>
     </row>
@@ -17806,16 +17811,16 @@
         <v>630</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="F218" s="5"/>
     </row>
@@ -17824,16 +17829,16 @@
         <v>630</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="F219" s="5"/>
     </row>
@@ -17842,16 +17847,16 @@
         <v>630</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="F220" s="5"/>
     </row>
@@ -17860,16 +17865,16 @@
         <v>630</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="F221" s="5"/>
     </row>
@@ -17878,16 +17883,16 @@
         <v>630</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="F222" s="5"/>
     </row>
@@ -17896,16 +17901,16 @@
         <v>630</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="F223" s="5"/>
     </row>
@@ -17914,16 +17919,16 @@
         <v>630</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="F224" s="5"/>
     </row>
@@ -17932,16 +17937,16 @@
         <v>630</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="F225" s="5"/>
     </row>
@@ -17950,16 +17955,16 @@
         <v>630</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="F226" s="5"/>
     </row>
@@ -17968,16 +17973,16 @@
         <v>630</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="F227" s="5"/>
     </row>
@@ -17986,16 +17991,16 @@
         <v>630</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="F228" s="5"/>
     </row>
@@ -18004,16 +18009,16 @@
         <v>630</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="F229" s="5"/>
     </row>
@@ -18022,16 +18027,16 @@
         <v>630</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="F230" s="5"/>
     </row>
@@ -18040,16 +18045,16 @@
         <v>630</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="F231" s="5"/>
     </row>
@@ -18058,16 +18063,16 @@
         <v>630</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="F232" s="5"/>
     </row>
@@ -18076,16 +18081,16 @@
         <v>630</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="F233" s="5"/>
     </row>
@@ -18094,16 +18099,16 @@
         <v>630</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="F234" s="5"/>
     </row>
@@ -18112,16 +18117,16 @@
         <v>630</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="F235" s="5"/>
     </row>
@@ -18130,16 +18135,16 @@
         <v>630</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="F236" s="5"/>
     </row>
@@ -18148,16 +18153,16 @@
         <v>630</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="F237" s="5"/>
     </row>
@@ -18166,16 +18171,16 @@
         <v>630</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="F238" s="5"/>
     </row>
@@ -18184,16 +18189,16 @@
         <v>630</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="F239" s="5"/>
     </row>
@@ -18202,16 +18207,16 @@
         <v>630</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="F240" s="5"/>
     </row>
@@ -18220,16 +18225,16 @@
         <v>630</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="E241" s="5" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="F241" s="5"/>
     </row>
@@ -18238,16 +18243,16 @@
         <v>630</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="F242" s="5"/>
     </row>
@@ -18256,16 +18261,16 @@
         <v>630</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="F243" s="5"/>
     </row>
@@ -18274,16 +18279,16 @@
         <v>630</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="F244" s="5"/>
     </row>
@@ -18292,16 +18297,16 @@
         <v>630</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="F245" s="5"/>
     </row>
@@ -18310,16 +18315,16 @@
         <v>630</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="F246" s="5"/>
     </row>
@@ -18328,16 +18333,16 @@
         <v>630</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="F247" s="5"/>
     </row>
@@ -18346,16 +18351,16 @@
         <v>630</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="F248" s="5"/>
     </row>
@@ -18364,16 +18369,16 @@
         <v>630</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="F249" s="5"/>
     </row>
@@ -18382,16 +18387,16 @@
         <v>630</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="F250" s="5"/>
     </row>
@@ -18400,16 +18405,16 @@
         <v>630</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="F251" s="2"/>
     </row>
@@ -18418,13 +18423,13 @@
         <v>630</v>
       </c>
       <c r="B252" s="21" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
@@ -18434,13 +18439,13 @@
         <v>630</v>
       </c>
       <c r="B253" s="21" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="E253" s="5"/>
       <c r="F253" s="5"/>
@@ -18450,13 +18455,13 @@
         <v>630</v>
       </c>
       <c r="B254" s="21" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="E254" s="5"/>
       <c r="F254" s="5"/>
@@ -18466,13 +18471,13 @@
         <v>630</v>
       </c>
       <c r="B255" s="21" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="E255" s="5"/>
       <c r="F255" s="5"/>
@@ -18482,13 +18487,13 @@
         <v>630</v>
       </c>
       <c r="B256" s="21" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="E256" s="5"/>
       <c r="F256" s="5"/>
@@ -18498,13 +18503,13 @@
         <v>630</v>
       </c>
       <c r="B257" s="21" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="E257" s="5"/>
       <c r="F257" s="5"/>
@@ -18514,13 +18519,13 @@
         <v>630</v>
       </c>
       <c r="B258" s="21" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="E258" s="5"/>
       <c r="F258" s="5"/>
@@ -18530,13 +18535,13 @@
         <v>630</v>
       </c>
       <c r="B259" s="21" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="E259" s="5"/>
       <c r="F259" s="5"/>
@@ -18546,13 +18551,13 @@
         <v>630</v>
       </c>
       <c r="B260" s="21" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="E260" s="5"/>
       <c r="F260" s="5"/>
@@ -18562,13 +18567,13 @@
         <v>630</v>
       </c>
       <c r="B261" s="21" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="E261" s="5"/>
       <c r="F261" s="5"/>
@@ -18578,13 +18583,13 @@
         <v>630</v>
       </c>
       <c r="B262" s="21" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="E262" s="5"/>
       <c r="F262" s="5"/>
@@ -18594,16 +18599,16 @@
         <v>630</v>
       </c>
       <c r="B263" s="21" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="F263" s="5"/>
     </row>
@@ -18612,16 +18617,16 @@
         <v>630</v>
       </c>
       <c r="B264" s="21" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="E264" s="5" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="F264" s="5"/>
     </row>
@@ -18630,16 +18635,16 @@
         <v>630</v>
       </c>
       <c r="B265" s="21" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D265" s="5" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E265" s="5" t="s">
         <v>1165</v>
-      </c>
-      <c r="E265" s="5" t="s">
-        <v>1164</v>
       </c>
       <c r="F265" s="5"/>
     </row>
@@ -18648,13 +18653,13 @@
         <v>630</v>
       </c>
       <c r="B266" s="21" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="E266" s="5"/>
       <c r="F266" s="5"/>
@@ -18664,16 +18669,16 @@
         <v>630</v>
       </c>
       <c r="B267" s="21" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="E267" s="5" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="F267" s="5"/>
     </row>
@@ -18682,16 +18687,16 @@
         <v>630</v>
       </c>
       <c r="B268" s="21" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="E268" s="5" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="F268" s="5"/>
     </row>
@@ -18700,13 +18705,13 @@
         <v>630</v>
       </c>
       <c r="B269" s="21" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="E269" s="5"/>
       <c r="F269" s="5"/>
@@ -18716,13 +18721,13 @@
         <v>630</v>
       </c>
       <c r="B270" s="21" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="E270" s="5"/>
       <c r="F270" s="5"/>
@@ -18732,13 +18737,13 @@
         <v>630</v>
       </c>
       <c r="B271" s="21" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="E271" s="5"/>
       <c r="F271" s="5"/>
@@ -18748,16 +18753,16 @@
         <v>630</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="E272" s="5" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="F272" s="5"/>
     </row>
@@ -18766,16 +18771,16 @@
         <v>630</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="F273" s="5"/>
     </row>
@@ -18784,325 +18789,325 @@
         <v>630</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D274" s="6" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="E274" s="6" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="F274" s="5"/>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="21" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="E275" s="5" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="F275" s="5"/>
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="21" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="E276" s="5" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="F276" s="5"/>
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="21" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="E277" s="5"/>
       <c r="F277" s="5"/>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="21" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="E278" s="5" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="F278" s="5"/>
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="21" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D279" s="5" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="E279" s="5" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="F279" s="5"/>
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="21" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="E280" s="5"/>
       <c r="F280" s="5"/>
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="21" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="E281" s="5"/>
       <c r="F281" s="5"/>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="21" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="E282" s="5"/>
       <c r="F282" s="5"/>
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="21" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="E283" s="5" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="F283" s="5"/>
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="21" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="F284" s="5"/>
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="21" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D285" s="5" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="E285" s="5"/>
       <c r="F285" s="5"/>
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="21" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D286" s="5" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="E286" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="F286" s="5"/>
     </row>
     <row r="287" ht="34.5" spans="1:6">
       <c r="A287" s="21" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D287" s="5" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="E287" s="5" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="F287" s="5"/>
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="21" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D288" s="5" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="E288" s="5" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="F288" s="5"/>
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="21" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D289" s="5" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="E289" s="5" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="F289" s="5"/>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="21" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="D290" s="5" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="E290" s="5" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="F290" s="5"/>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="21" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="D291" s="5" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="E291" s="5"/>
       <c r="F291" s="5"/>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="21" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="D292" s="5" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="E292" s="5" t="s">
         <v>439</v>
@@ -19111,563 +19116,563 @@
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="21" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="D293" s="5" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="E293" s="5" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="F293" s="5"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="21" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="D294" s="5" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="E294" s="5" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="F294" s="5"/>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="21" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="D295" s="5" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="E295" s="5"/>
       <c r="F295" s="5"/>
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="21" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="D296" s="5" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="F296" s="5"/>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="21" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="D297" s="5" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="E297" s="5" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="F297" s="5"/>
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="21" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="D298" s="5" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="F298" s="5"/>
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="21" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="D299" s="5" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="F299" s="5"/>
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="21" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="D300" s="5" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="E300" s="5" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="F300" s="5"/>
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="21" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="D301" s="5" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="E301" s="5" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="F301" s="5"/>
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="21" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="D302" s="5" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="E302" s="5" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="F302" s="5"/>
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="21" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D303" s="5" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="E303" s="5" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="F303" s="5"/>
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="21" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D304" s="5" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="E304" s="5" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="F304" s="5"/>
     </row>
     <row r="305" spans="1:6">
       <c r="A305" s="21" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D305" s="5" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="E305" s="5" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="F305" s="5"/>
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="2" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="F306" s="2"/>
     </row>
     <row r="307" spans="1:6">
       <c r="A307" s="21" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B307" s="21" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="D307" s="5" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="E307" s="5" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="F307" s="5"/>
     </row>
     <row r="308" ht="34.5" spans="1:6">
       <c r="A308" s="21" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B308" s="21" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="D308" s="5" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="E308" s="5" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="F308" s="5"/>
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="21" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B309" s="21" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="D309" s="5" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E309" s="5" t="s">
         <v>1252</v>
-      </c>
-      <c r="E309" s="5" t="s">
-        <v>1251</v>
       </c>
       <c r="F309" s="5"/>
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="21" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B310" s="21" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="D310" s="5" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="E310" s="5" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="F310" s="5"/>
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="21" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B311" s="21" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="D311" s="5" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="E311" s="5" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="F311" s="5"/>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="21" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B312" s="21" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D312" s="5" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="E312" s="5" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="F312" s="5"/>
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="21" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B313" s="21" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D313" s="5" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="E313" s="5" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="F313" s="5"/>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="21" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B314" s="21" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D314" s="5" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="E314" s="5" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="F314" s="5"/>
     </row>
     <row r="315" spans="1:6">
       <c r="A315" s="21" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B315" s="21" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D315" s="5" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E315" s="5" t="s">
         <v>1263</v>
-      </c>
-      <c r="E315" s="5" t="s">
-        <v>1262</v>
       </c>
       <c r="F315" s="5"/>
     </row>
     <row r="316" spans="1:6">
       <c r="A316" s="21" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B316" s="21" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D316" s="5" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="E316" s="5" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="F316" s="5"/>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="21" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B317" s="21" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D317" s="5" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="E317" s="5" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="F317" s="5"/>
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="21" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B318" s="21" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D318" s="5" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="E318" s="5" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="F318" s="5"/>
     </row>
     <row r="319" ht="34.5" spans="1:6">
       <c r="A319" s="21" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B319" s="21" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D319" s="5" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="E319" s="5" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="F319" s="5"/>
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="21" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B320" s="21" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D320" s="5" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="E320" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="F320" s="5"/>
     </row>
     <row r="321" ht="34.5" spans="1:6">
       <c r="A321" s="21" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B321" s="21" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D321" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="E321" s="5" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="F321" s="5"/>
     </row>
     <row r="322" ht="34.5" spans="1:6">
       <c r="A322" s="21" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B322" s="21" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D322" s="5" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="E322" s="5" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="F322" s="5"/>
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="21" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B323" s="21" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D323" s="5" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="E323" s="5" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="F323" s="5"/>
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="21" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B324" s="21" t="s">
         <v>183</v>
@@ -19676,16 +19681,16 @@
         <v>183</v>
       </c>
       <c r="D324" s="5" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="E324" s="5" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="F324" s="5"/>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="21" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B325" s="21" t="s">
         <v>183</v>
@@ -19694,683 +19699,683 @@
         <v>183</v>
       </c>
       <c r="D325" s="5" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="E325" s="5" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="F325" s="5"/>
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B326" s="21" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>348</v>
       </c>
       <c r="D326" s="5" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="E326" s="5" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="F326" s="5"/>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B327" s="21" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>348</v>
       </c>
       <c r="D327" s="5" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E327" s="5" t="s">
         <v>1288</v>
-      </c>
-      <c r="E327" s="5" t="s">
-        <v>1287</v>
       </c>
       <c r="F327" s="5"/>
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B328" s="21" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>348</v>
       </c>
       <c r="D328" s="5" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="E328" s="5" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="F328" s="5"/>
     </row>
     <row r="329" spans="1:6">
       <c r="A329" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B329" s="21" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>348</v>
       </c>
       <c r="D329" s="5" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="E329" s="5" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="F329" s="5"/>
     </row>
     <row r="330" spans="1:6">
       <c r="A330" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B330" s="21" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="D330" s="5" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="E330" s="5" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="F330" s="5"/>
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B331" s="21" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="D331" s="5" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="E331" s="5" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="F331" s="5"/>
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B332" s="21" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="D332" s="5" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="E332" s="5" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="F332" s="5"/>
     </row>
     <row r="333" spans="1:6">
       <c r="A333" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="D333" s="5" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="E333" s="5" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="F333" s="5"/>
     </row>
     <row r="334" spans="1:6">
       <c r="A334" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D334" s="5" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="E334" s="5" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="F334" s="5"/>
     </row>
     <row r="335" spans="1:6">
       <c r="A335" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D335" s="6" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="E335" s="6" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="F335" s="5"/>
     </row>
     <row r="336" spans="1:6">
       <c r="A336" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D336" s="5" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="E336" s="5" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="F336" s="5"/>
     </row>
     <row r="337" spans="1:6">
       <c r="A337" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D337" s="5" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="E337" s="5" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="F337" s="5"/>
     </row>
     <row r="338" spans="1:6">
       <c r="A338" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D338" s="5" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="E338" s="5" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="F338" s="5"/>
     </row>
     <row r="339" spans="1:6">
       <c r="A339" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D339" s="5" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="E339" s="5" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="F339" s="5"/>
     </row>
     <row r="340" spans="1:6">
       <c r="A340" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D340" s="5" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="E340" s="5" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="F340" s="5"/>
     </row>
     <row r="341" spans="1:6">
       <c r="A341" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D341" s="5" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="E341" s="5" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="F341" s="5"/>
     </row>
     <row r="342" spans="1:6">
       <c r="A342" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D342" s="5" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="E342" s="5" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="F342" s="5"/>
     </row>
     <row r="343" spans="1:6">
       <c r="A343" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D343" s="5" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="E343" s="5" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="F343" s="5"/>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="D344" s="5" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="E344" s="5" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="F344" s="5"/>
     </row>
     <row r="345" spans="1:6">
       <c r="A345" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>165</v>
       </c>
       <c r="D345" s="5" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="E345" s="5" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="F345" s="5"/>
     </row>
     <row r="346" ht="51.75" spans="1:6">
       <c r="A346" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>165</v>
       </c>
       <c r="D346" s="5" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="E346" s="5" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="F346" s="5"/>
     </row>
     <row r="347" spans="1:6">
       <c r="A347" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>165</v>
       </c>
       <c r="D347" s="5" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="E347" s="5" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="F347" s="5"/>
     </row>
     <row r="348" ht="51.75" spans="1:6">
       <c r="A348" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>165</v>
       </c>
       <c r="D348" s="5" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="E348" s="5" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="F348" s="5"/>
     </row>
     <row r="349" spans="1:6">
       <c r="A349" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>165</v>
       </c>
       <c r="D349" s="5" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="E349" s="5" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="F349" s="5"/>
     </row>
     <row r="350" spans="1:6">
       <c r="A350" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>165</v>
       </c>
       <c r="D350" s="5" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="E350" s="5" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="F350" s="5"/>
     </row>
     <row r="351" spans="1:6">
       <c r="A351" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>165</v>
       </c>
       <c r="D351" s="5" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="E351" s="5" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="F351" s="5"/>
     </row>
     <row r="352" spans="1:6">
       <c r="A352" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>165</v>
       </c>
       <c r="D352" s="5" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="E352" s="5"/>
       <c r="F352" s="5"/>
     </row>
     <row r="353" ht="51.75" spans="1:6">
       <c r="A353" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>131</v>
       </c>
       <c r="D353" s="5" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="E353" s="5" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="F353" s="5"/>
     </row>
     <row r="354" ht="51.75" spans="1:6">
       <c r="A354" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C354" s="5" t="s">
         <v>131</v>
       </c>
       <c r="D354" s="5" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="E354" s="5" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="F354" s="5"/>
     </row>
     <row r="355" spans="1:6">
       <c r="A355" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C355" s="5" t="s">
         <v>131</v>
       </c>
       <c r="D355" s="5" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="E355" s="5" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="F355" s="5"/>
     </row>
     <row r="356" spans="1:6">
       <c r="A356" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>131</v>
       </c>
       <c r="D356" s="5" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="E356" s="5" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="F356" s="5"/>
     </row>
     <row r="357" spans="1:6">
       <c r="A357" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>131</v>
       </c>
       <c r="D357" s="5" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="E357" s="5" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="F357" s="5"/>
     </row>
     <row r="358" spans="1:6">
       <c r="A358" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>131</v>
       </c>
       <c r="D358" s="5" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="E358" s="5" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="F358" s="5"/>
     </row>
     <row r="359" spans="1:6">
       <c r="A359" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>131</v>
       </c>
       <c r="D359" s="5" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E359" s="5" t="s">
         <v>1354</v>
-      </c>
-      <c r="E359" s="5" t="s">
-        <v>1353</v>
       </c>
       <c r="F359" s="5"/>
     </row>
     <row r="360" spans="1:6">
       <c r="A360" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C360" s="5" t="s">
         <v>131</v>
       </c>
       <c r="D360" s="5" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="E360" s="5" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="F360" s="5"/>
     </row>
     <row r="361" spans="1:6">
       <c r="A361" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C361" s="5" t="s">
         <v>131</v>
       </c>
       <c r="D361" s="5" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="E361" s="5" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="F361" s="5"/>
     </row>
     <row r="362" spans="1:6">
       <c r="A362" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C362" s="5" t="s">
         <v>131</v>
       </c>
       <c r="D362" s="5" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="E362" s="5" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="F362" s="5"/>
     </row>
     <row r="363" spans="1:6">
       <c r="A363" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>131</v>
@@ -20385,10 +20390,10 @@
     </row>
     <row r="364" spans="1:6">
       <c r="A364" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>131</v>
@@ -20403,10 +20408,10 @@
     </row>
     <row r="365" spans="1:6">
       <c r="A365" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>131</v>
@@ -20421,10 +20426,10 @@
     </row>
     <row r="366" ht="34.5" spans="1:6">
       <c r="A366" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>131</v>
@@ -20439,10 +20444,10 @@
     </row>
     <row r="367" spans="1:6">
       <c r="A367" s="2" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>131</v>
@@ -20457,10 +20462,10 @@
     </row>
     <row r="368" spans="1:6">
       <c r="A368" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B368" s="21" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>131</v>
@@ -20475,10 +20480,10 @@
     </row>
     <row r="369" spans="1:6">
       <c r="A369" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B369" s="21" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>131</v>
@@ -20493,10 +20498,10 @@
     </row>
     <row r="370" ht="51.75" spans="1:6">
       <c r="A370" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B370" s="21" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>131</v>
@@ -20513,10 +20518,10 @@
     </row>
     <row r="371" ht="51.75" spans="1:6">
       <c r="A371" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B371" s="21" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>131</v>
@@ -20533,10 +20538,10 @@
     </row>
     <row r="372" ht="34.5" spans="1:6">
       <c r="A372" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B372" s="21" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C372" s="5" t="s">
         <v>131</v>
@@ -20553,10 +20558,10 @@
     </row>
     <row r="373" ht="34.5" spans="1:6">
       <c r="A373" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B373" s="21" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>131</v>
@@ -20573,10 +20578,10 @@
     </row>
     <row r="374" ht="34.5" spans="1:6">
       <c r="A374" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B374" s="21" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>131</v>
@@ -20593,10 +20598,10 @@
     </row>
     <row r="375" ht="34.5" spans="1:6">
       <c r="A375" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B375" s="21" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>131</v>
@@ -20613,10 +20618,10 @@
     </row>
     <row r="376" ht="34.5" spans="1:6">
       <c r="A376" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B376" s="21" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C376" s="5" t="s">
         <v>131</v>
@@ -20633,10 +20638,10 @@
     </row>
     <row r="377" ht="34.5" spans="1:6">
       <c r="A377" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B377" s="21" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>131</v>
@@ -20653,16 +20658,16 @@
     </row>
     <row r="378" ht="34.5" spans="1:6">
       <c r="A378" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B378" s="21" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C378" s="5" t="s">
         <v>131</v>
       </c>
       <c r="D378" s="5" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="E378" s="5" t="s">
         <v>150</v>
@@ -20671,16 +20676,16 @@
     </row>
     <row r="379" ht="51.75" spans="1:6">
       <c r="A379" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B379" s="21" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>131</v>
       </c>
       <c r="D379" s="5" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="E379" s="5" t="s">
         <v>150</v>
@@ -20689,10 +20694,10 @@
     </row>
     <row r="380" ht="34.5" spans="1:6">
       <c r="A380" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B380" s="21" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>131</v>
@@ -20709,10 +20714,10 @@
     </row>
     <row r="381" ht="51.75" spans="1:6">
       <c r="A381" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B381" s="21" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>131</v>
@@ -20729,79 +20734,79 @@
     </row>
     <row r="382" spans="1:6">
       <c r="A382" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B382" s="21" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="D382" s="5" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="E382" s="5" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="F382" s="5"/>
     </row>
     <row r="383" spans="1:6">
       <c r="A383" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B383" s="21" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="D383" s="5" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="E383" s="5" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="F383" s="5"/>
     </row>
     <row r="384" spans="1:6">
       <c r="A384" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B384" s="21" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="D384" s="5" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="E384" s="5" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="F384" s="5"/>
     </row>
     <row r="385" spans="1:6">
       <c r="A385" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B385" s="21" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="D385" s="5" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="E385" s="5" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="F385" s="5"/>
     </row>
     <row r="386" spans="1:6">
       <c r="A386" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B386" s="21" t="s">
         <v>183</v>
@@ -20819,7 +20824,7 @@
     </row>
     <row r="387" spans="1:6">
       <c r="A387" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B387" s="21" t="s">
         <v>183</v>
@@ -20837,7 +20842,7 @@
     </row>
     <row r="388" spans="1:6">
       <c r="A388" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B388" s="21" t="s">
         <v>183</v>
@@ -20855,7 +20860,7 @@
     </row>
     <row r="389" spans="1:6">
       <c r="A389" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B389" s="21" t="s">
         <v>183</v>
@@ -20873,7 +20878,7 @@
     </row>
     <row r="390" spans="1:6">
       <c r="A390" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B390" s="21" t="s">
         <v>192</v>
@@ -20891,7 +20896,7 @@
     </row>
     <row r="391" ht="34.5" spans="1:6">
       <c r="A391" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B391" s="21" t="s">
         <v>192</v>
@@ -20909,7 +20914,7 @@
     </row>
     <row r="392" spans="1:6">
       <c r="A392" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B392" s="21" t="s">
         <v>192</v>
@@ -20927,7 +20932,7 @@
     </row>
     <row r="393" spans="1:6">
       <c r="A393" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B393" s="21" t="s">
         <v>192</v>
@@ -20945,7 +20950,7 @@
     </row>
     <row r="394" spans="1:6">
       <c r="A394" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B394" s="5" t="s">
         <v>192</v>
@@ -20963,7 +20968,7 @@
     </row>
     <row r="395" spans="1:6">
       <c r="A395" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B395" s="5" t="s">
         <v>192</v>
@@ -20981,7 +20986,7 @@
     </row>
     <row r="396" spans="1:6">
       <c r="A396" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B396" s="5" t="s">
         <v>192</v>
@@ -20999,7 +21004,7 @@
     </row>
     <row r="397" spans="1:6">
       <c r="A397" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B397" s="5" t="s">
         <v>192</v>
@@ -21017,7 +21022,7 @@
     </row>
     <row r="398" spans="1:6">
       <c r="A398" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B398" s="5" t="s">
         <v>211</v>
@@ -21031,7 +21036,7 @@
     </row>
     <row r="399" spans="1:6">
       <c r="A399" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B399" s="5" t="s">
         <v>211</v>
@@ -21049,7 +21054,7 @@
     </row>
     <row r="400" spans="1:6">
       <c r="A400" s="21" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B400" s="5" t="s">
         <v>211</v>
@@ -24446,18 +24451,18 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="9" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="11" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="G2" s="11"/>
     </row>
@@ -24466,11 +24471,11 @@
       <c r="B3" s="13"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="G3" s="11"/>
     </row>
@@ -24479,11 +24484,11 @@
       <c r="B4" s="13"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="G4" s="11"/>
     </row>
@@ -24492,26 +24497,26 @@
       <c r="B5" s="14"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="G5" s="11"/>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="12"/>
       <c r="B6" s="10" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="G6" s="11"/>
     </row>
@@ -24520,11 +24525,11 @@
       <c r="B7" s="13"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="G7" s="11"/>
     </row>
@@ -24533,11 +24538,11 @@
       <c r="B8" s="13"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="G8" s="11"/>
     </row>
@@ -24546,11 +24551,11 @@
       <c r="B9" s="13"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="G9" s="11"/>
     </row>
@@ -24559,11 +24564,11 @@
       <c r="B10" s="13"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="G10" s="11"/>
     </row>
@@ -24572,11 +24577,11 @@
       <c r="B11" s="13"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="G11" s="11"/>
     </row>
@@ -24585,26 +24590,26 @@
       <c r="B12" s="14"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="G12" s="11"/>
     </row>
     <row r="13" customHeight="1" spans="1:7">
       <c r="A13" s="12"/>
       <c r="B13" s="10" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="G13" s="11"/>
     </row>
@@ -24613,11 +24618,11 @@
       <c r="B14" s="13"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="G14" s="11"/>
     </row>
@@ -24626,11 +24631,11 @@
       <c r="B15" s="13"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="G15" s="11"/>
     </row>
@@ -24639,11 +24644,11 @@
       <c r="B16" s="13"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="G16" s="11"/>
     </row>
@@ -24652,11 +24657,11 @@
       <c r="B17" s="13"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="G17" s="11"/>
     </row>
@@ -24665,11 +24670,11 @@
       <c r="B18" s="13"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="11" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="G18" s="11"/>
     </row>
@@ -24678,11 +24683,11 @@
       <c r="B19" s="13"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="G19" s="11"/>
     </row>
@@ -24691,11 +24696,11 @@
       <c r="B20" s="13"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="G20" s="11"/>
     </row>
@@ -24704,26 +24709,26 @@
       <c r="B21" s="14"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="G21" s="11"/>
     </row>
     <row r="22" customHeight="1" spans="1:7">
       <c r="A22" s="12"/>
       <c r="B22" s="10" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="11" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="G22" s="11"/>
     </row>
@@ -24732,11 +24737,11 @@
       <c r="B23" s="13"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="G23" s="11"/>
     </row>
@@ -24745,11 +24750,11 @@
       <c r="B24" s="13"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="G24" s="11"/>
     </row>
@@ -24758,11 +24763,11 @@
       <c r="B25" s="13"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="G25" s="11"/>
     </row>
@@ -24771,11 +24776,11 @@
       <c r="B26" s="13"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="G26" s="11"/>
     </row>
@@ -24784,26 +24789,26 @@
       <c r="B27" s="14"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="G27" s="11"/>
     </row>
     <row r="28" customHeight="1" spans="1:7">
       <c r="A28" s="12"/>
       <c r="B28" s="10" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="G28" s="11"/>
     </row>
@@ -24812,11 +24817,11 @@
       <c r="B29" s="13"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="G29" s="11"/>
     </row>
@@ -24825,11 +24830,11 @@
       <c r="B30" s="13"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="11" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="G30" s="11"/>
     </row>
@@ -24838,11 +24843,11 @@
       <c r="B31" s="13"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="G31" s="11"/>
     </row>
@@ -24851,26 +24856,26 @@
       <c r="B32" s="14"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="11" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="G32" s="11"/>
     </row>
     <row r="33" customHeight="1" spans="1:7">
       <c r="A33" s="12"/>
       <c r="B33" s="10" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="G33" s="11"/>
     </row>
@@ -24879,11 +24884,11 @@
       <c r="B34" s="13"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="11" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="G34" s="11"/>
     </row>
@@ -24892,11 +24897,11 @@
       <c r="B35" s="13"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="11" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="G35" s="11"/>
     </row>
@@ -24905,11 +24910,11 @@
       <c r="B36" s="13"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="11" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="G36" s="11"/>
     </row>
@@ -24918,11 +24923,11 @@
       <c r="B37" s="13"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="11" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="G37" s="11"/>
     </row>
@@ -24931,11 +24936,11 @@
       <c r="B38" s="13"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="11" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="G38" s="11"/>
     </row>
@@ -24944,11 +24949,11 @@
       <c r="B39" s="13"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="11" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="G39" s="11"/>
     </row>
@@ -24957,11 +24962,11 @@
       <c r="B40" s="13"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="11" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="G40" s="11"/>
     </row>
@@ -24970,26 +24975,26 @@
       <c r="B41" s="14"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="11" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="G41" s="11"/>
     </row>
     <row r="42" customHeight="1" spans="1:7">
       <c r="A42" s="12"/>
       <c r="B42" s="10" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="11" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="G42" s="11"/>
     </row>
@@ -24998,11 +25003,11 @@
       <c r="B43" s="13"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="11" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="G43" s="11"/>
     </row>
@@ -25011,11 +25016,11 @@
       <c r="B44" s="13"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="E44" s="11"/>
       <c r="F44" s="11" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="G44" s="11"/>
     </row>
@@ -25024,11 +25029,11 @@
       <c r="B45" s="13"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="11" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="G45" s="11"/>
     </row>
@@ -25037,7 +25042,7 @@
       <c r="B46" s="13"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="11" t="s">
@@ -25050,7 +25055,7 @@
       <c r="B47" s="13"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="11" t="s">
@@ -25063,11 +25068,11 @@
       <c r="B48" s="13"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="11" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="G48" s="11"/>
     </row>
@@ -25076,11 +25081,11 @@
       <c r="B49" s="13"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="11" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="G49" s="11"/>
     </row>
@@ -25089,11 +25094,11 @@
       <c r="B50" s="13"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="G50" s="11"/>
     </row>
@@ -25102,26 +25107,26 @@
       <c r="B51" s="14"/>
       <c r="C51" s="11"/>
       <c r="D51" s="11" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="11" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="G51" s="11"/>
     </row>
     <row r="52" customHeight="1" spans="1:7">
       <c r="A52" s="12"/>
       <c r="B52" s="10" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="11" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="G52" s="11"/>
     </row>
@@ -25130,11 +25135,11 @@
       <c r="B53" s="13"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="E53" s="11"/>
       <c r="F53" s="11" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="G53" s="11"/>
     </row>
@@ -25143,11 +25148,11 @@
       <c r="B54" s="13"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="E54" s="11"/>
       <c r="F54" s="11" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="G54" s="11"/>
     </row>
@@ -25156,11 +25161,11 @@
       <c r="B55" s="13"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="E55" s="11"/>
       <c r="F55" s="11" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="G55" s="11"/>
     </row>
@@ -25169,7 +25174,7 @@
       <c r="B56" s="13"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="E56" s="11"/>
       <c r="F56" s="11" t="s">
@@ -25182,7 +25187,7 @@
       <c r="B57" s="13"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="E57" s="11"/>
       <c r="F57" s="11" t="s">
@@ -25195,26 +25200,26 @@
       <c r="B58" s="14"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="E58" s="11"/>
       <c r="F58" s="11" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="G58" s="11"/>
     </row>
     <row r="59" customHeight="1" spans="1:7">
       <c r="A59" s="12"/>
       <c r="B59" s="10" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="11" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="E59" s="11"/>
       <c r="F59" s="11" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="G59" s="11"/>
     </row>
@@ -25223,11 +25228,11 @@
       <c r="B60" s="13"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="E60" s="11"/>
       <c r="F60" s="11" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="G60" s="11"/>
     </row>
@@ -25236,11 +25241,11 @@
       <c r="B61" s="13"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="E61" s="11"/>
       <c r="F61" s="11" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="G61" s="11"/>
     </row>
@@ -25249,11 +25254,11 @@
       <c r="B62" s="13"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="E62" s="11"/>
       <c r="F62" s="11" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="G62" s="11"/>
     </row>
@@ -25262,11 +25267,11 @@
       <c r="B63" s="13"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="E63" s="11"/>
       <c r="F63" s="11" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="G63" s="11"/>
     </row>
@@ -25275,26 +25280,26 @@
       <c r="B64" s="14"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="E64" s="11"/>
       <c r="F64" s="11" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="G64" s="11"/>
     </row>
     <row r="65" customHeight="1" spans="1:7">
       <c r="A65" s="12"/>
       <c r="B65" s="9" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="C65" s="11"/>
       <c r="D65" s="11" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="E65" s="11"/>
       <c r="F65" s="11" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="G65" s="11"/>
     </row>
@@ -25303,11 +25308,11 @@
       <c r="B66" s="12"/>
       <c r="C66" s="11"/>
       <c r="D66" s="11" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="E66" s="11"/>
       <c r="F66" s="11" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="G66" s="11"/>
     </row>
@@ -25316,11 +25321,11 @@
       <c r="B67" s="12"/>
       <c r="C67" s="11"/>
       <c r="D67" s="11" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="E67" s="11"/>
       <c r="F67" s="11" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="G67" s="11"/>
     </row>
@@ -25329,43 +25334,43 @@
       <c r="B68" s="15"/>
       <c r="C68" s="11"/>
       <c r="D68" s="11" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="E68" s="11"/>
       <c r="F68" s="11" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="G68" s="11"/>
     </row>
     <row r="69" ht="13.5" customHeight="1" spans="1:7">
       <c r="A69" s="10" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="11" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="E69" s="11"/>
       <c r="F69" s="11" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="G69" s="11"/>
     </row>
     <row r="70" ht="15.75" customHeight="1" spans="1:7">
       <c r="A70" s="13"/>
       <c r="B70" s="10" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="C70" s="11"/>
       <c r="D70" s="11" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="E70" s="11"/>
       <c r="F70" s="11" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="G70" s="11"/>
     </row>
@@ -25374,11 +25379,11 @@
       <c r="B71" s="13"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="E71" s="11"/>
       <c r="F71" s="11" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="G71" s="11"/>
     </row>
@@ -25387,11 +25392,11 @@
       <c r="B72" s="13"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="E72" s="11"/>
       <c r="F72" s="11" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="G72" s="11"/>
     </row>
@@ -25400,11 +25405,11 @@
       <c r="B73" s="13"/>
       <c r="C73" s="11"/>
       <c r="D73" s="11" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="E73" s="11"/>
       <c r="F73" s="11" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="G73" s="11"/>
     </row>
@@ -25413,11 +25418,11 @@
       <c r="B74" s="13"/>
       <c r="C74" s="11"/>
       <c r="D74" s="11" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="E74" s="11"/>
       <c r="F74" s="11" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="G74" s="11"/>
     </row>
@@ -25426,11 +25431,11 @@
       <c r="B75" s="13"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="E75" s="11"/>
       <c r="F75" s="11" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="G75" s="11"/>
     </row>
@@ -25439,11 +25444,11 @@
       <c r="B76" s="13"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="E76" s="11"/>
       <c r="F76" s="11" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="G76" s="11"/>
     </row>
@@ -25452,11 +25457,11 @@
       <c r="B77" s="13"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="E77" s="11"/>
       <c r="F77" s="11" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="G77" s="11"/>
     </row>
@@ -25465,11 +25470,11 @@
       <c r="B78" s="13"/>
       <c r="C78" s="11"/>
       <c r="D78" s="11" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="E78" s="11"/>
       <c r="F78" s="11" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="G78" s="11"/>
     </row>
@@ -25478,7 +25483,7 @@
       <c r="B79" s="13"/>
       <c r="C79" s="11"/>
       <c r="D79" s="11" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="E79" s="11"/>
       <c r="F79" s="11" t="s">
@@ -25491,26 +25496,26 @@
       <c r="B80" s="13"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="E80" s="11"/>
       <c r="F80" s="11" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="G80" s="11"/>
     </row>
     <row r="81" ht="13.5" customHeight="1" spans="1:7">
       <c r="A81" s="13"/>
       <c r="B81" s="10" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="C81" s="11"/>
       <c r="D81" s="11" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="E81" s="11"/>
       <c r="F81" s="11" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="G81" s="11"/>
     </row>
@@ -25519,11 +25524,11 @@
       <c r="B82" s="13"/>
       <c r="C82" s="11"/>
       <c r="D82" s="11" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="E82" s="11"/>
       <c r="F82" s="11" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="G82" s="11"/>
     </row>
@@ -25532,11 +25537,11 @@
       <c r="B83" s="13"/>
       <c r="C83" s="11"/>
       <c r="D83" s="11" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="E83" s="11"/>
       <c r="F83" s="11" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="G83" s="11"/>
     </row>
@@ -25545,11 +25550,11 @@
       <c r="B84" s="13"/>
       <c r="C84" s="11"/>
       <c r="D84" s="11" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="E84" s="11"/>
       <c r="F84" s="11" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="G84" s="11"/>
     </row>
@@ -25558,11 +25563,11 @@
       <c r="B85" s="13"/>
       <c r="C85" s="11"/>
       <c r="D85" s="11" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="E85" s="11"/>
       <c r="F85" s="11" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="G85" s="11"/>
     </row>
@@ -25571,11 +25576,11 @@
       <c r="B86" s="14"/>
       <c r="C86" s="11"/>
       <c r="D86" s="11" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="E86" s="11"/>
       <c r="F86" s="11" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="G86" s="11"/>
     </row>
@@ -25668,13 +25673,13 @@
         <v>715</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="F2" s="5"/>
     </row>
@@ -25686,13 +25691,13 @@
         <v>715</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="F3" s="5"/>
     </row>
@@ -25704,13 +25709,13 @@
         <v>715</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -25722,13 +25727,13 @@
         <v>715</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="F5" s="5"/>
     </row>
@@ -25740,13 +25745,13 @@
         <v>715</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -25758,13 +25763,13 @@
         <v>715</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="F7" s="5"/>
     </row>
@@ -25776,13 +25781,13 @@
         <v>715</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -25794,13 +25799,13 @@
         <v>715</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -25812,13 +25817,13 @@
         <v>715</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="F10" s="5"/>
     </row>
@@ -25830,13 +25835,13 @@
         <v>715</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="F11" s="5"/>
     </row>
@@ -25848,13 +25853,13 @@
         <v>715</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="F12" s="5"/>
     </row>
@@ -25866,13 +25871,13 @@
         <v>715</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="F13" s="5"/>
     </row>
@@ -25884,13 +25889,13 @@
         <v>715</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="F14" s="5"/>
     </row>
@@ -25902,13 +25907,13 @@
         <v>715</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="F15" s="5"/>
     </row>
@@ -25920,13 +25925,13 @@
         <v>715</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="F16" s="5"/>
     </row>
@@ -25938,13 +25943,13 @@
         <v>715</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="F17" s="5"/>
     </row>
@@ -25956,13 +25961,13 @@
         <v>715</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="F18" s="5"/>
     </row>
@@ -25974,13 +25979,13 @@
         <v>715</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="F19" s="5"/>
     </row>
@@ -25992,13 +25997,13 @@
         <v>715</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="F20" s="5"/>
     </row>
@@ -26010,13 +26015,13 @@
         <v>715</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -26028,10 +26033,10 @@
         <v>715</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -26044,13 +26049,13 @@
         <v>715</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="F23" s="5"/>
     </row>
@@ -26062,13 +26067,13 @@
         <v>715</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="F24" s="5"/>
     </row>
@@ -26080,13 +26085,13 @@
         <v>715</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="F25" s="5"/>
     </row>
@@ -26098,13 +26103,13 @@
         <v>715</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="F26" s="5"/>
     </row>
@@ -26116,13 +26121,13 @@
         <v>715</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="F27" s="5"/>
     </row>
@@ -26131,16 +26136,16 @@
         <v>630</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="F28" s="5"/>
     </row>
@@ -26149,16 +26154,16 @@
         <v>630</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="F29" s="5"/>
     </row>
@@ -26167,16 +26172,16 @@
         <v>630</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="F30" s="5"/>
     </row>
@@ -26185,16 +26190,16 @@
         <v>630</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="F31" s="5"/>
     </row>
@@ -26203,16 +26208,16 @@
         <v>630</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="F32" s="5"/>
     </row>
@@ -26221,16 +26226,16 @@
         <v>630</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="F33" s="5"/>
     </row>
@@ -26239,16 +26244,16 @@
         <v>630</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="F34" s="5"/>
     </row>
@@ -26257,16 +26262,16 @@
         <v>630</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="F35" s="5"/>
     </row>
@@ -26275,16 +26280,16 @@
         <v>630</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="F36" s="5"/>
     </row>
@@ -26293,16 +26298,16 @@
         <v>630</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="F37" s="5"/>
     </row>
@@ -26311,16 +26316,16 @@
         <v>630</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="F38" s="5"/>
     </row>
@@ -26329,16 +26334,16 @@
         <v>630</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="F39" s="5"/>
     </row>
@@ -26347,16 +26352,16 @@
         <v>630</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="F40" s="5"/>
     </row>
@@ -26365,16 +26370,16 @@
         <v>630</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="F41" s="5"/>
     </row>
@@ -26383,16 +26388,16 @@
         <v>630</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="F42" s="5"/>
     </row>
@@ -26401,16 +26406,16 @@
         <v>630</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="F43" s="5"/>
     </row>
@@ -26419,16 +26424,16 @@
         <v>630</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="F44" s="5"/>
     </row>
@@ -26437,16 +26442,16 @@
         <v>630</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="F45" s="5"/>
     </row>
@@ -26455,16 +26460,16 @@
         <v>630</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="F46" s="5"/>
     </row>
@@ -26473,16 +26478,16 @@
         <v>630</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="F47" s="5"/>
     </row>
@@ -26491,16 +26496,16 @@
         <v>630</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="F48" s="5"/>
     </row>
@@ -26509,16 +26514,16 @@
         <v>630</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="F49" s="5"/>
     </row>
@@ -26527,16 +26532,16 @@
         <v>630</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="F50" s="5"/>
     </row>
@@ -26545,16 +26550,16 @@
         <v>630</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="F51" s="5"/>
     </row>
@@ -26563,16 +26568,16 @@
         <v>630</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="F52" s="5"/>
     </row>
@@ -26581,16 +26586,16 @@
         <v>630</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="F53" s="5"/>
     </row>
@@ -26599,16 +26604,16 @@
         <v>630</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="F54" s="5"/>
     </row>
@@ -26617,16 +26622,16 @@
         <v>630</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="F55" s="5"/>
     </row>
@@ -26635,16 +26640,16 @@
         <v>630</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="F56" s="5"/>
     </row>
@@ -26653,16 +26658,16 @@
         <v>630</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="F57" s="5"/>
     </row>
@@ -26671,16 +26676,16 @@
         <v>630</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C58" s="5" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E58" s="5" t="s">
         <v>1598</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>1596</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>1597</v>
       </c>
       <c r="F58" s="5"/>
     </row>
@@ -26689,16 +26694,16 @@
         <v>630</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="F59" s="5"/>
     </row>
@@ -26707,16 +26712,16 @@
         <v>630</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="F60" s="5"/>
     </row>
@@ -26725,16 +26730,16 @@
         <v>630</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="F61" s="5"/>
     </row>

--- a/data/即时通讯测试用例V2.0.xlsx
+++ b/data/即时通讯测试用例V2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28785" windowHeight="13140" tabRatio="612" activeTab="6"/>
+    <workbookView windowWidth="28785" windowHeight="13140" tabRatio="612" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="登录注册" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4152" uniqueCount="1710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4140" uniqueCount="1710">
   <si>
     <t>系统模块</t>
   </si>
@@ -5203,10 +5203,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -5267,37 +5267,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5310,8 +5287,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5320,14 +5298,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5357,6 +5327,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -5365,22 +5343,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5402,11 +5380,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5443,7 +5443,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5455,61 +5491,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5521,7 +5515,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5539,7 +5533,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5551,13 +5587,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5569,13 +5605,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5587,37 +5617,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5731,6 +5731,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5750,56 +5789,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -5828,6 +5817,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5836,10 +5836,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5848,137 +5848,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6043,9 +6043,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6491,18 +6488,18 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="18.75" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.875" style="44"/>
-    <col min="2" max="2" width="14.625" style="44" customWidth="1"/>
-    <col min="3" max="3" width="22.625" style="44" customWidth="1"/>
-    <col min="4" max="4" width="89.25" style="44" customWidth="1"/>
-    <col min="5" max="5" width="60.375" style="44" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="44" customWidth="1"/>
-    <col min="7" max="16384" width="11.875" style="44"/>
+    <col min="1" max="1" width="11.875" style="43"/>
+    <col min="2" max="2" width="14.625" style="43" customWidth="1"/>
+    <col min="3" max="3" width="22.625" style="43" customWidth="1"/>
+    <col min="4" max="4" width="89.25" style="43" customWidth="1"/>
+    <col min="5" max="5" width="60.375" style="43" customWidth="1"/>
+    <col min="6" max="6" width="8.625" style="43" customWidth="1"/>
+    <col min="7" max="16384" width="11.875" style="43"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" spans="1:6">
@@ -6526,10 +6523,10 @@
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:6">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -6546,10 +6543,10 @@
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:6">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="13" t="s">
@@ -6566,10 +6563,10 @@
       </c>
     </row>
     <row r="4" ht="17.25" spans="1:7">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -6584,15 +6581,15 @@
       <c r="F4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="43" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" ht="34.5" spans="1:6">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="21" t="s">
@@ -6609,10 +6606,10 @@
       </c>
     </row>
     <row r="6" ht="34.5" spans="1:6">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="21" t="s">
@@ -6629,10 +6626,10 @@
       </c>
     </row>
     <row r="7" ht="34.5" spans="1:6">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="21" t="s">
@@ -6649,10 +6646,10 @@
       </c>
     </row>
     <row r="8" ht="17.25" spans="1:6">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="21" t="s">
@@ -6669,10 +6666,10 @@
       </c>
     </row>
     <row r="9" ht="34.5" spans="1:6">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="21" t="s">
@@ -6681,7 +6678,7 @@
       <c r="D9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="46" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="13" t="s">
@@ -6689,10 +6686,10 @@
       </c>
     </row>
     <row r="10" ht="34.5" spans="1:6">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="21" t="s">
@@ -6701,7 +6698,7 @@
       <c r="D10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="46" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="13" t="s">
@@ -6709,10 +6706,10 @@
       </c>
     </row>
     <row r="11" ht="17.25" spans="1:6">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="21" t="s">
@@ -6729,10 +6726,10 @@
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:6">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -6749,10 +6746,10 @@
       </c>
     </row>
     <row r="13" ht="17.25" spans="1:6">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="21" t="s">
@@ -6769,10 +6766,10 @@
       </c>
     </row>
     <row r="14" ht="34.5" spans="1:6">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="13" t="s">
@@ -6789,10 +6786,10 @@
       </c>
     </row>
     <row r="15" ht="17.25" spans="1:6">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="47" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="21" t="s">
@@ -6809,10 +6806,10 @@
       </c>
     </row>
     <row r="16" ht="17.25" spans="1:6">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="47" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="21" t="s">
@@ -6829,10 +6826,10 @@
       </c>
     </row>
     <row r="17" ht="17.25" spans="1:6">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="47" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="21" t="s">
@@ -6849,10 +6846,10 @@
       </c>
     </row>
     <row r="18" ht="17.25" spans="1:6">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="47" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="21" t="s">
@@ -6869,10 +6866,10 @@
       </c>
     </row>
     <row r="19" ht="17.25" spans="1:6">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="47" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="21" t="s">
@@ -6889,10 +6886,10 @@
       </c>
     </row>
     <row r="20" ht="17.25" spans="1:6">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="47" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="21" t="s">
@@ -6909,10 +6906,10 @@
       </c>
     </row>
     <row r="21" ht="17.25" spans="1:6">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="47" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="21" t="s">
@@ -6929,10 +6926,10 @@
       </c>
     </row>
     <row r="22" ht="17.25" spans="1:6">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="47" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="21" t="s">
@@ -6949,10 +6946,10 @@
       </c>
     </row>
     <row r="23" ht="17.25" spans="1:6">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="47" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="21" t="s">
@@ -6969,10 +6966,10 @@
       </c>
     </row>
     <row r="24" ht="17.25" spans="1:6">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="47" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="21" t="s">
@@ -6989,10 +6986,10 @@
       </c>
     </row>
     <row r="25" ht="17.25" spans="1:6">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="47" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -7009,10 +7006,10 @@
       </c>
     </row>
     <row r="26" ht="17.25" spans="1:6">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="47" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="21" t="s">
@@ -7029,10 +7026,10 @@
       </c>
     </row>
     <row r="27" ht="17.25" spans="1:6">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="47" t="s">
         <v>40</v>
       </c>
       <c r="C27" s="21" t="s">
@@ -7049,10 +7046,10 @@
       </c>
     </row>
     <row r="28" ht="17.25" spans="1:6">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="47" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="21" t="s">
@@ -7061,7 +7058,7 @@
       <c r="D28" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="49" t="s">
+      <c r="E28" s="48" t="s">
         <v>64</v>
       </c>
       <c r="F28" s="13" t="s">
@@ -7069,19 +7066,19 @@
       </c>
     </row>
     <row r="29" ht="17.25" spans="1:6">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="51" t="s">
+      <c r="D29" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="49" t="s">
+      <c r="E29" s="48" t="s">
         <v>64</v>
       </c>
       <c r="F29" s="13" t="s">
@@ -7089,19 +7086,19 @@
       </c>
     </row>
     <row r="30" ht="17.25" spans="1:6">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="51" t="s">
+      <c r="D30" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="49" t="s">
+      <c r="E30" s="48" t="s">
         <v>68</v>
       </c>
       <c r="F30" s="13" t="s">
@@ -7109,10 +7106,10 @@
       </c>
     </row>
     <row r="31" ht="17.25" spans="1:6">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="47" t="s">
         <v>69</v>
       </c>
       <c r="C31" s="21" t="s">
@@ -7129,10 +7126,10 @@
       </c>
     </row>
     <row r="32" ht="17.25" spans="1:6">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="47" t="s">
         <v>69</v>
       </c>
       <c r="C32" s="21" t="s">
@@ -7147,10 +7144,10 @@
       <c r="F32" s="13"/>
     </row>
     <row r="33" ht="17.25" spans="1:6">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="47" t="s">
         <v>69</v>
       </c>
       <c r="C33" s="21" t="s">
@@ -7167,10 +7164,10 @@
       </c>
     </row>
     <row r="34" ht="17.25" spans="1:6">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="47" t="s">
         <v>69</v>
       </c>
       <c r="C34" s="21" t="s">
@@ -7184,11 +7181,11 @@
       </c>
       <c r="F34" s="13"/>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="45" t="s">
+    <row r="35" ht="17.25" spans="1:6">
+      <c r="A35" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="47" t="s">
         <v>69</v>
       </c>
       <c r="C35" s="21" t="s">
@@ -7202,11 +7199,11 @@
       </c>
       <c r="F35" s="13"/>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="45" t="s">
+    <row r="36" ht="17.25" spans="1:6">
+      <c r="A36" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="47" t="s">
         <v>80</v>
       </c>
       <c r="C36" s="21" t="s">
@@ -7222,11 +7219,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="45" t="s">
+    <row r="37" ht="17.25" spans="1:6">
+      <c r="A37" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="51" t="s">
         <v>80</v>
       </c>
       <c r="C37" s="13" t="s">
@@ -13167,837 +13164,837 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:6">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="38" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="38"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:6">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="38" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="40" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="F4" s="38"/>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="38" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="38"/>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="38" t="s">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38" t="s">
+      <c r="D6" s="37"/>
+      <c r="E6" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="38"/>
+      <c r="F6" s="37"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="38" t="s">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38" t="s">
+      <c r="D7" s="37"/>
+      <c r="E7" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="38"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="38" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="38"/>
+      <c r="F8" s="37"/>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:6">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="38" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38" t="s">
+      <c r="D9" s="37"/>
+      <c r="E9" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="38"/>
+      <c r="F9" s="37"/>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="38" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38" t="s">
+      <c r="D10" s="37"/>
+      <c r="E10" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="38"/>
+      <c r="F10" s="37"/>
     </row>
     <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="38" t="s">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38" t="s">
+      <c r="D11" s="37"/>
+      <c r="E11" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="38"/>
+      <c r="F11" s="37"/>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38" t="s">
+      <c r="B12" s="37"/>
+      <c r="C12" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38" t="s">
+      <c r="D12" s="37"/>
+      <c r="E12" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="F12" s="38"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:6">
-      <c r="A13" s="39"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38" t="s">
+      <c r="D13" s="37"/>
+      <c r="E13" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="38"/>
+      <c r="F13" s="37"/>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A14" s="39"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38" t="s">
+      <c r="A14" s="38"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38" t="s">
+      <c r="D14" s="37"/>
+      <c r="E14" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="38"/>
+      <c r="F14" s="37"/>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A15" s="39"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38" t="s">
+      <c r="D15" s="37"/>
+      <c r="E15" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="F15" s="38"/>
+      <c r="F15" s="37"/>
     </row>
     <row r="16" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A16" s="39"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38" t="s">
+      <c r="A16" s="38"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38" t="s">
+      <c r="D16" s="37"/>
+      <c r="E16" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="F16" s="38"/>
+      <c r="F16" s="37"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="39"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38" t="s">
+      <c r="A17" s="38"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38" t="s">
+      <c r="D17" s="37"/>
+      <c r="E17" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="38"/>
+      <c r="F17" s="37"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="39"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38" t="s">
+      <c r="A18" s="38"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38" t="s">
+      <c r="D18" s="37"/>
+      <c r="E18" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="38"/>
+      <c r="F18" s="37"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="39"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38" t="s">
+      <c r="D19" s="37"/>
+      <c r="E19" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="38"/>
+      <c r="F19" s="37"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="39"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38" t="s">
+      <c r="A20" s="38"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38" t="s">
+      <c r="D20" s="37"/>
+      <c r="E20" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="38"/>
+      <c r="F20" s="37"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="39"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38" t="s">
+      <c r="A21" s="38"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38" t="s">
+      <c r="D21" s="37"/>
+      <c r="E21" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="38"/>
+      <c r="F21" s="37"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="39"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38" t="s">
+      <c r="A22" s="38"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38" t="s">
+      <c r="D22" s="37"/>
+      <c r="E22" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="38"/>
+      <c r="F22" s="37"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="39"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38" t="s">
+      <c r="A23" s="38"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38" t="s">
+      <c r="D23" s="37"/>
+      <c r="E23" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="F23" s="38"/>
+      <c r="F23" s="37"/>
     </row>
     <row r="24" ht="15" customHeight="1" spans="1:6">
-      <c r="A24" s="39"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38" t="s">
+      <c r="A24" s="38"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38" t="s">
+      <c r="D24" s="37"/>
+      <c r="E24" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="F24" s="38"/>
+      <c r="F24" s="37"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="41"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38" t="s">
+      <c r="A25" s="40"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38" t="s">
+      <c r="D25" s="37"/>
+      <c r="E25" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="F25" s="38"/>
+      <c r="F25" s="37"/>
     </row>
     <row r="26" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="24" t="s">
+      <c r="B26" s="41"/>
+      <c r="C26" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24" t="s">
+      <c r="D26" s="23"/>
+      <c r="E26" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="F26" s="24"/>
+      <c r="F26" s="23"/>
     </row>
     <row r="27" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A27" s="24"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="24" t="s">
+      <c r="A27" s="23"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24" t="s">
+      <c r="D27" s="23"/>
+      <c r="E27" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="F27" s="24"/>
+      <c r="F27" s="23"/>
     </row>
     <row r="28" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A28" s="24"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="24" t="s">
+      <c r="A28" s="23"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24" t="s">
+      <c r="D28" s="23"/>
+      <c r="E28" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="F28" s="24"/>
+      <c r="F28" s="23"/>
     </row>
     <row r="29" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A29" s="24"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="24" t="s">
+      <c r="A29" s="23"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24" t="s">
+      <c r="D29" s="23"/>
+      <c r="E29" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="F29" s="24"/>
+      <c r="F29" s="23"/>
     </row>
     <row r="30" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A30" s="24"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="24" t="s">
+      <c r="A30" s="23"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24" t="s">
+      <c r="D30" s="23"/>
+      <c r="E30" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="F30" s="24"/>
+      <c r="F30" s="23"/>
     </row>
     <row r="31" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A31" s="24"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="24" t="s">
+      <c r="A31" s="23"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24" t="s">
+      <c r="D31" s="23"/>
+      <c r="E31" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="F31" s="24"/>
+      <c r="F31" s="23"/>
     </row>
     <row r="32" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A32" s="24"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="24" t="s">
+      <c r="A32" s="23"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24" t="s">
+      <c r="D32" s="23"/>
+      <c r="E32" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="F32" s="24"/>
+      <c r="F32" s="23"/>
     </row>
     <row r="33" ht="25.5" customHeight="1" spans="1:6">
-      <c r="A33" s="24"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="24" t="s">
+      <c r="A33" s="23"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24" t="s">
+      <c r="D33" s="23"/>
+      <c r="E33" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="23" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1" spans="1:6">
-      <c r="A34" s="24"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="24" t="s">
+      <c r="A34" s="23"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24" t="s">
+      <c r="D34" s="23"/>
+      <c r="E34" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="F34" s="24" t="s">
+      <c r="F34" s="23" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A35" s="24"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="24" t="s">
+      <c r="A35" s="23"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24" t="s">
+      <c r="D35" s="23"/>
+      <c r="E35" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="F35" s="24" t="s">
+      <c r="F35" s="23" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A36" s="24"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="24" t="s">
+      <c r="A36" s="23"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24" t="s">
+      <c r="D36" s="23"/>
+      <c r="E36" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="F36" s="23" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A37" s="24"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="24" t="s">
+      <c r="A37" s="23"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24" t="s">
+      <c r="D37" s="23"/>
+      <c r="E37" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="F37" s="24" t="s">
+      <c r="F37" s="23" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A38" s="24"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="24" t="s">
+      <c r="A38" s="23"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24" t="s">
+      <c r="D38" s="23"/>
+      <c r="E38" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F38" s="24" t="s">
+      <c r="F38" s="23" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A39" s="24"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="24" t="s">
+      <c r="A39" s="23"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24" t="s">
+      <c r="D39" s="23"/>
+      <c r="E39" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="F39" s="24" t="s">
+      <c r="F39" s="23" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A40" s="24"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="24" t="s">
+      <c r="A40" s="23"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24" t="s">
+      <c r="D40" s="23"/>
+      <c r="E40" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="F40" s="24" t="s">
+      <c r="F40" s="23" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A41" s="24"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="24" t="s">
+      <c r="A41" s="23"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24" t="s">
+      <c r="D41" s="23"/>
+      <c r="E41" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="F41" s="24" t="s">
+      <c r="F41" s="23" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A42" s="24"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="24" t="s">
+      <c r="A42" s="23"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24" t="s">
+      <c r="D42" s="23"/>
+      <c r="E42" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="F42" s="24"/>
+      <c r="F42" s="23"/>
     </row>
     <row r="43" ht="15" customHeight="1" spans="1:6">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="27" t="s">
+      <c r="B43" s="24"/>
+      <c r="C43" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27" t="s">
+      <c r="D43" s="26"/>
+      <c r="E43" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="F43" s="27"/>
+      <c r="F43" s="26"/>
     </row>
     <row r="44" ht="15" customHeight="1" spans="1:6">
-      <c r="A44" s="29"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="27" t="s">
+      <c r="A44" s="28"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27" t="s">
+      <c r="D44" s="26"/>
+      <c r="E44" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="F44" s="27"/>
+      <c r="F44" s="26"/>
     </row>
     <row r="45" ht="15" customHeight="1" spans="1:6">
-      <c r="A45" s="29"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="27" t="s">
+      <c r="A45" s="28"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27" t="s">
+      <c r="D45" s="26"/>
+      <c r="E45" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="F45" s="27"/>
+      <c r="F45" s="26"/>
     </row>
     <row r="46" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A46" s="30"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="27" t="s">
+      <c r="A46" s="29"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27" t="s">
+      <c r="D46" s="26"/>
+      <c r="E46" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="F46" s="27"/>
+      <c r="F46" s="26"/>
     </row>
     <row r="47" customHeight="1" spans="1:6">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="B47" s="43"/>
-      <c r="C47" s="27" t="s">
+      <c r="B47" s="42"/>
+      <c r="C47" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27" t="s">
+      <c r="D47" s="26"/>
+      <c r="E47" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="F47" s="27"/>
+      <c r="F47" s="26"/>
     </row>
     <row r="48" customHeight="1" spans="1:6">
-      <c r="A48" s="29"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="27" t="s">
+      <c r="A48" s="28"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="F48" s="27"/>
+      <c r="F48" s="26"/>
     </row>
     <row r="49" customHeight="1" spans="1:6">
-      <c r="A49" s="29"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="27" t="s">
+      <c r="A49" s="28"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27" t="s">
+      <c r="D49" s="26"/>
+      <c r="E49" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="F49" s="27"/>
+      <c r="F49" s="26"/>
     </row>
     <row r="50" customHeight="1" spans="1:6">
-      <c r="A50" s="29"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="27" t="s">
+      <c r="A50" s="28"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27" t="s">
+      <c r="D50" s="26"/>
+      <c r="E50" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="F50" s="27"/>
+      <c r="F50" s="26"/>
     </row>
     <row r="51" ht="15" customHeight="1" spans="1:6">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B51" s="43"/>
-      <c r="C51" s="27" t="s">
+      <c r="B51" s="42"/>
+      <c r="C51" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27" t="s">
+      <c r="D51" s="26"/>
+      <c r="E51" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="F51" s="27"/>
+      <c r="F51" s="26"/>
     </row>
     <row r="52" ht="15" customHeight="1" spans="1:6">
-      <c r="A52" s="29"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="27" t="s">
+      <c r="A52" s="28"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27" t="s">
+      <c r="D52" s="26"/>
+      <c r="E52" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="F52" s="27"/>
+      <c r="F52" s="26"/>
     </row>
     <row r="53" ht="15" customHeight="1" spans="1:6">
-      <c r="A53" s="29"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="27" t="s">
+      <c r="A53" s="28"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27" t="s">
+      <c r="D53" s="26"/>
+      <c r="E53" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="F53" s="27"/>
+      <c r="F53" s="26"/>
     </row>
     <row r="54" ht="15" customHeight="1" spans="1:6">
-      <c r="A54" s="29"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="27" t="s">
+      <c r="A54" s="28"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27" t="s">
+      <c r="D54" s="26"/>
+      <c r="E54" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="F54" s="27"/>
+      <c r="F54" s="26"/>
     </row>
     <row r="55" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A55" s="26" t="s">
+      <c r="A55" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="B55" s="26" t="s">
+      <c r="B55" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27" t="s">
+      <c r="D55" s="26"/>
+      <c r="E55" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="F55" s="27"/>
+      <c r="F55" s="26"/>
     </row>
     <row r="56" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="27" t="s">
+      <c r="A56" s="28"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27" t="s">
+      <c r="D56" s="26"/>
+      <c r="E56" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="F56" s="27"/>
+      <c r="F56" s="26"/>
     </row>
     <row r="57" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A57" s="29"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="27" t="s">
+      <c r="A57" s="28"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27" t="s">
+      <c r="D57" s="26"/>
+      <c r="E57" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="F57" s="27"/>
+      <c r="F57" s="26"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="29"/>
-      <c r="B58" s="26" t="s">
+      <c r="A58" s="28"/>
+      <c r="B58" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="C58" s="27" t="s">
+      <c r="C58" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27" t="s">
+      <c r="D58" s="26"/>
+      <c r="E58" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="F58" s="27"/>
+      <c r="F58" s="26"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="29"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="27" t="s">
+      <c r="A59" s="28"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27" t="s">
+      <c r="D59" s="26"/>
+      <c r="E59" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="F59" s="27"/>
+      <c r="F59" s="26"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="29"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="27" t="s">
+      <c r="A60" s="28"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27" t="s">
+      <c r="D60" s="26"/>
+      <c r="E60" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="F60" s="27"/>
+      <c r="F60" s="26"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="29"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="27" t="s">
+      <c r="A61" s="28"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27" t="s">
+      <c r="D61" s="26"/>
+      <c r="E61" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="F61" s="27"/>
+      <c r="F61" s="26"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="30"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="27" t="s">
+      <c r="A62" s="29"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27" t="s">
+      <c r="D62" s="26"/>
+      <c r="E62" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="F62" s="27"/>
+      <c r="F62" s="26"/>
     </row>
     <row r="63" ht="27" customHeight="1" spans="1:6">
-      <c r="A63" s="26" t="s">
+      <c r="A63" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="B63" s="27" t="s">
+      <c r="B63" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="29"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
+      <c r="A64" s="28"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
     </row>
     <row r="65" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A65" s="29"/>
-      <c r="B65" s="26" t="s">
+      <c r="A65" s="28"/>
+      <c r="B65" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="C65" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27" t="s">
+      <c r="D65" s="26"/>
+      <c r="E65" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="F65" s="27"/>
+      <c r="F65" s="26"/>
     </row>
     <row r="66" ht="15" customHeight="1" spans="1:6">
-      <c r="A66" s="30"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="27" t="s">
+      <c r="A66" s="29"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27" t="s">
+      <c r="D66" s="26"/>
+      <c r="E66" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="F66" s="27"/>
+      <c r="F66" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -14031,841 +14028,841 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="7" style="23" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="23" customWidth="1"/>
-    <col min="3" max="3" width="4.125" style="23" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="41.375" style="23" customWidth="1"/>
-    <col min="5" max="5" width="4.125" style="23" customWidth="1"/>
-    <col min="6" max="6" width="39.75" style="23" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="7" style="22" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="22" customWidth="1"/>
+    <col min="3" max="3" width="4.125" style="22" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="41.375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="4.125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="39.75" style="22" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" spans="1:7">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="26.25" customHeight="1" spans="1:7">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="G2" s="27"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="29"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27" t="s">
+      <c r="E3" s="26"/>
+      <c r="F3" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:7">
-      <c r="A4" s="29"/>
-      <c r="B4" s="26" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27" t="s">
+      <c r="E4" s="26"/>
+      <c r="F4" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27" t="s">
+      <c r="E5" s="26"/>
+      <c r="F5" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="G5" s="27"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" ht="27" spans="1:7">
-      <c r="A6" s="29"/>
-      <c r="B6" s="26" t="s">
+      <c r="A6" s="28"/>
+      <c r="B6" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27" t="s">
+      <c r="E6" s="26"/>
+      <c r="F6" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="G6" s="27"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="G7" s="27"/>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" ht="12" customHeight="1" spans="1:7">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27" t="s">
+      <c r="E8" s="26"/>
+      <c r="F8" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="G8" s="27"/>
+      <c r="G8" s="26"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27" t="s">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27" t="s">
+      <c r="E9" s="26"/>
+      <c r="F9" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="G9" s="27"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27" t="s">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27" t="s">
+      <c r="E10" s="26"/>
+      <c r="F10" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="G10" s="27"/>
+      <c r="G10" s="26"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27" t="s">
+      <c r="E11" s="26"/>
+      <c r="F11" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="G11" s="27"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" ht="27" spans="1:7">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27" t="s">
+      <c r="E12" s="26"/>
+      <c r="F12" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="G12" s="27"/>
+      <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="29"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27" t="s">
+      <c r="A13" s="28"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27" t="s">
+      <c r="E13" s="26"/>
+      <c r="F13" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="G13" s="27"/>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" customHeight="1" spans="1:7">
-      <c r="A14" s="29"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27" t="s">
+      <c r="E14" s="26"/>
+      <c r="F14" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="G14" s="27"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="29"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27" t="s">
+      <c r="E15" s="26"/>
+      <c r="F15" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="G15" s="27"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" customHeight="1" spans="1:7">
-      <c r="A16" s="29"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27" t="s">
+      <c r="A16" s="28"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27" t="s">
+      <c r="E16" s="26"/>
+      <c r="F16" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="G16" s="27"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="29"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27" t="s">
+      <c r="E17" s="26"/>
+      <c r="F17" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="G17" s="27"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="30"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27" t="s">
+      <c r="A18" s="29"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27" t="s">
+      <c r="E18" s="26"/>
+      <c r="F18" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="G18" s="27"/>
+      <c r="G18" s="26"/>
     </row>
     <row r="19" ht="27" spans="1:7">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27" t="s">
+      <c r="C19" s="26"/>
+      <c r="D19" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27" t="s">
+      <c r="E19" s="26"/>
+      <c r="F19" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="G19" s="27"/>
+      <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="27"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27" t="s">
+      <c r="A20" s="26"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27" t="s">
+      <c r="E20" s="26"/>
+      <c r="F20" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="G20" s="27"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="27"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27" t="s">
+      <c r="A21" s="26"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27" t="s">
+      <c r="E21" s="26"/>
+      <c r="F21" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="G21" s="27"/>
+      <c r="G21" s="26"/>
     </row>
     <row r="22" ht="27" spans="1:7">
-      <c r="A22" s="27"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27" t="s">
+      <c r="A22" s="26"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27" t="s">
+      <c r="E22" s="26"/>
+      <c r="F22" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="G22" s="27"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" ht="27" spans="1:7">
-      <c r="A23" s="27"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27" t="s">
+      <c r="A23" s="26"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27" t="s">
+      <c r="E23" s="26"/>
+      <c r="F23" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="27"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" ht="27" spans="1:7">
-      <c r="A24" s="27"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27" t="s">
+      <c r="A24" s="26"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27" t="s">
+      <c r="E24" s="26"/>
+      <c r="F24" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="G24" s="27"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" ht="27.75" customHeight="1" spans="1:7">
-      <c r="A25" s="27"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27" t="s">
+      <c r="A25" s="26"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27" t="s">
+      <c r="E25" s="26"/>
+      <c r="F25" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="G25" s="27"/>
+      <c r="G25" s="26"/>
     </row>
     <row r="26" ht="27" spans="1:7">
-      <c r="A26" s="27"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27" t="s">
+      <c r="A26" s="26"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27" t="s">
+      <c r="E26" s="26"/>
+      <c r="F26" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="G26" s="27"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" ht="27" spans="1:7">
-      <c r="A27" s="27"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27" t="s">
+      <c r="A27" s="26"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27" t="s">
+      <c r="E27" s="26"/>
+      <c r="F27" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="G27" s="27"/>
+      <c r="G27" s="26"/>
     </row>
     <row r="28" ht="27" spans="1:7">
-      <c r="A28" s="27"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27" t="s">
+      <c r="A28" s="26"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27" t="s">
+      <c r="E28" s="26"/>
+      <c r="F28" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="G28" s="27"/>
+      <c r="G28" s="26"/>
     </row>
     <row r="29" ht="27" spans="1:7">
-      <c r="A29" s="27"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27" t="s">
+      <c r="A29" s="26"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27" t="s">
+      <c r="E29" s="26"/>
+      <c r="F29" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="G29" s="27"/>
+      <c r="G29" s="26"/>
     </row>
     <row r="30" ht="15" customHeight="1" spans="1:7">
-      <c r="A30" s="27"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27" t="s">
+      <c r="A30" s="26"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27" t="s">
+      <c r="E30" s="26"/>
+      <c r="F30" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="G30" s="27"/>
+      <c r="G30" s="26"/>
     </row>
     <row r="31" ht="30" customHeight="1" spans="1:7">
-      <c r="A31" s="27"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27" t="s">
+      <c r="A31" s="26"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27" t="s">
+      <c r="E31" s="26"/>
+      <c r="F31" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="G31" s="27"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" ht="30" customHeight="1" spans="1:7">
-      <c r="A32" s="27"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27" t="s">
+      <c r="A32" s="26"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27" t="s">
+      <c r="E32" s="26"/>
+      <c r="F32" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="G32" s="27"/>
+      <c r="G32" s="26"/>
     </row>
     <row r="33" ht="27" spans="1:7">
-      <c r="A33" s="27"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27" t="s">
+      <c r="A33" s="26"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27" t="s">
+      <c r="E33" s="26"/>
+      <c r="F33" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="G33" s="27"/>
+      <c r="G33" s="26"/>
     </row>
     <row r="34" ht="27" customHeight="1" spans="1:7">
-      <c r="A34" s="27"/>
-      <c r="B34" s="26" t="s">
+      <c r="A34" s="26"/>
+      <c r="B34" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27" t="s">
+      <c r="C34" s="26"/>
+      <c r="D34" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27" t="s">
+      <c r="E34" s="26"/>
+      <c r="F34" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="G34" s="27"/>
+      <c r="G34" s="26"/>
     </row>
     <row r="35" ht="27" spans="1:7">
-      <c r="A35" s="27"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27" t="s">
+      <c r="A35" s="26"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27" t="s">
+      <c r="E35" s="26"/>
+      <c r="F35" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="G35" s="27"/>
+      <c r="G35" s="26"/>
     </row>
     <row r="36" ht="27" spans="1:7">
-      <c r="A36" s="27"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27" t="s">
+      <c r="A36" s="26"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27" t="s">
+      <c r="E36" s="26"/>
+      <c r="F36" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="G36" s="27"/>
+      <c r="G36" s="26"/>
     </row>
     <row r="37" ht="27" spans="1:7">
-      <c r="A37" s="27"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27" t="s">
+      <c r="A37" s="26"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27" t="s">
+      <c r="E37" s="26"/>
+      <c r="F37" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="G37" s="27"/>
+      <c r="G37" s="26"/>
     </row>
     <row r="38" ht="15" customHeight="1" spans="1:7">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27" t="s">
+      <c r="C38" s="26"/>
+      <c r="D38" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27" t="s">
+      <c r="E38" s="26"/>
+      <c r="F38" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="G38" s="27"/>
+      <c r="G38" s="26"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="27"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27" t="s">
+      <c r="A39" s="26"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27" t="s">
+      <c r="E39" s="26"/>
+      <c r="F39" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="G39" s="27"/>
+      <c r="G39" s="26"/>
     </row>
     <row r="40" ht="27" spans="1:7">
-      <c r="A40" s="27"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27" t="s">
+      <c r="A40" s="26"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27" t="s">
+      <c r="E40" s="26"/>
+      <c r="F40" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="G40" s="27"/>
+      <c r="G40" s="26"/>
     </row>
     <row r="41" ht="27" spans="1:7">
-      <c r="A41" s="27"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27" t="s">
+      <c r="A41" s="26"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27" t="s">
+      <c r="E41" s="26"/>
+      <c r="F41" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="G41" s="27"/>
+      <c r="G41" s="26"/>
     </row>
     <row r="42" ht="27" spans="1:7">
-      <c r="A42" s="27"/>
-      <c r="B42" s="25" t="s">
+      <c r="A42" s="26"/>
+      <c r="B42" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27" t="s">
+      <c r="C42" s="26"/>
+      <c r="D42" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27" t="s">
+      <c r="E42" s="26"/>
+      <c r="F42" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="G42" s="27"/>
+      <c r="G42" s="26"/>
     </row>
     <row r="43" customHeight="1" spans="1:7">
-      <c r="A43" s="27"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27" t="s">
+      <c r="A43" s="26"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27" t="s">
+      <c r="E43" s="26"/>
+      <c r="F43" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="G43" s="27"/>
+      <c r="G43" s="26"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="27"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27" t="s">
+      <c r="A44" s="26"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27" t="s">
+      <c r="E44" s="26"/>
+      <c r="F44" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="G44" s="27"/>
+      <c r="G44" s="26"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="27"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27" t="s">
+      <c r="A45" s="26"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27" t="s">
+      <c r="E45" s="26"/>
+      <c r="F45" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="G45" s="27"/>
+      <c r="G45" s="26"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="27"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27" t="s">
+      <c r="A46" s="26"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27" t="s">
+      <c r="E46" s="26"/>
+      <c r="F46" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="G46" s="27"/>
+      <c r="G46" s="26"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="27"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27" t="s">
+      <c r="A47" s="26"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27" t="s">
+      <c r="E47" s="26"/>
+      <c r="F47" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="G47" s="27"/>
+      <c r="G47" s="26"/>
     </row>
     <row r="48" customHeight="1" spans="1:7">
-      <c r="A48" s="27"/>
-      <c r="B48" s="26" t="s">
+      <c r="A48" s="26"/>
+      <c r="B48" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27" t="s">
+      <c r="C48" s="26"/>
+      <c r="D48" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27" t="s">
+      <c r="E48" s="26"/>
+      <c r="F48" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="G48" s="27"/>
+      <c r="G48" s="26"/>
     </row>
     <row r="49" customHeight="1" spans="1:7">
-      <c r="A49" s="27"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27" t="s">
+      <c r="A49" s="26"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27" t="s">
+      <c r="E49" s="26"/>
+      <c r="F49" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="G49" s="27"/>
+      <c r="G49" s="26"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="27"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27" t="s">
+      <c r="A50" s="26"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27" t="s">
+      <c r="E50" s="26"/>
+      <c r="F50" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="G50" s="27"/>
+      <c r="G50" s="26"/>
     </row>
     <row r="51" ht="27" spans="1:7">
-      <c r="A51" s="27"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27" t="s">
+      <c r="A51" s="26"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27" t="s">
+      <c r="E51" s="26"/>
+      <c r="F51" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="G51" s="27"/>
+      <c r="G51" s="26"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="27"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27" t="s">
+      <c r="A52" s="26"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27" t="s">
+      <c r="E52" s="26"/>
+      <c r="F52" s="26" t="s">
         <v>327</v>
       </c>
-      <c r="G52" s="27"/>
+      <c r="G52" s="26"/>
     </row>
     <row r="53" ht="27" spans="1:7">
-      <c r="A53" s="27"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27" t="s">
+      <c r="A53" s="26"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26" t="s">
         <v>328</v>
       </c>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27" t="s">
+      <c r="E53" s="26"/>
+      <c r="F53" s="26" t="s">
         <v>329</v>
       </c>
-      <c r="G53" s="27"/>
+      <c r="G53" s="26"/>
     </row>
     <row r="54" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A54" s="27"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27" t="s">
+      <c r="A54" s="26"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27" t="s">
+      <c r="E54" s="26"/>
+      <c r="F54" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="G54" s="27"/>
+      <c r="G54" s="26"/>
     </row>
     <row r="55" ht="12.75" customHeight="1" spans="1:7">
-      <c r="A55" s="27"/>
-      <c r="B55" s="26" t="s">
+      <c r="A55" s="26"/>
+      <c r="B55" s="25" t="s">
         <v>332</v>
       </c>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27" t="s">
+      <c r="C55" s="26"/>
+      <c r="D55" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27" t="s">
+      <c r="E55" s="26"/>
+      <c r="F55" s="26" t="s">
         <v>334</v>
       </c>
-      <c r="G55" s="27"/>
+      <c r="G55" s="26"/>
     </row>
     <row r="56" customHeight="1" spans="1:7">
-      <c r="A56" s="27"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27" t="s">
+      <c r="A56" s="26"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27" t="s">
+      <c r="E56" s="26"/>
+      <c r="F56" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="G56" s="27"/>
+      <c r="G56" s="26"/>
     </row>
     <row r="57" ht="12.75" customHeight="1" spans="1:7">
-      <c r="A57" s="27"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27" t="s">
+      <c r="A57" s="26"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27" t="s">
+      <c r="E57" s="26"/>
+      <c r="F57" s="26" t="s">
         <v>338</v>
       </c>
-      <c r="G57" s="27"/>
+      <c r="G57" s="26"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="27"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27" t="s">
+      <c r="A58" s="26"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27" t="s">
+      <c r="E58" s="26"/>
+      <c r="F58" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="G58" s="27"/>
+      <c r="G58" s="26"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="27"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27" t="s">
+      <c r="A59" s="26"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27" t="s">
+      <c r="E59" s="26"/>
+      <c r="F59" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="G59" s="27"/>
+      <c r="G59" s="26"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="27"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27" t="s">
+      <c r="A60" s="26"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27" t="s">
+      <c r="E60" s="26"/>
+      <c r="F60" s="26" t="s">
         <v>344</v>
       </c>
-      <c r="G60" s="27"/>
+      <c r="G60" s="26"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="27"/>
-      <c r="B61" s="30"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27" t="s">
+      <c r="A61" s="26"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27" t="s">
+      <c r="E61" s="26"/>
+      <c r="F61" s="26" t="s">
         <v>346</v>
       </c>
-      <c r="G61" s="27"/>
+      <c r="G61" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -14899,37 +14896,37 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="33" customWidth="1"/>
-    <col min="2" max="2" width="15" style="23" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="23" customWidth="1"/>
-    <col min="4" max="4" width="83.875" style="23" customWidth="1"/>
-    <col min="5" max="5" width="62.125" style="23" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="23" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="13.75" style="32" customWidth="1"/>
+    <col min="2" max="2" width="15" style="22" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="22" customWidth="1"/>
+    <col min="4" max="4" width="83.875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="62.125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="22" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A1" s="34" t="s">
+    <row r="1" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A1" s="33" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="33" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="32" customFormat="1" ht="34.5" spans="1:6">
-      <c r="A2" s="35" t="s">
+    <row r="2" s="31" customFormat="1" ht="34.5" spans="1:6">
+      <c r="A2" s="34" t="s">
         <v>348</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -14948,8 +14945,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="32" customFormat="1" ht="17.25" spans="1:7">
-      <c r="A3" s="35" t="s">
+    <row r="3" s="31" customFormat="1" ht="17.25" spans="1:7">
+      <c r="A3" s="34" t="s">
         <v>348</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -14967,12 +14964,12 @@
       <c r="F3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="31" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="4" s="32" customFormat="1" ht="17.25" spans="1:7">
-      <c r="A4" s="35" t="s">
+    <row r="4" s="31" customFormat="1" ht="17.25" spans="1:7">
+      <c r="A4" s="34" t="s">
         <v>348</v>
       </c>
       <c r="B4" s="19" t="s">
@@ -14990,12 +14987,12 @@
       <c r="F4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="31" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="5" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A5" s="35" t="s">
+    <row r="5" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A5" s="34" t="s">
         <v>348</v>
       </c>
       <c r="B5" s="19" t="s">
@@ -15014,8 +15011,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="32" customFormat="1" ht="17.25" spans="1:7">
-      <c r="A6" s="35" t="s">
+    <row r="6" s="31" customFormat="1" ht="17.25" spans="1:7">
+      <c r="A6" s="34" t="s">
         <v>348</v>
       </c>
       <c r="B6" s="19" t="s">
@@ -15033,12 +15030,12 @@
       <c r="F6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="31" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="7" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A7" s="35" t="s">
+    <row r="7" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A7" s="34" t="s">
         <v>348</v>
       </c>
       <c r="B7" s="19" t="s">
@@ -15057,8 +15054,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A8" s="35" t="s">
+    <row r="8" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A8" s="34" t="s">
         <v>348</v>
       </c>
       <c r="B8" s="19" t="s">
@@ -15077,8 +15074,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A9" s="35" t="s">
+    <row r="9" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A9" s="34" t="s">
         <v>348</v>
       </c>
       <c r="B9" s="19" t="s">
@@ -15097,8 +15094,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A10" s="35" t="s">
+    <row r="10" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A10" s="34" t="s">
         <v>348</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -15117,8 +15114,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A11" s="35" t="s">
+    <row r="11" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A11" s="34" t="s">
         <v>348</v>
       </c>
       <c r="B11" s="19" t="s">
@@ -15137,8 +15134,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A12" s="35" t="s">
+    <row r="12" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A12" s="34" t="s">
         <v>348</v>
       </c>
       <c r="B12" s="19" t="s">
@@ -15157,8 +15154,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A13" s="35" t="s">
+    <row r="13" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A13" s="34" t="s">
         <v>348</v>
       </c>
       <c r="B13" s="19" t="s">
@@ -15177,8 +15174,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A14" s="35" t="s">
+    <row r="14" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A14" s="34" t="s">
         <v>348</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -15197,8 +15194,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A15" s="35" t="s">
+    <row r="15" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A15" s="34" t="s">
         <v>348</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -15217,8 +15214,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A16" s="35" t="s">
+    <row r="16" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A16" s="34" t="s">
         <v>348</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -15237,8 +15234,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A17" s="35" t="s">
+    <row r="17" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A17" s="34" t="s">
         <v>348</v>
       </c>
       <c r="B17" s="19" t="s">
@@ -15257,8 +15254,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A18" s="35" t="s">
+    <row r="18" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A18" s="34" t="s">
         <v>348</v>
       </c>
       <c r="B18" s="19" t="s">
@@ -15277,8 +15274,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" s="32" customFormat="1" ht="17.25" spans="1:7">
-      <c r="A19" s="35" t="s">
+    <row r="19" s="31" customFormat="1" ht="17.25" spans="1:7">
+      <c r="A19" s="34" t="s">
         <v>348</v>
       </c>
       <c r="B19" s="19" t="s">
@@ -15296,12 +15293,12 @@
       <c r="F19" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="32" t="s">
+      <c r="G19" s="31" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="20" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A20" s="35" t="s">
+    <row r="20" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A20" s="34" t="s">
         <v>348</v>
       </c>
       <c r="B20" s="19" t="s">
@@ -15320,8 +15317,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" s="32" customFormat="1" ht="17.25" spans="1:7">
-      <c r="A21" s="35" t="s">
+    <row r="21" s="31" customFormat="1" ht="17.25" spans="1:7">
+      <c r="A21" s="34" t="s">
         <v>348</v>
       </c>
       <c r="B21" s="19" t="s">
@@ -15339,12 +15336,12 @@
       <c r="F21" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="32" t="s">
+      <c r="G21" s="31" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="22" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A22" s="35" t="s">
+    <row r="22" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A22" s="34" t="s">
         <v>348</v>
       </c>
       <c r="B22" s="19" t="s">
@@ -15363,8 +15360,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A23" s="35" t="s">
+    <row r="23" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A23" s="34" t="s">
         <v>348</v>
       </c>
       <c r="B23" s="19" t="s">
@@ -15383,8 +15380,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A24" s="35" t="s">
+    <row r="24" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A24" s="34" t="s">
         <v>348</v>
       </c>
       <c r="B24" s="19" t="s">
@@ -15403,8 +15400,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A25" s="35" t="s">
+    <row r="25" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A25" s="34" t="s">
         <v>348</v>
       </c>
       <c r="B25" s="19" t="s">
@@ -15423,8 +15420,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A26" s="35" t="s">
+    <row r="26" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A26" s="34" t="s">
         <v>348</v>
       </c>
       <c r="B26" s="19" t="s">
@@ -15443,8 +15440,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A27" s="35" t="s">
+    <row r="27" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A27" s="34" t="s">
         <v>348</v>
       </c>
       <c r="B27" s="19" t="s">
@@ -15463,8 +15460,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A28" s="35" t="s">
+    <row r="28" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A28" s="34" t="s">
         <v>348</v>
       </c>
       <c r="B28" s="19" t="s">
@@ -15483,8 +15480,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A29" s="35" t="s">
+    <row r="29" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A29" s="34" t="s">
         <v>348</v>
       </c>
       <c r="B29" s="19" t="s">
@@ -15503,8 +15500,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A30" s="35" t="s">
+    <row r="30" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A30" s="34" t="s">
         <v>348</v>
       </c>
       <c r="B30" s="19" t="s">
@@ -15523,8 +15520,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" s="32" customFormat="1" ht="34.5" spans="1:6">
-      <c r="A31" s="35" t="s">
+    <row r="31" s="31" customFormat="1" ht="34.5" spans="1:6">
+      <c r="A31" s="34" t="s">
         <v>348</v>
       </c>
       <c r="B31" s="19" t="s">
@@ -15543,8 +15540,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A32" s="35" t="s">
+    <row r="32" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A32" s="34" t="s">
         <v>348</v>
       </c>
       <c r="B32" s="19" t="s">
@@ -15563,8 +15560,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" s="32" customFormat="1" ht="34.5" spans="1:6">
-      <c r="A33" s="35" t="s">
+    <row r="33" s="31" customFormat="1" ht="34.5" spans="1:6">
+      <c r="A33" s="34" t="s">
         <v>348</v>
       </c>
       <c r="B33" s="19" t="s">
@@ -15583,8 +15580,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A34" s="35" t="s">
+    <row r="34" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A34" s="34" t="s">
         <v>348</v>
       </c>
       <c r="B34" s="19" t="s">
@@ -15603,8 +15600,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" s="32" customFormat="1" ht="34.5" spans="1:6">
-      <c r="A35" s="35" t="s">
+    <row r="35" s="31" customFormat="1" ht="34.5" spans="1:6">
+      <c r="A35" s="34" t="s">
         <v>348</v>
       </c>
       <c r="B35" s="19" t="s">
@@ -15623,8 +15620,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" s="32" customFormat="1" ht="34.5" spans="1:6">
-      <c r="A36" s="35" t="s">
+    <row r="36" s="31" customFormat="1" ht="34.5" spans="1:6">
+      <c r="A36" s="34" t="s">
         <v>436</v>
       </c>
       <c r="B36" s="19" t="s">
@@ -15643,8 +15640,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A37" s="35" t="s">
+    <row r="37" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A37" s="34" t="s">
         <v>436</v>
       </c>
       <c r="B37" s="19" t="s">
@@ -15663,8 +15660,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A38" s="35" t="s">
+    <row r="38" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A38" s="34" t="s">
         <v>436</v>
       </c>
       <c r="B38" s="19" t="s">
@@ -15683,8 +15680,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A39" s="35" t="s">
+    <row r="39" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A39" s="34" t="s">
         <v>436</v>
       </c>
       <c r="B39" s="19" t="s">
@@ -15703,8 +15700,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A40" s="35" t="s">
+    <row r="40" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A40" s="34" t="s">
         <v>436</v>
       </c>
       <c r="B40" s="19" t="s">
@@ -15723,8 +15720,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A41" s="35" t="s">
+    <row r="41" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A41" s="34" t="s">
         <v>436</v>
       </c>
       <c r="B41" s="19" t="s">
@@ -15743,8 +15740,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A42" s="35" t="s">
+    <row r="42" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A42" s="34" t="s">
         <v>436</v>
       </c>
       <c r="B42" s="19" t="s">
@@ -15763,8 +15760,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A43" s="35" t="s">
+    <row r="43" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A43" s="34" t="s">
         <v>436</v>
       </c>
       <c r="B43" s="19" t="s">
@@ -15783,8 +15780,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A44" s="35" t="s">
+    <row r="44" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A44" s="34" t="s">
         <v>436</v>
       </c>
       <c r="B44" s="19" t="s">
@@ -15803,8 +15800,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A45" s="35" t="s">
+    <row r="45" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A45" s="34" t="s">
         <v>436</v>
       </c>
       <c r="B45" s="19" t="s">
@@ -15823,8 +15820,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A46" s="35" t="s">
+    <row r="46" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A46" s="34" t="s">
         <v>436</v>
       </c>
       <c r="B46" s="19" t="s">
@@ -15843,8 +15840,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A47" s="35" t="s">
+    <row r="47" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A47" s="34" t="s">
         <v>436</v>
       </c>
       <c r="B47" s="19" t="s">
@@ -15863,7 +15860,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" s="32" customFormat="1" ht="34.5" spans="1:6">
+    <row r="48" s="31" customFormat="1" ht="34.5" spans="1:6">
       <c r="A48" s="19" t="s">
         <v>461</v>
       </c>
@@ -15883,7 +15880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" s="32" customFormat="1" ht="17.25" spans="1:6">
+    <row r="49" s="31" customFormat="1" ht="17.25" spans="1:6">
       <c r="A49" s="19" t="s">
         <v>461</v>
       </c>
@@ -15903,7 +15900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" s="32" customFormat="1" ht="17.25" spans="1:6">
+    <row r="50" s="31" customFormat="1" ht="17.25" spans="1:6">
       <c r="A50" s="19" t="s">
         <v>461</v>
       </c>
@@ -15923,7 +15920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" s="32" customFormat="1" ht="17.25" spans="1:6">
+    <row r="51" s="31" customFormat="1" ht="17.25" spans="1:6">
       <c r="A51" s="19" t="s">
         <v>461</v>
       </c>
@@ -15943,7 +15940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" s="32" customFormat="1" ht="17.25" spans="1:6">
+    <row r="52" s="31" customFormat="1" ht="17.25" spans="1:6">
       <c r="A52" s="19" t="s">
         <v>461</v>
       </c>
@@ -15963,14 +15960,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A53" s="35" t="s">
+    <row r="53" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A53" s="34" t="s">
         <v>461</v>
       </c>
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="34" t="s">
         <v>461</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="34" t="s">
         <v>461</v>
       </c>
       <c r="D53" s="19" t="s">
@@ -15983,8 +15980,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A54" s="35" t="s">
+    <row r="54" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A54" s="34" t="s">
         <v>474</v>
       </c>
       <c r="B54" s="19" t="s">
@@ -16003,8 +16000,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" s="32" customFormat="1" ht="34.5" spans="1:6">
-      <c r="A55" s="35" t="s">
+    <row r="55" s="31" customFormat="1" ht="34.5" spans="1:6">
+      <c r="A55" s="34" t="s">
         <v>474</v>
       </c>
       <c r="B55" s="19" t="s">
@@ -16023,8 +16020,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A56" s="35" t="s">
+    <row r="56" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A56" s="34" t="s">
         <v>474</v>
       </c>
       <c r="B56" s="19" t="s">
@@ -16043,8 +16040,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A57" s="35" t="s">
+    <row r="57" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A57" s="34" t="s">
         <v>474</v>
       </c>
       <c r="B57" s="19" t="s">
@@ -16063,8 +16060,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A58" s="35" t="s">
+    <row r="58" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A58" s="34" t="s">
         <v>474</v>
       </c>
       <c r="B58" s="19" t="s">
@@ -16083,8 +16080,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" s="32" customFormat="1" ht="34.5" spans="1:6">
-      <c r="A59" s="35" t="s">
+    <row r="59" s="31" customFormat="1" ht="34.5" spans="1:6">
+      <c r="A59" s="34" t="s">
         <v>474</v>
       </c>
       <c r="B59" s="19" t="s">
@@ -16103,8 +16100,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A60" s="35" t="s">
+    <row r="60" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A60" s="34" t="s">
         <v>474</v>
       </c>
       <c r="B60" s="19" t="s">
@@ -16123,8 +16120,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A61" s="35" t="s">
+    <row r="61" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A61" s="34" t="s">
         <v>474</v>
       </c>
       <c r="B61" s="19" t="s">
@@ -16143,8 +16140,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A62" s="35" t="s">
+    <row r="62" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A62" s="34" t="s">
         <v>474</v>
       </c>
       <c r="B62" s="19" t="s">
@@ -16163,8 +16160,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A63" s="35" t="s">
+    <row r="63" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A63" s="34" t="s">
         <v>474</v>
       </c>
       <c r="B63" s="19" t="s">
@@ -16183,8 +16180,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A64" s="35" t="s">
+    <row r="64" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A64" s="34" t="s">
         <v>474</v>
       </c>
       <c r="B64" s="19" t="s">
@@ -16203,8 +16200,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A65" s="35" t="s">
+    <row r="65" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A65" s="34" t="s">
         <v>474</v>
       </c>
       <c r="B65" s="19" t="s">
@@ -16223,8 +16220,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A66" s="35" t="s">
+    <row r="66" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A66" s="34" t="s">
         <v>474</v>
       </c>
       <c r="B66" s="19" t="s">
@@ -16243,8 +16240,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A67" s="35" t="s">
+    <row r="67" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A67" s="34" t="s">
         <v>474</v>
       </c>
       <c r="B67" s="19" t="s">
@@ -16263,8 +16260,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A68" s="35" t="s">
+    <row r="68" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A68" s="34" t="s">
         <v>474</v>
       </c>
       <c r="B68" s="19" t="s">
@@ -16283,8 +16280,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A69" s="35" t="s">
+    <row r="69" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A69" s="34" t="s">
         <v>474</v>
       </c>
       <c r="B69" s="19" t="s">
@@ -16303,8 +16300,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A70" s="35" t="s">
+    <row r="70" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A70" s="34" t="s">
         <v>474</v>
       </c>
       <c r="B70" s="19" t="s">
@@ -16323,8 +16320,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A71" s="35" t="s">
+    <row r="71" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A71" s="34" t="s">
         <v>474</v>
       </c>
       <c r="B71" s="19" t="s">
@@ -16343,8 +16340,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A72" s="35" t="s">
+    <row r="72" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A72" s="34" t="s">
         <v>474</v>
       </c>
       <c r="B72" s="19" t="s">
@@ -16363,8 +16360,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A73" s="35" t="s">
+    <row r="73" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A73" s="34" t="s">
         <v>474</v>
       </c>
       <c r="B73" s="19" t="s">
@@ -16383,8 +16380,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A74" s="35" t="s">
+    <row r="74" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A74" s="34" t="s">
         <v>474</v>
       </c>
       <c r="B74" s="19" t="s">
@@ -16403,8 +16400,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A75" s="35" t="s">
+    <row r="75" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A75" s="34" t="s">
         <v>474</v>
       </c>
       <c r="B75" s="19" t="s">
@@ -16423,8 +16420,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A76" s="35" t="s">
+    <row r="76" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A76" s="34" t="s">
         <v>474</v>
       </c>
       <c r="B76" s="19" t="s">
@@ -16443,8 +16440,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" s="32" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A77" s="35" t="s">
+    <row r="77" s="31" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A77" s="34" t="s">
         <v>474</v>
       </c>
       <c r="B77" s="19" t="s">
@@ -16463,7 +16460,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" s="32" customFormat="1" ht="17.25" spans="1:6">
+    <row r="78" s="31" customFormat="1" ht="17.25" spans="1:6">
       <c r="A78" s="19" t="s">
         <v>474</v>
       </c>
@@ -16484,2233 +16481,2233 @@
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="23"/>
+      <c r="A79" s="22"/>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="23"/>
+      <c r="A80" s="22"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="36"/>
-      <c r="B81" s="36"/>
-      <c r="C81" s="36"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="36"/>
-      <c r="G81" s="36"/>
+      <c r="A81" s="35"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="23"/>
+      <c r="A82" s="22"/>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="23"/>
+      <c r="A83" s="22"/>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="23"/>
+      <c r="A84" s="22"/>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="23"/>
+      <c r="A85" s="22"/>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="23"/>
+      <c r="A86" s="22"/>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="23"/>
+      <c r="A87" s="22"/>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="23"/>
+      <c r="A88" s="22"/>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="23"/>
+      <c r="A89" s="22"/>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="23"/>
+      <c r="A90" s="22"/>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="23"/>
+      <c r="A91" s="22"/>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="23"/>
+      <c r="A92" s="22"/>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="23"/>
+      <c r="A93" s="22"/>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="23"/>
+      <c r="A94" s="22"/>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="23"/>
+      <c r="A95" s="22"/>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="23"/>
+      <c r="A96" s="22"/>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="23"/>
+      <c r="A97" s="22"/>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="23"/>
+      <c r="A98" s="22"/>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="23"/>
+      <c r="A99" s="22"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="23"/>
+      <c r="A100" s="22"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="23"/>
+      <c r="A101" s="22"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="23"/>
+      <c r="A102" s="22"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="23"/>
+      <c r="A103" s="22"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="23"/>
+      <c r="A104" s="22"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="23"/>
+      <c r="A105" s="22"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="23"/>
+      <c r="A106" s="22"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="23"/>
+      <c r="A107" s="22"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="23"/>
+      <c r="A108" s="22"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="23"/>
+      <c r="A109" s="22"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="23"/>
+      <c r="A110" s="22"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="23"/>
+      <c r="A111" s="22"/>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="23"/>
+      <c r="A112" s="22"/>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="23"/>
+      <c r="A113" s="22"/>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="23"/>
+      <c r="A114" s="22"/>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="23"/>
+      <c r="A115" s="22"/>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="23"/>
+      <c r="A116" s="22"/>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="23"/>
+      <c r="A117" s="22"/>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="23"/>
+      <c r="A118" s="22"/>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="23"/>
+      <c r="A119" s="22"/>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="23"/>
+      <c r="A120" s="22"/>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="23"/>
+      <c r="A121" s="22"/>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="23"/>
+      <c r="A122" s="22"/>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="23"/>
+      <c r="A123" s="22"/>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="23"/>
+      <c r="A124" s="22"/>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="23"/>
+      <c r="A125" s="22"/>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="23"/>
+      <c r="A126" s="22"/>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="23"/>
+      <c r="A127" s="22"/>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="23"/>
+      <c r="A128" s="22"/>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="23"/>
+      <c r="A129" s="22"/>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="23"/>
+      <c r="A130" s="22"/>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="23"/>
+      <c r="A131" s="22"/>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="23"/>
+      <c r="A132" s="22"/>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="23"/>
+      <c r="A133" s="22"/>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="23"/>
+      <c r="A134" s="22"/>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="23"/>
+      <c r="A135" s="22"/>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="23"/>
+      <c r="A136" s="22"/>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="23"/>
+      <c r="A137" s="22"/>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="23"/>
+      <c r="A138" s="22"/>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="23"/>
+      <c r="A139" s="22"/>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="23"/>
+      <c r="A140" s="22"/>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="23"/>
+      <c r="A141" s="22"/>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="23"/>
+      <c r="A142" s="22"/>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="23"/>
+      <c r="A143" s="22"/>
     </row>
     <row r="144" spans="1:1">
-      <c r="A144" s="23"/>
+      <c r="A144" s="22"/>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="23"/>
+      <c r="A145" s="22"/>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="23"/>
+      <c r="A146" s="22"/>
     </row>
     <row r="147" spans="1:1">
-      <c r="A147" s="23"/>
+      <c r="A147" s="22"/>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="23"/>
+      <c r="A148" s="22"/>
     </row>
     <row r="149" spans="1:1">
-      <c r="A149" s="23"/>
+      <c r="A149" s="22"/>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" s="23"/>
+      <c r="A150" s="22"/>
     </row>
     <row r="151" spans="1:1">
-      <c r="A151" s="23"/>
+      <c r="A151" s="22"/>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="23"/>
+      <c r="A152" s="22"/>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="23"/>
+      <c r="A153" s="22"/>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="23"/>
+      <c r="A154" s="22"/>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" s="23"/>
+      <c r="A155" s="22"/>
     </row>
     <row r="156" spans="1:1">
-      <c r="A156" s="23"/>
+      <c r="A156" s="22"/>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="23"/>
+      <c r="A157" s="22"/>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" s="23"/>
+      <c r="A158" s="22"/>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="23"/>
+      <c r="A159" s="22"/>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" s="23"/>
+      <c r="A160" s="22"/>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="23"/>
+      <c r="A161" s="22"/>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="23"/>
+      <c r="A162" s="22"/>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="23"/>
+      <c r="A163" s="22"/>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="23"/>
+      <c r="A164" s="22"/>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="23"/>
+      <c r="A165" s="22"/>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="23"/>
+      <c r="A166" s="22"/>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="23"/>
+      <c r="A167" s="22"/>
     </row>
     <row r="168" spans="1:1">
-      <c r="A168" s="23"/>
+      <c r="A168" s="22"/>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="23"/>
+      <c r="A169" s="22"/>
     </row>
     <row r="170" spans="1:1">
-      <c r="A170" s="23"/>
+      <c r="A170" s="22"/>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="23"/>
+      <c r="A171" s="22"/>
     </row>
     <row r="172" spans="1:1">
-      <c r="A172" s="23"/>
+      <c r="A172" s="22"/>
     </row>
     <row r="173" spans="1:1">
-      <c r="A173" s="23"/>
+      <c r="A173" s="22"/>
     </row>
     <row r="174" spans="1:1">
-      <c r="A174" s="23"/>
+      <c r="A174" s="22"/>
     </row>
     <row r="175" spans="1:1">
-      <c r="A175" s="23"/>
+      <c r="A175" s="22"/>
     </row>
     <row r="176" spans="1:1">
-      <c r="A176" s="23"/>
+      <c r="A176" s="22"/>
     </row>
     <row r="177" spans="1:1">
-      <c r="A177" s="23"/>
+      <c r="A177" s="22"/>
     </row>
     <row r="178" spans="1:1">
-      <c r="A178" s="23"/>
+      <c r="A178" s="22"/>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" s="23"/>
+      <c r="A179" s="22"/>
     </row>
     <row r="180" spans="1:1">
-      <c r="A180" s="23"/>
+      <c r="A180" s="22"/>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" s="23"/>
+      <c r="A181" s="22"/>
     </row>
     <row r="182" spans="1:1">
-      <c r="A182" s="23"/>
+      <c r="A182" s="22"/>
     </row>
     <row r="183" spans="1:1">
-      <c r="A183" s="23"/>
+      <c r="A183" s="22"/>
     </row>
     <row r="184" spans="1:1">
-      <c r="A184" s="23"/>
+      <c r="A184" s="22"/>
     </row>
     <row r="185" spans="1:1">
-      <c r="A185" s="23"/>
+      <c r="A185" s="22"/>
     </row>
     <row r="186" spans="1:1">
-      <c r="A186" s="23"/>
+      <c r="A186" s="22"/>
     </row>
     <row r="187" spans="1:1">
-      <c r="A187" s="23"/>
+      <c r="A187" s="22"/>
     </row>
     <row r="188" spans="1:1">
-      <c r="A188" s="23"/>
+      <c r="A188" s="22"/>
     </row>
     <row r="189" spans="1:1">
-      <c r="A189" s="23"/>
+      <c r="A189" s="22"/>
     </row>
     <row r="190" spans="1:1">
-      <c r="A190" s="23"/>
+      <c r="A190" s="22"/>
     </row>
     <row r="191" spans="1:1">
-      <c r="A191" s="23"/>
+      <c r="A191" s="22"/>
     </row>
     <row r="192" spans="1:1">
-      <c r="A192" s="23"/>
+      <c r="A192" s="22"/>
     </row>
     <row r="193" spans="1:1">
-      <c r="A193" s="23"/>
+      <c r="A193" s="22"/>
     </row>
     <row r="194" spans="1:1">
-      <c r="A194" s="23"/>
+      <c r="A194" s="22"/>
     </row>
     <row r="195" spans="1:1">
-      <c r="A195" s="23"/>
+      <c r="A195" s="22"/>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="23"/>
+      <c r="A196" s="22"/>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="23"/>
+      <c r="A197" s="22"/>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="23"/>
+      <c r="A198" s="22"/>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" s="23"/>
+      <c r="A199" s="22"/>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" s="23"/>
+      <c r="A200" s="22"/>
     </row>
     <row r="201" spans="1:1">
-      <c r="A201" s="23"/>
+      <c r="A201" s="22"/>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202" s="23"/>
+      <c r="A202" s="22"/>
     </row>
     <row r="203" spans="1:1">
-      <c r="A203" s="23"/>
+      <c r="A203" s="22"/>
     </row>
     <row r="204" spans="1:1">
-      <c r="A204" s="23"/>
+      <c r="A204" s="22"/>
     </row>
     <row r="205" spans="1:1">
-      <c r="A205" s="23"/>
+      <c r="A205" s="22"/>
     </row>
     <row r="206" spans="1:1">
-      <c r="A206" s="23"/>
+      <c r="A206" s="22"/>
     </row>
     <row r="207" spans="1:1">
-      <c r="A207" s="23"/>
+      <c r="A207" s="22"/>
     </row>
     <row r="208" spans="1:1">
-      <c r="A208" s="23"/>
+      <c r="A208" s="22"/>
     </row>
     <row r="209" spans="1:1">
-      <c r="A209" s="23"/>
+      <c r="A209" s="22"/>
     </row>
     <row r="210" spans="1:1">
-      <c r="A210" s="23"/>
+      <c r="A210" s="22"/>
     </row>
     <row r="211" spans="1:1">
-      <c r="A211" s="23"/>
+      <c r="A211" s="22"/>
     </row>
     <row r="212" spans="1:1">
-      <c r="A212" s="23"/>
+      <c r="A212" s="22"/>
     </row>
     <row r="213" spans="1:1">
-      <c r="A213" s="23"/>
+      <c r="A213" s="22"/>
     </row>
     <row r="214" spans="1:1">
-      <c r="A214" s="23"/>
+      <c r="A214" s="22"/>
     </row>
     <row r="215" spans="1:1">
-      <c r="A215" s="23"/>
+      <c r="A215" s="22"/>
     </row>
     <row r="216" spans="1:1">
-      <c r="A216" s="23"/>
+      <c r="A216" s="22"/>
     </row>
     <row r="217" spans="1:1">
-      <c r="A217" s="23"/>
+      <c r="A217" s="22"/>
     </row>
     <row r="218" spans="1:1">
-      <c r="A218" s="23"/>
+      <c r="A218" s="22"/>
     </row>
     <row r="219" spans="1:1">
-      <c r="A219" s="23"/>
+      <c r="A219" s="22"/>
     </row>
     <row r="220" spans="1:1">
-      <c r="A220" s="23"/>
+      <c r="A220" s="22"/>
     </row>
     <row r="221" spans="1:1">
-      <c r="A221" s="23"/>
+      <c r="A221" s="22"/>
     </row>
     <row r="222" spans="1:1">
-      <c r="A222" s="23"/>
+      <c r="A222" s="22"/>
     </row>
     <row r="223" spans="1:1">
-      <c r="A223" s="23"/>
+      <c r="A223" s="22"/>
     </row>
     <row r="224" spans="1:1">
-      <c r="A224" s="23"/>
+      <c r="A224" s="22"/>
     </row>
     <row r="225" spans="1:1">
-      <c r="A225" s="23"/>
+      <c r="A225" s="22"/>
     </row>
     <row r="226" spans="1:1">
-      <c r="A226" s="23"/>
+      <c r="A226" s="22"/>
     </row>
     <row r="227" spans="1:1">
-      <c r="A227" s="23"/>
+      <c r="A227" s="22"/>
     </row>
     <row r="228" spans="1:1">
-      <c r="A228" s="23"/>
+      <c r="A228" s="22"/>
     </row>
     <row r="229" spans="1:1">
-      <c r="A229" s="23"/>
+      <c r="A229" s="22"/>
     </row>
     <row r="230" spans="1:1">
-      <c r="A230" s="23"/>
+      <c r="A230" s="22"/>
     </row>
     <row r="231" spans="1:1">
-      <c r="A231" s="23"/>
+      <c r="A231" s="22"/>
     </row>
     <row r="232" spans="1:1">
-      <c r="A232" s="23"/>
+      <c r="A232" s="22"/>
     </row>
     <row r="233" spans="1:1">
-      <c r="A233" s="23"/>
+      <c r="A233" s="22"/>
     </row>
     <row r="234" spans="1:1">
-      <c r="A234" s="23"/>
+      <c r="A234" s="22"/>
     </row>
     <row r="235" spans="1:1">
-      <c r="A235" s="23"/>
+      <c r="A235" s="22"/>
     </row>
     <row r="236" spans="1:1">
-      <c r="A236" s="23"/>
+      <c r="A236" s="22"/>
     </row>
     <row r="237" spans="1:1">
-      <c r="A237" s="23"/>
+      <c r="A237" s="22"/>
     </row>
     <row r="238" spans="1:1">
-      <c r="A238" s="23"/>
+      <c r="A238" s="22"/>
     </row>
     <row r="239" spans="1:1">
-      <c r="A239" s="23"/>
+      <c r="A239" s="22"/>
     </row>
     <row r="240" spans="1:1">
-      <c r="A240" s="23"/>
+      <c r="A240" s="22"/>
     </row>
     <row r="241" spans="1:1">
-      <c r="A241" s="23"/>
+      <c r="A241" s="22"/>
     </row>
     <row r="242" spans="1:1">
-      <c r="A242" s="23"/>
+      <c r="A242" s="22"/>
     </row>
     <row r="243" spans="1:1">
-      <c r="A243" s="23"/>
+      <c r="A243" s="22"/>
     </row>
     <row r="244" spans="1:1">
-      <c r="A244" s="23"/>
+      <c r="A244" s="22"/>
     </row>
     <row r="245" spans="1:1">
-      <c r="A245" s="23"/>
+      <c r="A245" s="22"/>
     </row>
     <row r="246" spans="1:1">
-      <c r="A246" s="23"/>
+      <c r="A246" s="22"/>
     </row>
     <row r="247" spans="1:1">
-      <c r="A247" s="23"/>
+      <c r="A247" s="22"/>
     </row>
     <row r="248" spans="1:1">
-      <c r="A248" s="23"/>
+      <c r="A248" s="22"/>
     </row>
     <row r="249" spans="1:1">
-      <c r="A249" s="23"/>
+      <c r="A249" s="22"/>
     </row>
     <row r="250" spans="1:1">
-      <c r="A250" s="23"/>
+      <c r="A250" s="22"/>
     </row>
     <row r="251" spans="1:1">
-      <c r="A251" s="23"/>
+      <c r="A251" s="22"/>
     </row>
     <row r="252" spans="1:1">
-      <c r="A252" s="23"/>
+      <c r="A252" s="22"/>
     </row>
     <row r="253" spans="1:1">
-      <c r="A253" s="23"/>
+      <c r="A253" s="22"/>
     </row>
     <row r="254" spans="1:1">
-      <c r="A254" s="23"/>
+      <c r="A254" s="22"/>
     </row>
     <row r="255" spans="1:1">
-      <c r="A255" s="23"/>
+      <c r="A255" s="22"/>
     </row>
     <row r="256" spans="1:1">
-      <c r="A256" s="23"/>
+      <c r="A256" s="22"/>
     </row>
     <row r="257" spans="1:1">
-      <c r="A257" s="23"/>
+      <c r="A257" s="22"/>
     </row>
     <row r="258" spans="1:1">
-      <c r="A258" s="23"/>
+      <c r="A258" s="22"/>
     </row>
     <row r="259" spans="1:1">
-      <c r="A259" s="23"/>
+      <c r="A259" s="22"/>
     </row>
     <row r="260" spans="1:1">
-      <c r="A260" s="23"/>
+      <c r="A260" s="22"/>
     </row>
     <row r="261" spans="1:1">
-      <c r="A261" s="23"/>
+      <c r="A261" s="22"/>
     </row>
     <row r="262" spans="1:1">
-      <c r="A262" s="23"/>
+      <c r="A262" s="22"/>
     </row>
     <row r="263" spans="1:1">
-      <c r="A263" s="23"/>
+      <c r="A263" s="22"/>
     </row>
     <row r="264" spans="1:1">
-      <c r="A264" s="23"/>
+      <c r="A264" s="22"/>
     </row>
     <row r="265" spans="1:1">
-      <c r="A265" s="23"/>
+      <c r="A265" s="22"/>
     </row>
     <row r="266" spans="1:1">
-      <c r="A266" s="23"/>
+      <c r="A266" s="22"/>
     </row>
     <row r="267" spans="1:1">
-      <c r="A267" s="23"/>
+      <c r="A267" s="22"/>
     </row>
     <row r="268" spans="1:1">
-      <c r="A268" s="23"/>
+      <c r="A268" s="22"/>
     </row>
     <row r="269" spans="1:1">
-      <c r="A269" s="23"/>
+      <c r="A269" s="22"/>
     </row>
     <row r="270" spans="1:1">
-      <c r="A270" s="23"/>
+      <c r="A270" s="22"/>
     </row>
     <row r="271" spans="1:1">
-      <c r="A271" s="23"/>
+      <c r="A271" s="22"/>
     </row>
     <row r="272" spans="1:1">
-      <c r="A272" s="23"/>
+      <c r="A272" s="22"/>
     </row>
     <row r="273" spans="1:1">
-      <c r="A273" s="23"/>
+      <c r="A273" s="22"/>
     </row>
     <row r="274" spans="1:1">
-      <c r="A274" s="23"/>
+      <c r="A274" s="22"/>
     </row>
     <row r="275" spans="1:1">
-      <c r="A275" s="23"/>
+      <c r="A275" s="22"/>
     </row>
     <row r="276" spans="1:1">
-      <c r="A276" s="23"/>
+      <c r="A276" s="22"/>
     </row>
     <row r="277" spans="1:1">
-      <c r="A277" s="23"/>
+      <c r="A277" s="22"/>
     </row>
     <row r="278" spans="1:1">
-      <c r="A278" s="23"/>
+      <c r="A278" s="22"/>
     </row>
     <row r="279" spans="1:1">
-      <c r="A279" s="23"/>
+      <c r="A279" s="22"/>
     </row>
     <row r="280" spans="1:1">
-      <c r="A280" s="23"/>
+      <c r="A280" s="22"/>
     </row>
     <row r="281" spans="1:1">
-      <c r="A281" s="23"/>
+      <c r="A281" s="22"/>
     </row>
     <row r="282" spans="1:1">
-      <c r="A282" s="23"/>
+      <c r="A282" s="22"/>
     </row>
     <row r="283" spans="1:1">
-      <c r="A283" s="23"/>
+      <c r="A283" s="22"/>
     </row>
     <row r="284" spans="1:1">
-      <c r="A284" s="23"/>
+      <c r="A284" s="22"/>
     </row>
     <row r="285" spans="1:1">
-      <c r="A285" s="23"/>
+      <c r="A285" s="22"/>
     </row>
     <row r="286" spans="1:1">
-      <c r="A286" s="23"/>
+      <c r="A286" s="22"/>
     </row>
     <row r="287" spans="1:1">
-      <c r="A287" s="23"/>
+      <c r="A287" s="22"/>
     </row>
     <row r="288" spans="1:1">
-      <c r="A288" s="23"/>
+      <c r="A288" s="22"/>
     </row>
     <row r="289" spans="1:1">
-      <c r="A289" s="23"/>
+      <c r="A289" s="22"/>
     </row>
     <row r="290" spans="1:1">
-      <c r="A290" s="23"/>
+      <c r="A290" s="22"/>
     </row>
     <row r="291" spans="1:1">
-      <c r="A291" s="23"/>
+      <c r="A291" s="22"/>
     </row>
     <row r="292" spans="1:1">
-      <c r="A292" s="23"/>
+      <c r="A292" s="22"/>
     </row>
     <row r="293" spans="1:1">
-      <c r="A293" s="23"/>
+      <c r="A293" s="22"/>
     </row>
     <row r="294" spans="1:1">
-      <c r="A294" s="23"/>
+      <c r="A294" s="22"/>
     </row>
     <row r="295" spans="1:1">
-      <c r="A295" s="23"/>
+      <c r="A295" s="22"/>
     </row>
     <row r="296" spans="1:1">
-      <c r="A296" s="23"/>
+      <c r="A296" s="22"/>
     </row>
     <row r="297" spans="1:1">
-      <c r="A297" s="23"/>
+      <c r="A297" s="22"/>
     </row>
     <row r="298" spans="1:1">
-      <c r="A298" s="23"/>
+      <c r="A298" s="22"/>
     </row>
     <row r="299" spans="1:1">
-      <c r="A299" s="23"/>
+      <c r="A299" s="22"/>
     </row>
     <row r="300" spans="1:1">
-      <c r="A300" s="23"/>
+      <c r="A300" s="22"/>
     </row>
     <row r="301" spans="1:1">
-      <c r="A301" s="23"/>
+      <c r="A301" s="22"/>
     </row>
     <row r="302" spans="1:1">
-      <c r="A302" s="23"/>
+      <c r="A302" s="22"/>
     </row>
     <row r="303" spans="1:1">
-      <c r="A303" s="23"/>
+      <c r="A303" s="22"/>
     </row>
     <row r="304" spans="1:1">
-      <c r="A304" s="23"/>
+      <c r="A304" s="22"/>
     </row>
     <row r="305" spans="1:1">
-      <c r="A305" s="23"/>
+      <c r="A305" s="22"/>
     </row>
     <row r="306" spans="1:1">
-      <c r="A306" s="23"/>
+      <c r="A306" s="22"/>
     </row>
     <row r="307" spans="1:1">
-      <c r="A307" s="23"/>
+      <c r="A307" s="22"/>
     </row>
     <row r="308" spans="1:1">
-      <c r="A308" s="23"/>
+      <c r="A308" s="22"/>
     </row>
     <row r="309" spans="1:1">
-      <c r="A309" s="23"/>
+      <c r="A309" s="22"/>
     </row>
     <row r="310" spans="1:1">
-      <c r="A310" s="23"/>
+      <c r="A310" s="22"/>
     </row>
     <row r="311" spans="1:1">
-      <c r="A311" s="23"/>
+      <c r="A311" s="22"/>
     </row>
     <row r="312" spans="1:1">
-      <c r="A312" s="23"/>
+      <c r="A312" s="22"/>
     </row>
     <row r="313" spans="1:1">
-      <c r="A313" s="23"/>
+      <c r="A313" s="22"/>
     </row>
     <row r="314" spans="1:1">
-      <c r="A314" s="23"/>
+      <c r="A314" s="22"/>
     </row>
     <row r="315" spans="1:1">
-      <c r="A315" s="23"/>
+      <c r="A315" s="22"/>
     </row>
     <row r="316" spans="1:1">
-      <c r="A316" s="23"/>
+      <c r="A316" s="22"/>
     </row>
     <row r="317" spans="1:1">
-      <c r="A317" s="23"/>
+      <c r="A317" s="22"/>
     </row>
     <row r="318" spans="1:1">
-      <c r="A318" s="23"/>
+      <c r="A318" s="22"/>
     </row>
     <row r="319" spans="1:1">
-      <c r="A319" s="23"/>
+      <c r="A319" s="22"/>
     </row>
     <row r="320" spans="1:1">
-      <c r="A320" s="23"/>
+      <c r="A320" s="22"/>
     </row>
     <row r="321" spans="1:1">
-      <c r="A321" s="23"/>
+      <c r="A321" s="22"/>
     </row>
     <row r="322" spans="1:1">
-      <c r="A322" s="23"/>
+      <c r="A322" s="22"/>
     </row>
     <row r="323" spans="1:1">
-      <c r="A323" s="23"/>
+      <c r="A323" s="22"/>
     </row>
     <row r="324" spans="1:1">
-      <c r="A324" s="23"/>
+      <c r="A324" s="22"/>
     </row>
     <row r="325" spans="1:1">
-      <c r="A325" s="23"/>
+      <c r="A325" s="22"/>
     </row>
     <row r="326" spans="1:1">
-      <c r="A326" s="23"/>
+      <c r="A326" s="22"/>
     </row>
     <row r="327" spans="1:1">
-      <c r="A327" s="23"/>
+      <c r="A327" s="22"/>
     </row>
     <row r="328" spans="1:1">
-      <c r="A328" s="23"/>
+      <c r="A328" s="22"/>
     </row>
     <row r="329" spans="1:1">
-      <c r="A329" s="23"/>
+      <c r="A329" s="22"/>
     </row>
     <row r="330" spans="1:1">
-      <c r="A330" s="23"/>
+      <c r="A330" s="22"/>
     </row>
     <row r="331" spans="1:1">
-      <c r="A331" s="23"/>
+      <c r="A331" s="22"/>
     </row>
     <row r="332" spans="1:1">
-      <c r="A332" s="23"/>
+      <c r="A332" s="22"/>
     </row>
     <row r="333" spans="1:1">
-      <c r="A333" s="23"/>
+      <c r="A333" s="22"/>
     </row>
     <row r="334" spans="1:1">
-      <c r="A334" s="23"/>
+      <c r="A334" s="22"/>
     </row>
     <row r="335" spans="1:1">
-      <c r="A335" s="23"/>
+      <c r="A335" s="22"/>
     </row>
     <row r="336" spans="1:1">
-      <c r="A336" s="23"/>
+      <c r="A336" s="22"/>
     </row>
     <row r="337" spans="1:1">
-      <c r="A337" s="23"/>
+      <c r="A337" s="22"/>
     </row>
     <row r="338" spans="1:1">
-      <c r="A338" s="23"/>
+      <c r="A338" s="22"/>
     </row>
     <row r="339" spans="1:1">
-      <c r="A339" s="23"/>
+      <c r="A339" s="22"/>
     </row>
     <row r="340" spans="1:1">
-      <c r="A340" s="23"/>
+      <c r="A340" s="22"/>
     </row>
     <row r="341" spans="1:1">
-      <c r="A341" s="23"/>
+      <c r="A341" s="22"/>
     </row>
     <row r="342" spans="1:1">
-      <c r="A342" s="23"/>
+      <c r="A342" s="22"/>
     </row>
     <row r="343" spans="1:1">
-      <c r="A343" s="23"/>
+      <c r="A343" s="22"/>
     </row>
     <row r="344" spans="1:1">
-      <c r="A344" s="23"/>
+      <c r="A344" s="22"/>
     </row>
     <row r="345" spans="1:1">
-      <c r="A345" s="23"/>
+      <c r="A345" s="22"/>
     </row>
     <row r="346" spans="1:1">
-      <c r="A346" s="23"/>
+      <c r="A346" s="22"/>
     </row>
     <row r="347" spans="1:1">
-      <c r="A347" s="23"/>
+      <c r="A347" s="22"/>
     </row>
     <row r="348" spans="1:1">
-      <c r="A348" s="23"/>
+      <c r="A348" s="22"/>
     </row>
     <row r="349" spans="1:1">
-      <c r="A349" s="23"/>
+      <c r="A349" s="22"/>
     </row>
     <row r="350" spans="1:1">
-      <c r="A350" s="23"/>
+      <c r="A350" s="22"/>
     </row>
     <row r="351" spans="1:1">
-      <c r="A351" s="23"/>
+      <c r="A351" s="22"/>
     </row>
     <row r="352" spans="1:1">
-      <c r="A352" s="23"/>
+      <c r="A352" s="22"/>
     </row>
     <row r="353" spans="1:1">
-      <c r="A353" s="23"/>
+      <c r="A353" s="22"/>
     </row>
     <row r="354" spans="1:1">
-      <c r="A354" s="23"/>
+      <c r="A354" s="22"/>
     </row>
     <row r="355" spans="1:1">
-      <c r="A355" s="23"/>
+      <c r="A355" s="22"/>
     </row>
     <row r="356" spans="1:1">
-      <c r="A356" s="23"/>
+      <c r="A356" s="22"/>
     </row>
     <row r="357" spans="1:1">
-      <c r="A357" s="23"/>
+      <c r="A357" s="22"/>
     </row>
     <row r="358" spans="1:1">
-      <c r="A358" s="23"/>
+      <c r="A358" s="22"/>
     </row>
     <row r="359" spans="1:1">
-      <c r="A359" s="23"/>
+      <c r="A359" s="22"/>
     </row>
     <row r="360" spans="1:1">
-      <c r="A360" s="23"/>
+      <c r="A360" s="22"/>
     </row>
     <row r="361" spans="1:1">
-      <c r="A361" s="23"/>
+      <c r="A361" s="22"/>
     </row>
     <row r="362" spans="1:1">
-      <c r="A362" s="23"/>
+      <c r="A362" s="22"/>
     </row>
     <row r="363" spans="1:1">
-      <c r="A363" s="23"/>
+      <c r="A363" s="22"/>
     </row>
     <row r="364" spans="1:1">
-      <c r="A364" s="23"/>
+      <c r="A364" s="22"/>
     </row>
     <row r="365" spans="1:1">
-      <c r="A365" s="23"/>
+      <c r="A365" s="22"/>
     </row>
     <row r="366" spans="1:1">
-      <c r="A366" s="23"/>
+      <c r="A366" s="22"/>
     </row>
     <row r="367" spans="1:1">
-      <c r="A367" s="23"/>
+      <c r="A367" s="22"/>
     </row>
     <row r="368" spans="1:1">
-      <c r="A368" s="23"/>
+      <c r="A368" s="22"/>
     </row>
     <row r="369" spans="1:1">
-      <c r="A369" s="23"/>
+      <c r="A369" s="22"/>
     </row>
     <row r="370" spans="1:1">
-      <c r="A370" s="23"/>
+      <c r="A370" s="22"/>
     </row>
     <row r="371" spans="1:1">
-      <c r="A371" s="23"/>
+      <c r="A371" s="22"/>
     </row>
     <row r="372" spans="1:1">
-      <c r="A372" s="23"/>
+      <c r="A372" s="22"/>
     </row>
     <row r="373" spans="1:1">
-      <c r="A373" s="23"/>
+      <c r="A373" s="22"/>
     </row>
     <row r="374" spans="1:1">
-      <c r="A374" s="23"/>
+      <c r="A374" s="22"/>
     </row>
     <row r="375" spans="1:1">
-      <c r="A375" s="23"/>
+      <c r="A375" s="22"/>
     </row>
     <row r="376" spans="1:1">
-      <c r="A376" s="23"/>
+      <c r="A376" s="22"/>
     </row>
     <row r="377" spans="1:1">
-      <c r="A377" s="23"/>
+      <c r="A377" s="22"/>
     </row>
     <row r="378" spans="1:1">
-      <c r="A378" s="23"/>
+      <c r="A378" s="22"/>
     </row>
     <row r="379" spans="1:1">
-      <c r="A379" s="23"/>
+      <c r="A379" s="22"/>
     </row>
     <row r="380" spans="1:1">
-      <c r="A380" s="23"/>
+      <c r="A380" s="22"/>
     </row>
     <row r="381" spans="1:1">
-      <c r="A381" s="23"/>
+      <c r="A381" s="22"/>
     </row>
     <row r="382" spans="1:1">
-      <c r="A382" s="23"/>
+      <c r="A382" s="22"/>
     </row>
     <row r="383" spans="1:1">
-      <c r="A383" s="23"/>
+      <c r="A383" s="22"/>
     </row>
     <row r="384" spans="1:1">
-      <c r="A384" s="23"/>
+      <c r="A384" s="22"/>
     </row>
     <row r="385" spans="1:1">
-      <c r="A385" s="23"/>
+      <c r="A385" s="22"/>
     </row>
     <row r="386" spans="1:1">
-      <c r="A386" s="23"/>
+      <c r="A386" s="22"/>
     </row>
     <row r="387" spans="1:1">
-      <c r="A387" s="23"/>
+      <c r="A387" s="22"/>
     </row>
     <row r="388" spans="1:1">
-      <c r="A388" s="23"/>
+      <c r="A388" s="22"/>
     </row>
     <row r="389" spans="1:1">
-      <c r="A389" s="23"/>
+      <c r="A389" s="22"/>
     </row>
     <row r="390" spans="1:1">
-      <c r="A390" s="23"/>
+      <c r="A390" s="22"/>
     </row>
     <row r="391" spans="1:1">
-      <c r="A391" s="23"/>
+      <c r="A391" s="22"/>
     </row>
     <row r="392" spans="1:1">
-      <c r="A392" s="23"/>
+      <c r="A392" s="22"/>
     </row>
     <row r="393" spans="1:1">
-      <c r="A393" s="23"/>
+      <c r="A393" s="22"/>
     </row>
     <row r="394" spans="1:1">
-      <c r="A394" s="23"/>
+      <c r="A394" s="22"/>
     </row>
     <row r="395" spans="1:1">
-      <c r="A395" s="23"/>
+      <c r="A395" s="22"/>
     </row>
     <row r="396" spans="1:1">
-      <c r="A396" s="23"/>
+      <c r="A396" s="22"/>
     </row>
     <row r="397" spans="1:1">
-      <c r="A397" s="23"/>
+      <c r="A397" s="22"/>
     </row>
     <row r="398" spans="1:1">
-      <c r="A398" s="23"/>
+      <c r="A398" s="22"/>
     </row>
     <row r="399" spans="1:1">
-      <c r="A399" s="23"/>
+      <c r="A399" s="22"/>
     </row>
     <row r="400" spans="1:1">
-      <c r="A400" s="23"/>
+      <c r="A400" s="22"/>
     </row>
     <row r="401" spans="1:1">
-      <c r="A401" s="23"/>
+      <c r="A401" s="22"/>
     </row>
     <row r="402" spans="1:1">
-      <c r="A402" s="23"/>
+      <c r="A402" s="22"/>
     </row>
     <row r="403" spans="1:1">
-      <c r="A403" s="23"/>
+      <c r="A403" s="22"/>
     </row>
     <row r="404" spans="1:1">
-      <c r="A404" s="23"/>
+      <c r="A404" s="22"/>
     </row>
     <row r="405" spans="1:1">
-      <c r="A405" s="23"/>
+      <c r="A405" s="22"/>
     </row>
     <row r="406" spans="1:1">
-      <c r="A406" s="23"/>
+      <c r="A406" s="22"/>
     </row>
     <row r="407" spans="1:1">
-      <c r="A407" s="23"/>
+      <c r="A407" s="22"/>
     </row>
     <row r="408" spans="1:1">
-      <c r="A408" s="23"/>
+      <c r="A408" s="22"/>
     </row>
     <row r="409" spans="1:1">
-      <c r="A409" s="23"/>
+      <c r="A409" s="22"/>
     </row>
     <row r="410" spans="1:1">
-      <c r="A410" s="23"/>
+      <c r="A410" s="22"/>
     </row>
     <row r="411" spans="1:1">
-      <c r="A411" s="23"/>
+      <c r="A411" s="22"/>
     </row>
     <row r="412" spans="1:1">
-      <c r="A412" s="23"/>
+      <c r="A412" s="22"/>
     </row>
     <row r="413" spans="1:1">
-      <c r="A413" s="23"/>
+      <c r="A413" s="22"/>
     </row>
     <row r="414" spans="1:1">
-      <c r="A414" s="23"/>
+      <c r="A414" s="22"/>
     </row>
     <row r="415" spans="1:1">
-      <c r="A415" s="23"/>
+      <c r="A415" s="22"/>
     </row>
     <row r="416" spans="1:1">
-      <c r="A416" s="23"/>
+      <c r="A416" s="22"/>
     </row>
     <row r="417" spans="1:1">
-      <c r="A417" s="23"/>
+      <c r="A417" s="22"/>
     </row>
     <row r="418" spans="1:1">
-      <c r="A418" s="23"/>
+      <c r="A418" s="22"/>
     </row>
     <row r="419" spans="1:1">
-      <c r="A419" s="23"/>
+      <c r="A419" s="22"/>
     </row>
     <row r="420" spans="1:1">
-      <c r="A420" s="23"/>
+      <c r="A420" s="22"/>
     </row>
     <row r="421" spans="1:1">
-      <c r="A421" s="23"/>
+      <c r="A421" s="22"/>
     </row>
     <row r="422" spans="1:1">
-      <c r="A422" s="23"/>
+      <c r="A422" s="22"/>
     </row>
     <row r="423" spans="1:1">
-      <c r="A423" s="23"/>
+      <c r="A423" s="22"/>
     </row>
     <row r="424" spans="1:1">
-      <c r="A424" s="23"/>
+      <c r="A424" s="22"/>
     </row>
     <row r="425" spans="1:1">
-      <c r="A425" s="23"/>
+      <c r="A425" s="22"/>
     </row>
     <row r="426" spans="1:1">
-      <c r="A426" s="23"/>
+      <c r="A426" s="22"/>
     </row>
     <row r="427" spans="1:1">
-      <c r="A427" s="23"/>
+      <c r="A427" s="22"/>
     </row>
     <row r="428" spans="1:1">
-      <c r="A428" s="23"/>
+      <c r="A428" s="22"/>
     </row>
     <row r="429" spans="1:1">
-      <c r="A429" s="23"/>
+      <c r="A429" s="22"/>
     </row>
     <row r="430" spans="1:1">
-      <c r="A430" s="23"/>
+      <c r="A430" s="22"/>
     </row>
     <row r="431" spans="1:1">
-      <c r="A431" s="23"/>
+      <c r="A431" s="22"/>
     </row>
     <row r="432" spans="1:1">
-      <c r="A432" s="23"/>
+      <c r="A432" s="22"/>
     </row>
     <row r="433" spans="1:1">
-      <c r="A433" s="23"/>
+      <c r="A433" s="22"/>
     </row>
     <row r="434" spans="1:1">
-      <c r="A434" s="23"/>
+      <c r="A434" s="22"/>
     </row>
     <row r="435" spans="1:1">
-      <c r="A435" s="23"/>
+      <c r="A435" s="22"/>
     </row>
     <row r="436" spans="1:1">
-      <c r="A436" s="23"/>
+      <c r="A436" s="22"/>
     </row>
     <row r="437" spans="1:1">
-      <c r="A437" s="23"/>
+      <c r="A437" s="22"/>
     </row>
     <row r="438" spans="1:1">
-      <c r="A438" s="23"/>
+      <c r="A438" s="22"/>
     </row>
     <row r="439" spans="1:1">
-      <c r="A439" s="23"/>
+      <c r="A439" s="22"/>
     </row>
     <row r="440" spans="1:1">
-      <c r="A440" s="23"/>
+      <c r="A440" s="22"/>
     </row>
     <row r="441" spans="1:1">
-      <c r="A441" s="23"/>
+      <c r="A441" s="22"/>
     </row>
     <row r="442" spans="1:1">
-      <c r="A442" s="23"/>
+      <c r="A442" s="22"/>
     </row>
     <row r="443" spans="1:1">
-      <c r="A443" s="23"/>
+      <c r="A443" s="22"/>
     </row>
     <row r="444" spans="1:1">
-      <c r="A444" s="23"/>
+      <c r="A444" s="22"/>
     </row>
     <row r="445" spans="1:1">
-      <c r="A445" s="23"/>
+      <c r="A445" s="22"/>
     </row>
     <row r="446" spans="1:1">
-      <c r="A446" s="23"/>
+      <c r="A446" s="22"/>
     </row>
     <row r="447" spans="1:1">
-      <c r="A447" s="23"/>
+      <c r="A447" s="22"/>
     </row>
     <row r="448" spans="1:1">
-      <c r="A448" s="23"/>
+      <c r="A448" s="22"/>
     </row>
     <row r="449" spans="1:1">
-      <c r="A449" s="23"/>
+      <c r="A449" s="22"/>
     </row>
     <row r="450" spans="1:1">
-      <c r="A450" s="23"/>
+      <c r="A450" s="22"/>
     </row>
     <row r="451" spans="1:1">
-      <c r="A451" s="23"/>
+      <c r="A451" s="22"/>
     </row>
     <row r="452" spans="1:1">
-      <c r="A452" s="23"/>
+      <c r="A452" s="22"/>
     </row>
     <row r="453" spans="1:1">
-      <c r="A453" s="23"/>
+      <c r="A453" s="22"/>
     </row>
     <row r="454" spans="1:1">
-      <c r="A454" s="23"/>
+      <c r="A454" s="22"/>
     </row>
     <row r="455" spans="1:1">
-      <c r="A455" s="23"/>
+      <c r="A455" s="22"/>
     </row>
     <row r="456" spans="1:1">
-      <c r="A456" s="23"/>
+      <c r="A456" s="22"/>
     </row>
     <row r="457" spans="1:1">
-      <c r="A457" s="23"/>
+      <c r="A457" s="22"/>
     </row>
     <row r="458" spans="1:1">
-      <c r="A458" s="23"/>
+      <c r="A458" s="22"/>
     </row>
     <row r="459" spans="1:1">
-      <c r="A459" s="23"/>
+      <c r="A459" s="22"/>
     </row>
     <row r="460" spans="1:1">
-      <c r="A460" s="23"/>
+      <c r="A460" s="22"/>
     </row>
     <row r="461" spans="1:1">
-      <c r="A461" s="23"/>
+      <c r="A461" s="22"/>
     </row>
     <row r="462" spans="1:1">
-      <c r="A462" s="23"/>
+      <c r="A462" s="22"/>
     </row>
     <row r="463" spans="1:1">
-      <c r="A463" s="23"/>
+      <c r="A463" s="22"/>
     </row>
     <row r="464" spans="1:1">
-      <c r="A464" s="23"/>
+      <c r="A464" s="22"/>
     </row>
     <row r="465" spans="1:1">
-      <c r="A465" s="23"/>
+      <c r="A465" s="22"/>
     </row>
     <row r="466" spans="1:1">
-      <c r="A466" s="23"/>
+      <c r="A466" s="22"/>
     </row>
     <row r="467" spans="1:1">
-      <c r="A467" s="23"/>
+      <c r="A467" s="22"/>
     </row>
     <row r="468" spans="1:1">
-      <c r="A468" s="23"/>
+      <c r="A468" s="22"/>
     </row>
     <row r="469" spans="1:1">
-      <c r="A469" s="23"/>
+      <c r="A469" s="22"/>
     </row>
     <row r="470" spans="1:1">
-      <c r="A470" s="23"/>
+      <c r="A470" s="22"/>
     </row>
     <row r="471" spans="1:1">
-      <c r="A471" s="23"/>
+      <c r="A471" s="22"/>
     </row>
     <row r="472" spans="1:1">
-      <c r="A472" s="23"/>
+      <c r="A472" s="22"/>
     </row>
     <row r="473" spans="1:1">
-      <c r="A473" s="23"/>
+      <c r="A473" s="22"/>
     </row>
     <row r="474" spans="1:1">
-      <c r="A474" s="23"/>
+      <c r="A474" s="22"/>
     </row>
     <row r="475" spans="1:1">
-      <c r="A475" s="23"/>
+      <c r="A475" s="22"/>
     </row>
     <row r="476" spans="1:1">
-      <c r="A476" s="23"/>
+      <c r="A476" s="22"/>
     </row>
     <row r="477" spans="1:1">
-      <c r="A477" s="23"/>
+      <c r="A477" s="22"/>
     </row>
     <row r="478" spans="1:1">
-      <c r="A478" s="23"/>
+      <c r="A478" s="22"/>
     </row>
     <row r="479" spans="1:1">
-      <c r="A479" s="23"/>
+      <c r="A479" s="22"/>
     </row>
     <row r="480" spans="1:1">
-      <c r="A480" s="23"/>
+      <c r="A480" s="22"/>
     </row>
     <row r="481" spans="1:1">
-      <c r="A481" s="23"/>
+      <c r="A481" s="22"/>
     </row>
     <row r="482" spans="1:1">
-      <c r="A482" s="23"/>
+      <c r="A482" s="22"/>
     </row>
     <row r="483" spans="1:1">
-      <c r="A483" s="23"/>
+      <c r="A483" s="22"/>
     </row>
     <row r="484" spans="1:1">
-      <c r="A484" s="23"/>
+      <c r="A484" s="22"/>
     </row>
     <row r="485" spans="1:1">
-      <c r="A485" s="23"/>
+      <c r="A485" s="22"/>
     </row>
     <row r="486" spans="1:1">
-      <c r="A486" s="23"/>
+      <c r="A486" s="22"/>
     </row>
     <row r="487" spans="1:1">
-      <c r="A487" s="23"/>
+      <c r="A487" s="22"/>
     </row>
     <row r="488" spans="1:1">
-      <c r="A488" s="23"/>
+      <c r="A488" s="22"/>
     </row>
     <row r="489" spans="1:1">
-      <c r="A489" s="23"/>
+      <c r="A489" s="22"/>
     </row>
     <row r="490" spans="1:1">
-      <c r="A490" s="23"/>
+      <c r="A490" s="22"/>
     </row>
     <row r="491" spans="1:1">
-      <c r="A491" s="23"/>
+      <c r="A491" s="22"/>
     </row>
     <row r="492" spans="1:1">
-      <c r="A492" s="23"/>
+      <c r="A492" s="22"/>
     </row>
     <row r="493" spans="1:1">
-      <c r="A493" s="23"/>
+      <c r="A493" s="22"/>
     </row>
     <row r="494" spans="1:1">
-      <c r="A494" s="23"/>
+      <c r="A494" s="22"/>
     </row>
     <row r="495" spans="1:1">
-      <c r="A495" s="23"/>
+      <c r="A495" s="22"/>
     </row>
     <row r="496" spans="1:1">
-      <c r="A496" s="23"/>
+      <c r="A496" s="22"/>
     </row>
     <row r="497" spans="1:1">
-      <c r="A497" s="23"/>
+      <c r="A497" s="22"/>
     </row>
     <row r="498" spans="1:1">
-      <c r="A498" s="23"/>
+      <c r="A498" s="22"/>
     </row>
     <row r="499" spans="1:1">
-      <c r="A499" s="23"/>
+      <c r="A499" s="22"/>
     </row>
     <row r="500" spans="1:1">
-      <c r="A500" s="23"/>
+      <c r="A500" s="22"/>
     </row>
     <row r="501" spans="1:1">
-      <c r="A501" s="23"/>
+      <c r="A501" s="22"/>
     </row>
     <row r="502" spans="1:1">
-      <c r="A502" s="23"/>
+      <c r="A502" s="22"/>
     </row>
     <row r="503" spans="1:1">
-      <c r="A503" s="23"/>
+      <c r="A503" s="22"/>
     </row>
     <row r="504" spans="1:1">
-      <c r="A504" s="23"/>
+      <c r="A504" s="22"/>
     </row>
     <row r="505" spans="1:1">
-      <c r="A505" s="23"/>
+      <c r="A505" s="22"/>
     </row>
     <row r="506" spans="1:1">
-      <c r="A506" s="23"/>
+      <c r="A506" s="22"/>
     </row>
     <row r="507" spans="1:1">
-      <c r="A507" s="23"/>
+      <c r="A507" s="22"/>
     </row>
     <row r="508" spans="1:1">
-      <c r="A508" s="23"/>
+      <c r="A508" s="22"/>
     </row>
     <row r="509" spans="1:1">
-      <c r="A509" s="23"/>
+      <c r="A509" s="22"/>
     </row>
     <row r="510" spans="1:1">
-      <c r="A510" s="23"/>
+      <c r="A510" s="22"/>
     </row>
     <row r="511" spans="1:1">
-      <c r="A511" s="23"/>
+      <c r="A511" s="22"/>
     </row>
     <row r="512" spans="1:1">
-      <c r="A512" s="23"/>
+      <c r="A512" s="22"/>
     </row>
     <row r="513" spans="1:1">
-      <c r="A513" s="23"/>
+      <c r="A513" s="22"/>
     </row>
     <row r="514" spans="1:1">
-      <c r="A514" s="23"/>
+      <c r="A514" s="22"/>
     </row>
     <row r="515" spans="1:1">
-      <c r="A515" s="23"/>
+      <c r="A515" s="22"/>
     </row>
     <row r="516" spans="1:1">
-      <c r="A516" s="23"/>
+      <c r="A516" s="22"/>
     </row>
     <row r="517" spans="1:1">
-      <c r="A517" s="23"/>
+      <c r="A517" s="22"/>
     </row>
     <row r="518" spans="1:1">
-      <c r="A518" s="23"/>
+      <c r="A518" s="22"/>
     </row>
     <row r="519" spans="1:1">
-      <c r="A519" s="23"/>
+      <c r="A519" s="22"/>
     </row>
     <row r="520" spans="1:1">
-      <c r="A520" s="23"/>
+      <c r="A520" s="22"/>
     </row>
     <row r="521" spans="1:1">
-      <c r="A521" s="23"/>
+      <c r="A521" s="22"/>
     </row>
     <row r="522" spans="1:1">
-      <c r="A522" s="23"/>
+      <c r="A522" s="22"/>
     </row>
     <row r="523" spans="1:1">
-      <c r="A523" s="23"/>
+      <c r="A523" s="22"/>
     </row>
     <row r="524" spans="1:1">
-      <c r="A524" s="23"/>
+      <c r="A524" s="22"/>
     </row>
     <row r="525" spans="1:1">
-      <c r="A525" s="23"/>
+      <c r="A525" s="22"/>
     </row>
     <row r="526" spans="1:1">
-      <c r="A526" s="23"/>
+      <c r="A526" s="22"/>
     </row>
     <row r="527" spans="1:1">
-      <c r="A527" s="23"/>
+      <c r="A527" s="22"/>
     </row>
     <row r="528" spans="1:1">
-      <c r="A528" s="23"/>
+      <c r="A528" s="22"/>
     </row>
     <row r="529" spans="1:1">
-      <c r="A529" s="23"/>
+      <c r="A529" s="22"/>
     </row>
     <row r="530" spans="1:1">
-      <c r="A530" s="23"/>
+      <c r="A530" s="22"/>
     </row>
     <row r="531" spans="1:1">
-      <c r="A531" s="23"/>
+      <c r="A531" s="22"/>
     </row>
     <row r="532" spans="1:1">
-      <c r="A532" s="23"/>
+      <c r="A532" s="22"/>
     </row>
     <row r="533" spans="1:1">
-      <c r="A533" s="23"/>
+      <c r="A533" s="22"/>
     </row>
     <row r="534" spans="1:1">
-      <c r="A534" s="23"/>
+      <c r="A534" s="22"/>
     </row>
     <row r="535" spans="1:1">
-      <c r="A535" s="23"/>
+      <c r="A535" s="22"/>
     </row>
     <row r="536" spans="1:1">
-      <c r="A536" s="23"/>
+      <c r="A536" s="22"/>
     </row>
     <row r="537" spans="1:1">
-      <c r="A537" s="23"/>
+      <c r="A537" s="22"/>
     </row>
     <row r="538" spans="1:1">
-      <c r="A538" s="23"/>
+      <c r="A538" s="22"/>
     </row>
     <row r="539" spans="1:1">
-      <c r="A539" s="23"/>
+      <c r="A539" s="22"/>
     </row>
     <row r="540" spans="1:1">
-      <c r="A540" s="23"/>
+      <c r="A540" s="22"/>
     </row>
     <row r="541" spans="1:1">
-      <c r="A541" s="23"/>
+      <c r="A541" s="22"/>
     </row>
     <row r="542" spans="1:1">
-      <c r="A542" s="23"/>
+      <c r="A542" s="22"/>
     </row>
     <row r="543" spans="1:1">
-      <c r="A543" s="23"/>
+      <c r="A543" s="22"/>
     </row>
     <row r="544" spans="1:1">
-      <c r="A544" s="23"/>
+      <c r="A544" s="22"/>
     </row>
     <row r="545" spans="1:1">
-      <c r="A545" s="23"/>
+      <c r="A545" s="22"/>
     </row>
     <row r="546" spans="1:1">
-      <c r="A546" s="23"/>
+      <c r="A546" s="22"/>
     </row>
     <row r="547" spans="1:1">
-      <c r="A547" s="23"/>
+      <c r="A547" s="22"/>
     </row>
     <row r="548" spans="1:1">
-      <c r="A548" s="23"/>
+      <c r="A548" s="22"/>
     </row>
     <row r="549" spans="1:1">
-      <c r="A549" s="23"/>
+      <c r="A549" s="22"/>
     </row>
     <row r="550" spans="1:1">
-      <c r="A550" s="23"/>
+      <c r="A550" s="22"/>
     </row>
     <row r="551" spans="1:1">
-      <c r="A551" s="23"/>
+      <c r="A551" s="22"/>
     </row>
     <row r="552" spans="1:1">
-      <c r="A552" s="23"/>
+      <c r="A552" s="22"/>
     </row>
     <row r="553" spans="1:1">
-      <c r="A553" s="23"/>
+      <c r="A553" s="22"/>
     </row>
     <row r="554" spans="1:1">
-      <c r="A554" s="23"/>
+      <c r="A554" s="22"/>
     </row>
     <row r="555" spans="1:1">
-      <c r="A555" s="23"/>
+      <c r="A555" s="22"/>
     </row>
     <row r="556" spans="1:1">
-      <c r="A556" s="23"/>
+      <c r="A556" s="22"/>
     </row>
     <row r="557" spans="1:1">
-      <c r="A557" s="23"/>
+      <c r="A557" s="22"/>
     </row>
     <row r="558" spans="1:1">
-      <c r="A558" s="23"/>
+      <c r="A558" s="22"/>
     </row>
     <row r="559" spans="1:1">
-      <c r="A559" s="23"/>
+      <c r="A559" s="22"/>
     </row>
     <row r="560" spans="1:1">
-      <c r="A560" s="23"/>
+      <c r="A560" s="22"/>
     </row>
     <row r="561" spans="1:1">
-      <c r="A561" s="23"/>
+      <c r="A561" s="22"/>
     </row>
     <row r="562" spans="1:1">
-      <c r="A562" s="23"/>
+      <c r="A562" s="22"/>
     </row>
     <row r="563" spans="1:1">
-      <c r="A563" s="23"/>
+      <c r="A563" s="22"/>
     </row>
     <row r="564" spans="1:1">
-      <c r="A564" s="23"/>
+      <c r="A564" s="22"/>
     </row>
     <row r="565" spans="1:1">
-      <c r="A565" s="23"/>
+      <c r="A565" s="22"/>
     </row>
     <row r="566" spans="1:1">
-      <c r="A566" s="23"/>
+      <c r="A566" s="22"/>
     </row>
     <row r="567" spans="1:1">
-      <c r="A567" s="23"/>
+      <c r="A567" s="22"/>
     </row>
     <row r="568" spans="1:1">
-      <c r="A568" s="23"/>
+      <c r="A568" s="22"/>
     </row>
     <row r="569" spans="1:1">
-      <c r="A569" s="23"/>
+      <c r="A569" s="22"/>
     </row>
     <row r="570" spans="1:1">
-      <c r="A570" s="23"/>
+      <c r="A570" s="22"/>
     </row>
     <row r="571" spans="1:1">
-      <c r="A571" s="23"/>
+      <c r="A571" s="22"/>
     </row>
     <row r="572" spans="1:1">
-      <c r="A572" s="23"/>
+      <c r="A572" s="22"/>
     </row>
     <row r="573" spans="1:1">
-      <c r="A573" s="23"/>
+      <c r="A573" s="22"/>
     </row>
     <row r="574" spans="1:1">
-      <c r="A574" s="23"/>
+      <c r="A574" s="22"/>
     </row>
     <row r="575" spans="1:1">
-      <c r="A575" s="23"/>
+      <c r="A575" s="22"/>
     </row>
     <row r="576" spans="1:1">
-      <c r="A576" s="23"/>
+      <c r="A576" s="22"/>
     </row>
     <row r="577" spans="1:1">
-      <c r="A577" s="23"/>
+      <c r="A577" s="22"/>
     </row>
     <row r="578" spans="1:1">
-      <c r="A578" s="23"/>
+      <c r="A578" s="22"/>
     </row>
     <row r="579" spans="1:1">
-      <c r="A579" s="23"/>
+      <c r="A579" s="22"/>
     </row>
     <row r="580" spans="1:1">
-      <c r="A580" s="23"/>
+      <c r="A580" s="22"/>
     </row>
     <row r="581" spans="1:1">
-      <c r="A581" s="23"/>
+      <c r="A581" s="22"/>
     </row>
     <row r="582" spans="1:1">
-      <c r="A582" s="23"/>
+      <c r="A582" s="22"/>
     </row>
     <row r="583" spans="1:1">
-      <c r="A583" s="23"/>
+      <c r="A583" s="22"/>
     </row>
     <row r="584" spans="1:1">
-      <c r="A584" s="23"/>
+      <c r="A584" s="22"/>
     </row>
     <row r="585" spans="1:1">
-      <c r="A585" s="23"/>
+      <c r="A585" s="22"/>
     </row>
     <row r="586" spans="1:1">
-      <c r="A586" s="23"/>
+      <c r="A586" s="22"/>
     </row>
     <row r="587" spans="1:1">
-      <c r="A587" s="23"/>
+      <c r="A587" s="22"/>
     </row>
     <row r="588" spans="1:1">
-      <c r="A588" s="23"/>
+      <c r="A588" s="22"/>
     </row>
     <row r="589" spans="1:1">
-      <c r="A589" s="23"/>
+      <c r="A589" s="22"/>
     </row>
     <row r="590" spans="1:1">
-      <c r="A590" s="23"/>
+      <c r="A590" s="22"/>
     </row>
     <row r="591" spans="1:1">
-      <c r="A591" s="23"/>
+      <c r="A591" s="22"/>
     </row>
     <row r="592" spans="1:1">
-      <c r="A592" s="23"/>
+      <c r="A592" s="22"/>
     </row>
     <row r="593" spans="1:1">
-      <c r="A593" s="23"/>
+      <c r="A593" s="22"/>
     </row>
     <row r="594" spans="1:1">
-      <c r="A594" s="23"/>
+      <c r="A594" s="22"/>
     </row>
     <row r="595" spans="1:1">
-      <c r="A595" s="23"/>
+      <c r="A595" s="22"/>
     </row>
     <row r="596" spans="1:1">
-      <c r="A596" s="23"/>
+      <c r="A596" s="22"/>
     </row>
     <row r="597" spans="1:1">
-      <c r="A597" s="23"/>
+      <c r="A597" s="22"/>
     </row>
     <row r="598" spans="1:1">
-      <c r="A598" s="23"/>
+      <c r="A598" s="22"/>
     </row>
     <row r="599" spans="1:1">
-      <c r="A599" s="23"/>
+      <c r="A599" s="22"/>
     </row>
     <row r="600" spans="1:1">
-      <c r="A600" s="23"/>
+      <c r="A600" s="22"/>
     </row>
     <row r="601" spans="1:1">
-      <c r="A601" s="23"/>
+      <c r="A601" s="22"/>
     </row>
     <row r="602" spans="1:1">
-      <c r="A602" s="23"/>
+      <c r="A602" s="22"/>
     </row>
     <row r="603" spans="1:1">
-      <c r="A603" s="23"/>
+      <c r="A603" s="22"/>
     </row>
     <row r="604" spans="1:1">
-      <c r="A604" s="23"/>
+      <c r="A604" s="22"/>
     </row>
     <row r="605" spans="1:1">
-      <c r="A605" s="23"/>
+      <c r="A605" s="22"/>
     </row>
     <row r="606" spans="1:1">
-      <c r="A606" s="23"/>
+      <c r="A606" s="22"/>
     </row>
     <row r="607" spans="1:1">
-      <c r="A607" s="23"/>
+      <c r="A607" s="22"/>
     </row>
     <row r="608" spans="1:1">
-      <c r="A608" s="23"/>
+      <c r="A608" s="22"/>
     </row>
     <row r="609" spans="1:1">
-      <c r="A609" s="23"/>
+      <c r="A609" s="22"/>
     </row>
     <row r="610" spans="1:1">
-      <c r="A610" s="23"/>
+      <c r="A610" s="22"/>
     </row>
     <row r="611" spans="1:1">
-      <c r="A611" s="23"/>
+      <c r="A611" s="22"/>
     </row>
     <row r="612" spans="1:1">
-      <c r="A612" s="23"/>
+      <c r="A612" s="22"/>
     </row>
     <row r="613" spans="1:1">
-      <c r="A613" s="23"/>
+      <c r="A613" s="22"/>
     </row>
     <row r="614" spans="1:1">
-      <c r="A614" s="23"/>
+      <c r="A614" s="22"/>
     </row>
     <row r="615" spans="1:1">
-      <c r="A615" s="23"/>
+      <c r="A615" s="22"/>
     </row>
     <row r="616" spans="1:1">
-      <c r="A616" s="23"/>
+      <c r="A616" s="22"/>
     </row>
     <row r="617" spans="1:1">
-      <c r="A617" s="23"/>
+      <c r="A617" s="22"/>
     </row>
     <row r="618" spans="1:1">
-      <c r="A618" s="23"/>
+      <c r="A618" s="22"/>
     </row>
     <row r="619" spans="1:1">
-      <c r="A619" s="23"/>
+      <c r="A619" s="22"/>
     </row>
     <row r="620" spans="1:1">
-      <c r="A620" s="23"/>
+      <c r="A620" s="22"/>
     </row>
     <row r="621" spans="1:1">
-      <c r="A621" s="23"/>
+      <c r="A621" s="22"/>
     </row>
     <row r="622" spans="1:1">
-      <c r="A622" s="23"/>
+      <c r="A622" s="22"/>
     </row>
     <row r="623" spans="1:1">
-      <c r="A623" s="23"/>
+      <c r="A623" s="22"/>
     </row>
     <row r="624" spans="1:1">
-      <c r="A624" s="23"/>
+      <c r="A624" s="22"/>
     </row>
     <row r="625" spans="1:1">
-      <c r="A625" s="23"/>
+      <c r="A625" s="22"/>
     </row>
     <row r="626" spans="1:1">
-      <c r="A626" s="23"/>
+      <c r="A626" s="22"/>
     </row>
     <row r="627" spans="1:1">
-      <c r="A627" s="23"/>
+      <c r="A627" s="22"/>
     </row>
     <row r="628" spans="1:1">
-      <c r="A628" s="23"/>
+      <c r="A628" s="22"/>
     </row>
     <row r="629" spans="1:1">
-      <c r="A629" s="23"/>
+      <c r="A629" s="22"/>
     </row>
     <row r="630" spans="1:1">
-      <c r="A630" s="23"/>
+      <c r="A630" s="22"/>
     </row>
     <row r="631" spans="1:1">
-      <c r="A631" s="23"/>
+      <c r="A631" s="22"/>
     </row>
     <row r="632" spans="1:1">
-      <c r="A632" s="23"/>
+      <c r="A632" s="22"/>
     </row>
     <row r="633" spans="1:1">
-      <c r="A633" s="23"/>
+      <c r="A633" s="22"/>
     </row>
     <row r="634" spans="1:1">
-      <c r="A634" s="23"/>
+      <c r="A634" s="22"/>
     </row>
     <row r="635" spans="1:1">
-      <c r="A635" s="23"/>
+      <c r="A635" s="22"/>
     </row>
     <row r="636" spans="1:1">
-      <c r="A636" s="23"/>
+      <c r="A636" s="22"/>
     </row>
     <row r="637" spans="1:1">
-      <c r="A637" s="23"/>
+      <c r="A637" s="22"/>
     </row>
     <row r="638" spans="1:1">
-      <c r="A638" s="23"/>
+      <c r="A638" s="22"/>
     </row>
     <row r="639" spans="1:1">
-      <c r="A639" s="23"/>
+      <c r="A639" s="22"/>
     </row>
     <row r="640" spans="1:1">
-      <c r="A640" s="23"/>
+      <c r="A640" s="22"/>
     </row>
     <row r="641" spans="1:1">
-      <c r="A641" s="23"/>
+      <c r="A641" s="22"/>
     </row>
     <row r="642" spans="1:1">
-      <c r="A642" s="23"/>
+      <c r="A642" s="22"/>
     </row>
     <row r="643" spans="1:1">
-      <c r="A643" s="23"/>
+      <c r="A643" s="22"/>
     </row>
     <row r="644" spans="1:1">
-      <c r="A644" s="23"/>
+      <c r="A644" s="22"/>
     </row>
     <row r="645" spans="1:1">
-      <c r="A645" s="23"/>
+      <c r="A645" s="22"/>
     </row>
     <row r="646" spans="1:1">
-      <c r="A646" s="23"/>
+      <c r="A646" s="22"/>
     </row>
     <row r="647" spans="1:1">
-      <c r="A647" s="23"/>
+      <c r="A647" s="22"/>
     </row>
     <row r="648" spans="1:1">
-      <c r="A648" s="23"/>
+      <c r="A648" s="22"/>
     </row>
     <row r="649" spans="1:1">
-      <c r="A649" s="23"/>
+      <c r="A649" s="22"/>
     </row>
     <row r="650" spans="1:1">
-      <c r="A650" s="23"/>
+      <c r="A650" s="22"/>
     </row>
     <row r="651" spans="1:1">
-      <c r="A651" s="23"/>
+      <c r="A651" s="22"/>
     </row>
     <row r="652" spans="1:1">
-      <c r="A652" s="23"/>
+      <c r="A652" s="22"/>
     </row>
     <row r="653" spans="1:1">
-      <c r="A653" s="23"/>
+      <c r="A653" s="22"/>
     </row>
     <row r="654" spans="1:1">
-      <c r="A654" s="23"/>
+      <c r="A654" s="22"/>
     </row>
     <row r="655" spans="1:1">
-      <c r="A655" s="23"/>
+      <c r="A655" s="22"/>
     </row>
     <row r="656" spans="1:1">
-      <c r="A656" s="23"/>
+      <c r="A656" s="22"/>
     </row>
     <row r="657" spans="1:1">
-      <c r="A657" s="23"/>
+      <c r="A657" s="22"/>
     </row>
     <row r="658" spans="1:1">
-      <c r="A658" s="23"/>
+      <c r="A658" s="22"/>
     </row>
     <row r="659" spans="1:1">
-      <c r="A659" s="23"/>
+      <c r="A659" s="22"/>
     </row>
     <row r="660" spans="1:1">
-      <c r="A660" s="23"/>
+      <c r="A660" s="22"/>
     </row>
     <row r="661" spans="1:1">
-      <c r="A661" s="23"/>
+      <c r="A661" s="22"/>
     </row>
     <row r="662" spans="1:1">
-      <c r="A662" s="23"/>
+      <c r="A662" s="22"/>
     </row>
     <row r="663" spans="1:1">
-      <c r="A663" s="23"/>
+      <c r="A663" s="22"/>
     </row>
     <row r="664" spans="1:1">
-      <c r="A664" s="23"/>
+      <c r="A664" s="22"/>
     </row>
     <row r="665" spans="1:1">
-      <c r="A665" s="23"/>
+      <c r="A665" s="22"/>
     </row>
     <row r="666" spans="1:1">
-      <c r="A666" s="23"/>
+      <c r="A666" s="22"/>
     </row>
     <row r="667" spans="1:1">
-      <c r="A667" s="23"/>
+      <c r="A667" s="22"/>
     </row>
     <row r="668" spans="1:1">
-      <c r="A668" s="23"/>
+      <c r="A668" s="22"/>
     </row>
     <row r="669" spans="1:1">
-      <c r="A669" s="23"/>
+      <c r="A669" s="22"/>
     </row>
     <row r="670" spans="1:1">
-      <c r="A670" s="23"/>
+      <c r="A670" s="22"/>
     </row>
     <row r="671" spans="1:1">
-      <c r="A671" s="23"/>
+      <c r="A671" s="22"/>
     </row>
     <row r="672" spans="1:1">
-      <c r="A672" s="23"/>
+      <c r="A672" s="22"/>
     </row>
     <row r="673" spans="1:1">
-      <c r="A673" s="23"/>
+      <c r="A673" s="22"/>
     </row>
     <row r="674" spans="1:1">
-      <c r="A674" s="23"/>
+      <c r="A674" s="22"/>
     </row>
     <row r="675" spans="1:1">
-      <c r="A675" s="23"/>
+      <c r="A675" s="22"/>
     </row>
     <row r="676" spans="1:1">
-      <c r="A676" s="23"/>
+      <c r="A676" s="22"/>
     </row>
     <row r="677" spans="1:1">
-      <c r="A677" s="23"/>
+      <c r="A677" s="22"/>
     </row>
     <row r="678" spans="1:1">
-      <c r="A678" s="23"/>
+      <c r="A678" s="22"/>
     </row>
     <row r="679" spans="1:1">
-      <c r="A679" s="23"/>
+      <c r="A679" s="22"/>
     </row>
     <row r="680" spans="1:1">
-      <c r="A680" s="23"/>
+      <c r="A680" s="22"/>
     </row>
     <row r="681" spans="1:1">
-      <c r="A681" s="23"/>
+      <c r="A681" s="22"/>
     </row>
     <row r="682" spans="1:1">
-      <c r="A682" s="23"/>
+      <c r="A682" s="22"/>
     </row>
     <row r="683" spans="1:1">
-      <c r="A683" s="23"/>
+      <c r="A683" s="22"/>
     </row>
     <row r="684" spans="1:1">
-      <c r="A684" s="23"/>
+      <c r="A684" s="22"/>
     </row>
     <row r="685" spans="1:1">
-      <c r="A685" s="23"/>
+      <c r="A685" s="22"/>
     </row>
     <row r="686" spans="1:1">
-      <c r="A686" s="23"/>
+      <c r="A686" s="22"/>
     </row>
     <row r="687" spans="1:1">
-      <c r="A687" s="23"/>
+      <c r="A687" s="22"/>
     </row>
     <row r="688" spans="1:1">
-      <c r="A688" s="23"/>
+      <c r="A688" s="22"/>
     </row>
     <row r="689" spans="1:1">
-      <c r="A689" s="23"/>
+      <c r="A689" s="22"/>
     </row>
     <row r="690" spans="1:1">
-      <c r="A690" s="23"/>
+      <c r="A690" s="22"/>
     </row>
     <row r="691" spans="1:1">
-      <c r="A691" s="23"/>
+      <c r="A691" s="22"/>
     </row>
     <row r="692" spans="1:1">
-      <c r="A692" s="23"/>
+      <c r="A692" s="22"/>
     </row>
     <row r="693" spans="1:1">
-      <c r="A693" s="23"/>
+      <c r="A693" s="22"/>
     </row>
     <row r="694" spans="1:1">
-      <c r="A694" s="23"/>
+      <c r="A694" s="22"/>
     </row>
     <row r="695" spans="1:1">
-      <c r="A695" s="23"/>
+      <c r="A695" s="22"/>
     </row>
     <row r="696" spans="1:1">
-      <c r="A696" s="23"/>
+      <c r="A696" s="22"/>
     </row>
     <row r="697" spans="1:1">
-      <c r="A697" s="23"/>
+      <c r="A697" s="22"/>
     </row>
     <row r="698" spans="1:1">
-      <c r="A698" s="23"/>
+      <c r="A698" s="22"/>
     </row>
     <row r="699" spans="1:1">
-      <c r="A699" s="23"/>
+      <c r="A699" s="22"/>
     </row>
     <row r="700" spans="1:1">
-      <c r="A700" s="23"/>
+      <c r="A700" s="22"/>
     </row>
     <row r="701" spans="1:1">
-      <c r="A701" s="23"/>
+      <c r="A701" s="22"/>
     </row>
     <row r="702" spans="1:1">
-      <c r="A702" s="23"/>
+      <c r="A702" s="22"/>
     </row>
     <row r="703" spans="1:1">
-      <c r="A703" s="23"/>
+      <c r="A703" s="22"/>
     </row>
     <row r="704" spans="1:1">
-      <c r="A704" s="23"/>
+      <c r="A704" s="22"/>
     </row>
     <row r="705" spans="1:1">
-      <c r="A705" s="23"/>
+      <c r="A705" s="22"/>
     </row>
     <row r="706" spans="1:1">
-      <c r="A706" s="23"/>
+      <c r="A706" s="22"/>
     </row>
     <row r="707" spans="1:1">
-      <c r="A707" s="23"/>
+      <c r="A707" s="22"/>
     </row>
     <row r="708" spans="1:1">
-      <c r="A708" s="23"/>
+      <c r="A708" s="22"/>
     </row>
     <row r="709" spans="1:1">
-      <c r="A709" s="23"/>
+      <c r="A709" s="22"/>
     </row>
     <row r="710" spans="1:1">
-      <c r="A710" s="23"/>
+      <c r="A710" s="22"/>
     </row>
     <row r="711" spans="1:1">
-      <c r="A711" s="23"/>
+      <c r="A711" s="22"/>
     </row>
     <row r="712" spans="1:1">
-      <c r="A712" s="23"/>
+      <c r="A712" s="22"/>
     </row>
     <row r="713" spans="1:1">
-      <c r="A713" s="23"/>
+      <c r="A713" s="22"/>
     </row>
     <row r="714" spans="1:1">
-      <c r="A714" s="23"/>
+      <c r="A714" s="22"/>
     </row>
     <row r="715" spans="1:1">
-      <c r="A715" s="23"/>
+      <c r="A715" s="22"/>
     </row>
     <row r="716" spans="1:1">
-      <c r="A716" s="23"/>
+      <c r="A716" s="22"/>
     </row>
     <row r="717" spans="1:1">
-      <c r="A717" s="23"/>
+      <c r="A717" s="22"/>
     </row>
     <row r="718" spans="1:1">
-      <c r="A718" s="23"/>
+      <c r="A718" s="22"/>
     </row>
     <row r="719" spans="1:1">
-      <c r="A719" s="23"/>
+      <c r="A719" s="22"/>
     </row>
     <row r="720" spans="1:1">
-      <c r="A720" s="23"/>
+      <c r="A720" s="22"/>
     </row>
     <row r="721" spans="1:1">
-      <c r="A721" s="23"/>
+      <c r="A721" s="22"/>
     </row>
     <row r="722" spans="1:1">
-      <c r="A722" s="23"/>
+      <c r="A722" s="22"/>
     </row>
     <row r="723" spans="1:1">
-      <c r="A723" s="23"/>
+      <c r="A723" s="22"/>
     </row>
     <row r="724" spans="1:1">
-      <c r="A724" s="23"/>
+      <c r="A724" s="22"/>
     </row>
     <row r="725" spans="1:1">
-      <c r="A725" s="23"/>
+      <c r="A725" s="22"/>
     </row>
     <row r="726" spans="1:1">
-      <c r="A726" s="23"/>
+      <c r="A726" s="22"/>
     </row>
     <row r="727" spans="1:1">
-      <c r="A727" s="23"/>
+      <c r="A727" s="22"/>
     </row>
     <row r="728" spans="1:1">
-      <c r="A728" s="23"/>
+      <c r="A728" s="22"/>
     </row>
     <row r="729" spans="1:1">
-      <c r="A729" s="23"/>
+      <c r="A729" s="22"/>
     </row>
     <row r="730" spans="1:1">
-      <c r="A730" s="23"/>
+      <c r="A730" s="22"/>
     </row>
     <row r="731" spans="1:1">
-      <c r="A731" s="23"/>
+      <c r="A731" s="22"/>
     </row>
     <row r="732" spans="1:1">
-      <c r="A732" s="23"/>
+      <c r="A732" s="22"/>
     </row>
     <row r="733" spans="1:1">
-      <c r="A733" s="23"/>
+      <c r="A733" s="22"/>
     </row>
     <row r="734" spans="1:1">
-      <c r="A734" s="23"/>
+      <c r="A734" s="22"/>
     </row>
     <row r="735" spans="1:1">
-      <c r="A735" s="23"/>
+      <c r="A735" s="22"/>
     </row>
     <row r="736" spans="1:1">
-      <c r="A736" s="23"/>
+      <c r="A736" s="22"/>
     </row>
     <row r="737" spans="1:1">
-      <c r="A737" s="23"/>
+      <c r="A737" s="22"/>
     </row>
     <row r="738" spans="1:1">
-      <c r="A738" s="23"/>
+      <c r="A738" s="22"/>
     </row>
     <row r="739" spans="1:1">
-      <c r="A739" s="23"/>
+      <c r="A739" s="22"/>
     </row>
     <row r="740" spans="1:1">
-      <c r="A740" s="23"/>
+      <c r="A740" s="22"/>
     </row>
     <row r="741" spans="1:1">
-      <c r="A741" s="23"/>
+      <c r="A741" s="22"/>
     </row>
     <row r="742" spans="1:1">
-      <c r="A742" s="23"/>
+      <c r="A742" s="22"/>
     </row>
     <row r="743" spans="1:1">
-      <c r="A743" s="23"/>
+      <c r="A743" s="22"/>
     </row>
     <row r="744" spans="1:1">
-      <c r="A744" s="23"/>
+      <c r="A744" s="22"/>
     </row>
     <row r="745" spans="1:1">
-      <c r="A745" s="23"/>
+      <c r="A745" s="22"/>
     </row>
     <row r="746" spans="1:1">
-      <c r="A746" s="23"/>
+      <c r="A746" s="22"/>
     </row>
     <row r="747" spans="1:1">
-      <c r="A747" s="23"/>
+      <c r="A747" s="22"/>
     </row>
     <row r="748" spans="1:1">
-      <c r="A748" s="23"/>
+      <c r="A748" s="22"/>
     </row>
     <row r="749" spans="1:1">
-      <c r="A749" s="23"/>
+      <c r="A749" s="22"/>
     </row>
     <row r="750" spans="1:1">
-      <c r="A750" s="23"/>
+      <c r="A750" s="22"/>
     </row>
     <row r="751" spans="1:1">
-      <c r="A751" s="23"/>
+      <c r="A751" s="22"/>
     </row>
     <row r="752" spans="1:1">
-      <c r="A752" s="23"/>
+      <c r="A752" s="22"/>
     </row>
     <row r="753" spans="1:1">
-      <c r="A753" s="23"/>
+      <c r="A753" s="22"/>
     </row>
     <row r="754" spans="1:1">
-      <c r="A754" s="23"/>
+      <c r="A754" s="22"/>
     </row>
     <row r="755" spans="1:1">
-      <c r="A755" s="23"/>
+      <c r="A755" s="22"/>
     </row>
     <row r="756" spans="1:1">
-      <c r="A756" s="23"/>
+      <c r="A756" s="22"/>
     </row>
     <row r="757" spans="1:1">
-      <c r="A757" s="23"/>
+      <c r="A757" s="22"/>
     </row>
     <row r="758" spans="1:1">
-      <c r="A758" s="23"/>
+      <c r="A758" s="22"/>
     </row>
     <row r="759" spans="1:1">
-      <c r="A759" s="23"/>
+      <c r="A759" s="22"/>
     </row>
     <row r="760" spans="1:1">
-      <c r="A760" s="23"/>
+      <c r="A760" s="22"/>
     </row>
     <row r="761" spans="1:1">
-      <c r="A761" s="23"/>
+      <c r="A761" s="22"/>
     </row>
     <row r="762" spans="1:1">
-      <c r="A762" s="23"/>
+      <c r="A762" s="22"/>
     </row>
     <row r="763" spans="1:1">
-      <c r="A763" s="23"/>
+      <c r="A763" s="22"/>
     </row>
     <row r="764" spans="1:1">
-      <c r="A764" s="23"/>
+      <c r="A764" s="22"/>
     </row>
     <row r="765" spans="1:1">
-      <c r="A765" s="23"/>
+      <c r="A765" s="22"/>
     </row>
     <row r="766" spans="1:1">
-      <c r="A766" s="23"/>
+      <c r="A766" s="22"/>
     </row>
     <row r="767" spans="1:1">
-      <c r="A767" s="23"/>
+      <c r="A767" s="22"/>
     </row>
     <row r="768" spans="1:1">
-      <c r="A768" s="23"/>
+      <c r="A768" s="22"/>
     </row>
     <row r="769" spans="1:1">
-      <c r="A769" s="23"/>
+      <c r="A769" s="22"/>
     </row>
     <row r="770" spans="1:1">
-      <c r="A770" s="23"/>
+      <c r="A770" s="22"/>
     </row>
     <row r="771" spans="1:1">
-      <c r="A771" s="23"/>
+      <c r="A771" s="22"/>
     </row>
     <row r="772" spans="1:1">
-      <c r="A772" s="23"/>
+      <c r="A772" s="22"/>
     </row>
     <row r="773" spans="1:1">
-      <c r="A773" s="23"/>
+      <c r="A773" s="22"/>
     </row>
     <row r="774" spans="1:1">
-      <c r="A774" s="23"/>
+      <c r="A774" s="22"/>
     </row>
     <row r="775" spans="1:1">
-      <c r="A775" s="23"/>
+      <c r="A775" s="22"/>
     </row>
     <row r="776" spans="1:1">
-      <c r="A776" s="23"/>
+      <c r="A776" s="22"/>
     </row>
     <row r="777" spans="1:1">
-      <c r="A777" s="23"/>
+      <c r="A777" s="22"/>
     </row>
     <row r="778" spans="1:1">
-      <c r="A778" s="23"/>
+      <c r="A778" s="22"/>
     </row>
     <row r="779" spans="1:1">
-      <c r="A779" s="23"/>
+      <c r="A779" s="22"/>
     </row>
     <row r="780" spans="1:1">
-      <c r="A780" s="23"/>
+      <c r="A780" s="22"/>
     </row>
     <row r="781" spans="1:1">
-      <c r="A781" s="23"/>
+      <c r="A781" s="22"/>
     </row>
     <row r="782" spans="1:1">
-      <c r="A782" s="23"/>
+      <c r="A782" s="22"/>
     </row>
     <row r="783" spans="1:1">
-      <c r="A783" s="23"/>
+      <c r="A783" s="22"/>
     </row>
     <row r="784" spans="1:1">
-      <c r="A784" s="23"/>
+      <c r="A784" s="22"/>
     </row>
     <row r="785" spans="1:1">
-      <c r="A785" s="23"/>
+      <c r="A785" s="22"/>
     </row>
     <row r="786" spans="1:1">
-      <c r="A786" s="23"/>
+      <c r="A786" s="22"/>
     </row>
     <row r="787" spans="1:1">
-      <c r="A787" s="23"/>
+      <c r="A787" s="22"/>
     </row>
     <row r="788" spans="1:1">
-      <c r="A788" s="23"/>
+      <c r="A788" s="22"/>
     </row>
     <row r="789" spans="1:1">
-      <c r="A789" s="23"/>
+      <c r="A789" s="22"/>
     </row>
     <row r="790" spans="1:1">
-      <c r="A790" s="23"/>
+      <c r="A790" s="22"/>
     </row>
     <row r="791" spans="1:1">
-      <c r="A791" s="23"/>
+      <c r="A791" s="22"/>
     </row>
     <row r="792" spans="1:1">
-      <c r="A792" s="23"/>
+      <c r="A792" s="22"/>
     </row>
     <row r="793" spans="1:1">
-      <c r="A793" s="23"/>
+      <c r="A793" s="22"/>
     </row>
     <row r="794" spans="1:1">
-      <c r="A794" s="23"/>
+      <c r="A794" s="22"/>
     </row>
     <row r="795" spans="1:1">
-      <c r="A795" s="23"/>
+      <c r="A795" s="22"/>
     </row>
     <row r="796" spans="1:1">
-      <c r="A796" s="23"/>
+      <c r="A796" s="22"/>
     </row>
     <row r="797" spans="1:1">
-      <c r="A797" s="23"/>
+      <c r="A797" s="22"/>
     </row>
     <row r="798" spans="1:1">
-      <c r="A798" s="23"/>
+      <c r="A798" s="22"/>
     </row>
     <row r="799" spans="1:1">
-      <c r="A799" s="23"/>
+      <c r="A799" s="22"/>
     </row>
     <row r="800" spans="1:1">
-      <c r="A800" s="23"/>
+      <c r="A800" s="22"/>
     </row>
     <row r="801" spans="1:1">
-      <c r="A801" s="23"/>
+      <c r="A801" s="22"/>
     </row>
     <row r="802" spans="1:1">
-      <c r="A802" s="23"/>
+      <c r="A802" s="22"/>
     </row>
     <row r="803" spans="1:1">
-      <c r="A803" s="23"/>
+      <c r="A803" s="22"/>
     </row>
     <row r="804" spans="1:1">
-      <c r="A804" s="23"/>
+      <c r="A804" s="22"/>
     </row>
     <row r="805" spans="1:1">
-      <c r="A805" s="23"/>
+      <c r="A805" s="22"/>
     </row>
     <row r="806" spans="1:1">
-      <c r="A806" s="23"/>
+      <c r="A806" s="22"/>
     </row>
     <row r="807" spans="1:1">
-      <c r="A807" s="23"/>
+      <c r="A807" s="22"/>
     </row>
     <row r="808" spans="1:1">
-      <c r="A808" s="23"/>
+      <c r="A808" s="22"/>
     </row>
     <row r="809" spans="1:1">
-      <c r="A809" s="23"/>
+      <c r="A809" s="22"/>
     </row>
     <row r="810" spans="1:1">
-      <c r="A810" s="23"/>
+      <c r="A810" s="22"/>
     </row>
     <row r="811" spans="1:1">
-      <c r="A811" s="23"/>
+      <c r="A811" s="22"/>
     </row>
     <row r="812" spans="1:1">
-      <c r="A812" s="23"/>
+      <c r="A812" s="22"/>
     </row>
     <row r="813" spans="1:1">
-      <c r="A813" s="23"/>
+      <c r="A813" s="22"/>
     </row>
     <row r="814" spans="1:1">
-      <c r="A814" s="23"/>
+      <c r="A814" s="22"/>
     </row>
     <row r="815" spans="1:1">
-      <c r="A815" s="23"/>
+      <c r="A815" s="22"/>
     </row>
     <row r="816" spans="1:1">
-      <c r="A816" s="23"/>
+      <c r="A816" s="22"/>
     </row>
     <row r="817" spans="1:1">
-      <c r="A817" s="23"/>
+      <c r="A817" s="22"/>
     </row>
     <row r="818" spans="1:1">
-      <c r="A818" s="23"/>
+      <c r="A818" s="22"/>
     </row>
     <row r="819" spans="1:1">
-      <c r="A819" s="23"/>
+      <c r="A819" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F78">
@@ -18743,1163 +18740,1163 @@
     <col min="6" max="6" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A1" s="24" t="s">
+    <row r="1" s="22" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A1" s="23" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>522</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>523</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26" t="s">
         <v>524</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="26" t="s">
         <v>525</v>
       </c>
-      <c r="G2" s="27"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26" t="s">
         <v>526</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27" t="s">
+      <c r="E3" s="26"/>
+      <c r="F3" s="26" t="s">
         <v>527</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" customHeight="1" spans="1:7">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26" t="s">
         <v>528</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27" t="s">
+      <c r="E4" s="26"/>
+      <c r="F4" s="26" t="s">
         <v>529</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" customHeight="1" spans="1:7">
-      <c r="A5" s="28"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26" t="s">
         <v>530</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27" t="s">
+      <c r="E5" s="26"/>
+      <c r="F5" s="26" t="s">
         <v>531</v>
       </c>
-      <c r="G5" s="27"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" s="28"/>
-      <c r="B6" s="26" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="25" t="s">
         <v>532</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26" t="s">
         <v>533</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27" t="s">
+      <c r="E6" s="26"/>
+      <c r="F6" s="26" t="s">
         <v>534</v>
       </c>
-      <c r="G6" s="27"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26" t="s">
         <v>535</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="26" t="s">
         <v>536</v>
       </c>
-      <c r="G7" s="27"/>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" customHeight="1" spans="1:7">
-      <c r="A8" s="28"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26" t="s">
         <v>537</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27" t="s">
+      <c r="E8" s="26"/>
+      <c r="F8" s="26" t="s">
         <v>538</v>
       </c>
-      <c r="G8" s="27"/>
+      <c r="G8" s="26"/>
     </row>
     <row r="9" customHeight="1" spans="1:7">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26" t="s">
         <v>539</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27" t="s">
+      <c r="E9" s="26"/>
+      <c r="F9" s="26" t="s">
         <v>540</v>
       </c>
-      <c r="G9" s="27"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" customHeight="1" spans="1:7">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26" t="s">
         <v>541</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27" t="s">
+      <c r="E10" s="26"/>
+      <c r="F10" s="26" t="s">
         <v>542</v>
       </c>
-      <c r="G10" s="27"/>
+      <c r="G10" s="26"/>
     </row>
     <row r="11" customHeight="1" spans="1:7">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26" t="s">
         <v>543</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27" t="s">
+      <c r="E11" s="26"/>
+      <c r="F11" s="26" t="s">
         <v>544</v>
       </c>
-      <c r="G11" s="27"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" customHeight="1" spans="1:7">
-      <c r="A12" s="28"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26" t="s">
         <v>545</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27" t="s">
+      <c r="E12" s="26"/>
+      <c r="F12" s="26" t="s">
         <v>546</v>
       </c>
-      <c r="G12" s="27"/>
+      <c r="G12" s="26"/>
     </row>
     <row r="13" customHeight="1" spans="1:7">
-      <c r="A13" s="28"/>
-      <c r="B13" s="26" t="s">
+      <c r="A13" s="27"/>
+      <c r="B13" s="25" t="s">
         <v>547</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="26" t="s">
         <v>548</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27" t="s">
+      <c r="E13" s="26"/>
+      <c r="F13" s="26" t="s">
         <v>549</v>
       </c>
-      <c r="G13" s="27"/>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" customHeight="1" spans="1:7">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26" t="s">
         <v>550</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27" t="s">
+      <c r="E14" s="26"/>
+      <c r="F14" s="26" t="s">
         <v>551</v>
       </c>
-      <c r="G14" s="27"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" customHeight="1" spans="1:7">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27" t="s">
+      <c r="A15" s="27"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26" t="s">
         <v>552</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27" t="s">
+      <c r="E15" s="26"/>
+      <c r="F15" s="26" t="s">
         <v>553</v>
       </c>
-      <c r="G15" s="27"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" customHeight="1" spans="1:7">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26" t="s">
         <v>554</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27" t="s">
+      <c r="E16" s="26"/>
+      <c r="F16" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="G16" s="27"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" customHeight="1" spans="1:7">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26" t="s">
         <v>539</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27" t="s">
+      <c r="E17" s="26"/>
+      <c r="F17" s="26" t="s">
         <v>556</v>
       </c>
-      <c r="G17" s="27"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" customHeight="1" spans="1:7">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26" t="s">
         <v>557</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27" t="s">
+      <c r="E18" s="26"/>
+      <c r="F18" s="26" t="s">
         <v>558</v>
       </c>
-      <c r="G18" s="27"/>
+      <c r="G18" s="26"/>
     </row>
     <row r="19" customHeight="1" spans="1:7">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26" t="s">
         <v>559</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27" t="s">
+      <c r="E19" s="26"/>
+      <c r="F19" s="26" t="s">
         <v>560</v>
       </c>
-      <c r="G19" s="27"/>
+      <c r="G19" s="26"/>
     </row>
     <row r="20" customHeight="1" spans="1:7">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27" t="s">
+      <c r="A20" s="27"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26" t="s">
         <v>561</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27" t="s">
+      <c r="E20" s="26"/>
+      <c r="F20" s="26" t="s">
         <v>562</v>
       </c>
-      <c r="G20" s="27"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" customHeight="1" spans="1:7">
-      <c r="A21" s="28"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27" t="s">
+      <c r="A21" s="27"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26" t="s">
         <v>563</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27" t="s">
+      <c r="E21" s="26"/>
+      <c r="F21" s="26" t="s">
         <v>564</v>
       </c>
-      <c r="G21" s="27"/>
+      <c r="G21" s="26"/>
     </row>
     <row r="22" customHeight="1" spans="1:7">
-      <c r="A22" s="28"/>
-      <c r="B22" s="26" t="s">
+      <c r="A22" s="27"/>
+      <c r="B22" s="25" t="s">
         <v>565</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27" t="s">
+      <c r="C22" s="26"/>
+      <c r="D22" s="26" t="s">
         <v>566</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27" t="s">
+      <c r="E22" s="26"/>
+      <c r="F22" s="26" t="s">
         <v>567</v>
       </c>
-      <c r="G22" s="27"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" customHeight="1" spans="1:7">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27" t="s">
+      <c r="A23" s="27"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26" t="s">
         <v>568</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27" t="s">
+      <c r="E23" s="26"/>
+      <c r="F23" s="26" t="s">
         <v>569</v>
       </c>
-      <c r="G23" s="27"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" customHeight="1" spans="1:7">
-      <c r="A24" s="28"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27" t="s">
+      <c r="A24" s="27"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26" t="s">
         <v>570</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27" t="s">
+      <c r="E24" s="26"/>
+      <c r="F24" s="26" t="s">
         <v>571</v>
       </c>
-      <c r="G24" s="27"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" customHeight="1" spans="1:7">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27" t="s">
+      <c r="A25" s="27"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26" t="s">
         <v>572</v>
       </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27" t="s">
+      <c r="E25" s="26"/>
+      <c r="F25" s="26" t="s">
         <v>573</v>
       </c>
-      <c r="G25" s="27"/>
+      <c r="G25" s="26"/>
     </row>
     <row r="26" customHeight="1" spans="1:7">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27" t="s">
+      <c r="A26" s="27"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26" t="s">
         <v>574</v>
       </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27" t="s">
+      <c r="E26" s="26"/>
+      <c r="F26" s="26" t="s">
         <v>575</v>
       </c>
-      <c r="G26" s="27"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" customHeight="1" spans="1:7">
-      <c r="A27" s="28"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27" t="s">
+      <c r="A27" s="27"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26" t="s">
         <v>576</v>
       </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27" t="s">
+      <c r="E27" s="26"/>
+      <c r="F27" s="26" t="s">
         <v>577</v>
       </c>
-      <c r="G27" s="27"/>
+      <c r="G27" s="26"/>
     </row>
     <row r="28" customHeight="1" spans="1:7">
-      <c r="A28" s="28"/>
-      <c r="B28" s="26" t="s">
+      <c r="A28" s="27"/>
+      <c r="B28" s="25" t="s">
         <v>578</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27" t="s">
+      <c r="C28" s="26"/>
+      <c r="D28" s="26" t="s">
         <v>579</v>
       </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27" t="s">
+      <c r="E28" s="26"/>
+      <c r="F28" s="26" t="s">
         <v>580</v>
       </c>
-      <c r="G28" s="27"/>
+      <c r="G28" s="26"/>
     </row>
     <row r="29" customHeight="1" spans="1:7">
-      <c r="A29" s="28"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27" t="s">
+      <c r="A29" s="27"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26" t="s">
         <v>581</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27" t="s">
+      <c r="E29" s="26"/>
+      <c r="F29" s="26" t="s">
         <v>582</v>
       </c>
-      <c r="G29" s="27"/>
+      <c r="G29" s="26"/>
     </row>
     <row r="30" customHeight="1" spans="1:7">
-      <c r="A30" s="28"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27" t="s">
+      <c r="A30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26" t="s">
         <v>583</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27" t="s">
+      <c r="E30" s="26"/>
+      <c r="F30" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="G30" s="27"/>
+      <c r="G30" s="26"/>
     </row>
     <row r="31" customHeight="1" spans="1:7">
-      <c r="A31" s="28"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27" t="s">
+      <c r="A31" s="27"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26" t="s">
         <v>585</v>
       </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27" t="s">
+      <c r="E31" s="26"/>
+      <c r="F31" s="26" t="s">
         <v>586</v>
       </c>
-      <c r="G31" s="27"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" customHeight="1" spans="1:7">
-      <c r="A32" s="28"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27" t="s">
+      <c r="A32" s="27"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26" t="s">
         <v>587</v>
       </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27" t="s">
+      <c r="E32" s="26"/>
+      <c r="F32" s="26" t="s">
         <v>588</v>
       </c>
-      <c r="G32" s="27"/>
+      <c r="G32" s="26"/>
     </row>
     <row r="33" customHeight="1" spans="1:7">
-      <c r="A33" s="28"/>
-      <c r="B33" s="26" t="s">
+      <c r="A33" s="27"/>
+      <c r="B33" s="25" t="s">
         <v>589</v>
       </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27" t="s">
+      <c r="C33" s="26"/>
+      <c r="D33" s="26" t="s">
         <v>590</v>
       </c>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27" t="s">
+      <c r="E33" s="26"/>
+      <c r="F33" s="26" t="s">
         <v>591</v>
       </c>
-      <c r="G33" s="27"/>
+      <c r="G33" s="26"/>
     </row>
     <row r="34" customHeight="1" spans="1:7">
-      <c r="A34" s="28"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27" t="s">
+      <c r="A34" s="27"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26" t="s">
         <v>592</v>
       </c>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27" t="s">
+      <c r="E34" s="26"/>
+      <c r="F34" s="26" t="s">
         <v>593</v>
       </c>
-      <c r="G34" s="27"/>
+      <c r="G34" s="26"/>
     </row>
     <row r="35" customHeight="1" spans="1:7">
-      <c r="A35" s="28"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27" t="s">
+      <c r="A35" s="27"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26" t="s">
         <v>594</v>
       </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27" t="s">
+      <c r="E35" s="26"/>
+      <c r="F35" s="26" t="s">
         <v>595</v>
       </c>
-      <c r="G35" s="27"/>
+      <c r="G35" s="26"/>
     </row>
     <row r="36" customHeight="1" spans="1:7">
-      <c r="A36" s="28"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27" t="s">
+      <c r="A36" s="27"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26" t="s">
         <v>596</v>
       </c>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27" t="s">
+      <c r="E36" s="26"/>
+      <c r="F36" s="26" t="s">
         <v>597</v>
       </c>
-      <c r="G36" s="27"/>
+      <c r="G36" s="26"/>
     </row>
     <row r="37" customHeight="1" spans="1:7">
-      <c r="A37" s="28"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27" t="s">
+      <c r="A37" s="27"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26" t="s">
         <v>585</v>
       </c>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27" t="s">
+      <c r="E37" s="26"/>
+      <c r="F37" s="26" t="s">
         <v>586</v>
       </c>
-      <c r="G37" s="27"/>
+      <c r="G37" s="26"/>
     </row>
     <row r="38" customHeight="1" spans="1:7">
-      <c r="A38" s="28"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27" t="s">
+      <c r="A38" s="27"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26" t="s">
         <v>598</v>
       </c>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27" t="s">
+      <c r="E38" s="26"/>
+      <c r="F38" s="26" t="s">
         <v>599</v>
       </c>
-      <c r="G38" s="27"/>
+      <c r="G38" s="26"/>
     </row>
     <row r="39" customHeight="1" spans="1:7">
-      <c r="A39" s="28"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27" t="s">
+      <c r="A39" s="27"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26" t="s">
         <v>600</v>
       </c>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27" t="s">
+      <c r="E39" s="26"/>
+      <c r="F39" s="26" t="s">
         <v>601</v>
       </c>
-      <c r="G39" s="27"/>
+      <c r="G39" s="26"/>
     </row>
     <row r="40" customHeight="1" spans="1:7">
-      <c r="A40" s="28"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27" t="s">
+      <c r="A40" s="27"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26" t="s">
         <v>602</v>
       </c>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27" t="s">
+      <c r="E40" s="26"/>
+      <c r="F40" s="26" t="s">
         <v>603</v>
       </c>
-      <c r="G40" s="27"/>
+      <c r="G40" s="26"/>
     </row>
     <row r="41" customHeight="1" spans="1:7">
-      <c r="A41" s="28"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27" t="s">
+      <c r="A41" s="27"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26" t="s">
         <v>604</v>
       </c>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27" t="s">
+      <c r="E41" s="26"/>
+      <c r="F41" s="26" t="s">
         <v>605</v>
       </c>
-      <c r="G41" s="27"/>
+      <c r="G41" s="26"/>
     </row>
     <row r="42" customHeight="1" spans="1:7">
-      <c r="A42" s="28"/>
-      <c r="B42" s="26" t="s">
+      <c r="A42" s="27"/>
+      <c r="B42" s="25" t="s">
         <v>606</v>
       </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27" t="s">
+      <c r="C42" s="26"/>
+      <c r="D42" s="26" t="s">
         <v>607</v>
       </c>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27" t="s">
+      <c r="E42" s="26"/>
+      <c r="F42" s="26" t="s">
         <v>608</v>
       </c>
-      <c r="G42" s="27"/>
+      <c r="G42" s="26"/>
     </row>
     <row r="43" customHeight="1" spans="1:7">
-      <c r="A43" s="28"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27" t="s">
+      <c r="A43" s="27"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26" t="s">
         <v>609</v>
       </c>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27" t="s">
+      <c r="E43" s="26"/>
+      <c r="F43" s="26" t="s">
         <v>610</v>
       </c>
-      <c r="G43" s="27"/>
+      <c r="G43" s="26"/>
     </row>
     <row r="44" customHeight="1" spans="1:7">
-      <c r="A44" s="28"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27" t="s">
+      <c r="A44" s="27"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26" t="s">
         <v>611</v>
       </c>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27" t="s">
+      <c r="E44" s="26"/>
+      <c r="F44" s="26" t="s">
         <v>612</v>
       </c>
-      <c r="G44" s="27"/>
+      <c r="G44" s="26"/>
     </row>
     <row r="45" customHeight="1" spans="1:7">
-      <c r="A45" s="28"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27" t="s">
+      <c r="A45" s="27"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26" t="s">
         <v>613</v>
       </c>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27" t="s">
+      <c r="E45" s="26"/>
+      <c r="F45" s="26" t="s">
         <v>614</v>
       </c>
-      <c r="G45" s="27"/>
+      <c r="G45" s="26"/>
     </row>
     <row r="46" customHeight="1" spans="1:7">
-      <c r="A46" s="28"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27" t="s">
+      <c r="A46" s="27"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26" t="s">
         <v>585</v>
       </c>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27" t="s">
+      <c r="E46" s="26"/>
+      <c r="F46" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G46" s="27"/>
+      <c r="G46" s="26"/>
     </row>
     <row r="47" customHeight="1" spans="1:7">
-      <c r="A47" s="28"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27" t="s">
+      <c r="A47" s="27"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26" t="s">
         <v>615</v>
       </c>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27" t="s">
+      <c r="E47" s="26"/>
+      <c r="F47" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G47" s="27"/>
+      <c r="G47" s="26"/>
     </row>
     <row r="48" customHeight="1" spans="1:7">
-      <c r="A48" s="28"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27" t="s">
+      <c r="A48" s="27"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26" t="s">
         <v>616</v>
       </c>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27" t="s">
+      <c r="E48" s="26"/>
+      <c r="F48" s="26" t="s">
         <v>617</v>
       </c>
-      <c r="G48" s="27"/>
+      <c r="G48" s="26"/>
     </row>
     <row r="49" customHeight="1" spans="1:7">
-      <c r="A49" s="28"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27" t="s">
+      <c r="A49" s="27"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26" t="s">
         <v>618</v>
       </c>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27" t="s">
+      <c r="E49" s="26"/>
+      <c r="F49" s="26" t="s">
         <v>619</v>
       </c>
-      <c r="G49" s="27"/>
+      <c r="G49" s="26"/>
     </row>
     <row r="50" customHeight="1" spans="1:7">
-      <c r="A50" s="28"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27" t="s">
+      <c r="A50" s="27"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26" t="s">
         <v>620</v>
       </c>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27" t="s">
+      <c r="E50" s="26"/>
+      <c r="F50" s="26" t="s">
         <v>588</v>
       </c>
-      <c r="G50" s="27"/>
+      <c r="G50" s="26"/>
     </row>
     <row r="51" customHeight="1" spans="1:7">
-      <c r="A51" s="28"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27" t="s">
+      <c r="A51" s="27"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26" t="s">
         <v>621</v>
       </c>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27" t="s">
+      <c r="E51" s="26"/>
+      <c r="F51" s="26" t="s">
         <v>622</v>
       </c>
-      <c r="G51" s="27"/>
+      <c r="G51" s="26"/>
     </row>
     <row r="52" customHeight="1" spans="1:7">
-      <c r="A52" s="28"/>
-      <c r="B52" s="26" t="s">
+      <c r="A52" s="27"/>
+      <c r="B52" s="25" t="s">
         <v>623</v>
       </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27" t="s">
+      <c r="C52" s="26"/>
+      <c r="D52" s="26" t="s">
         <v>624</v>
       </c>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27" t="s">
+      <c r="E52" s="26"/>
+      <c r="F52" s="26" t="s">
         <v>625</v>
       </c>
-      <c r="G52" s="27"/>
+      <c r="G52" s="26"/>
     </row>
     <row r="53" customHeight="1" spans="1:7">
-      <c r="A53" s="28"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27" t="s">
+      <c r="A53" s="27"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26" t="s">
         <v>626</v>
       </c>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27" t="s">
+      <c r="E53" s="26"/>
+      <c r="F53" s="26" t="s">
         <v>627</v>
       </c>
-      <c r="G53" s="27"/>
+      <c r="G53" s="26"/>
     </row>
     <row r="54" customHeight="1" spans="1:7">
-      <c r="A54" s="28"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27" t="s">
+      <c r="A54" s="27"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26" t="s">
         <v>628</v>
       </c>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27" t="s">
+      <c r="E54" s="26"/>
+      <c r="F54" s="26" t="s">
         <v>629</v>
       </c>
-      <c r="G54" s="27"/>
+      <c r="G54" s="26"/>
     </row>
     <row r="55" customHeight="1" spans="1:7">
-      <c r="A55" s="28"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27" t="s">
+      <c r="A55" s="27"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26" t="s">
         <v>630</v>
       </c>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27" t="s">
+      <c r="E55" s="26"/>
+      <c r="F55" s="26" t="s">
         <v>631</v>
       </c>
-      <c r="G55" s="27"/>
+      <c r="G55" s="26"/>
     </row>
     <row r="56" customHeight="1" spans="1:7">
-      <c r="A56" s="28"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27" t="s">
+      <c r="A56" s="27"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26" t="s">
         <v>598</v>
       </c>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27" t="s">
+      <c r="E56" s="26"/>
+      <c r="F56" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G56" s="27"/>
+      <c r="G56" s="26"/>
     </row>
     <row r="57" customHeight="1" spans="1:7">
-      <c r="A57" s="28"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27" t="s">
+      <c r="A57" s="27"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26" t="s">
         <v>585</v>
       </c>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27" t="s">
+      <c r="E57" s="26"/>
+      <c r="F57" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G57" s="27"/>
+      <c r="G57" s="26"/>
     </row>
     <row r="58" customHeight="1" spans="1:7">
-      <c r="A58" s="28"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27" t="s">
+      <c r="A58" s="27"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26" t="s">
         <v>587</v>
       </c>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27" t="s">
+      <c r="E58" s="26"/>
+      <c r="F58" s="26" t="s">
         <v>588</v>
       </c>
-      <c r="G58" s="27"/>
+      <c r="G58" s="26"/>
     </row>
     <row r="59" customHeight="1" spans="1:7">
-      <c r="A59" s="28"/>
-      <c r="B59" s="26" t="s">
+      <c r="A59" s="27"/>
+      <c r="B59" s="25" t="s">
         <v>632</v>
       </c>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27" t="s">
+      <c r="C59" s="26"/>
+      <c r="D59" s="26" t="s">
         <v>633</v>
       </c>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27" t="s">
+      <c r="E59" s="26"/>
+      <c r="F59" s="26" t="s">
         <v>634</v>
       </c>
-      <c r="G59" s="27"/>
+      <c r="G59" s="26"/>
     </row>
     <row r="60" customHeight="1" spans="1:7">
-      <c r="A60" s="28"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27" t="s">
+      <c r="A60" s="27"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27" t="s">
+      <c r="E60" s="26"/>
+      <c r="F60" s="26" t="s">
         <v>636</v>
       </c>
-      <c r="G60" s="27"/>
+      <c r="G60" s="26"/>
     </row>
     <row r="61" customHeight="1" spans="1:7">
-      <c r="A61" s="28"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27" t="s">
+      <c r="A61" s="27"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26" t="s">
         <v>628</v>
       </c>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27" t="s">
+      <c r="E61" s="26"/>
+      <c r="F61" s="26" t="s">
         <v>629</v>
       </c>
-      <c r="G61" s="27"/>
+      <c r="G61" s="26"/>
     </row>
     <row r="62" customHeight="1" spans="1:7">
-      <c r="A62" s="28"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27" t="s">
+      <c r="A62" s="27"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26" t="s">
         <v>587</v>
       </c>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27" t="s">
+      <c r="E62" s="26"/>
+      <c r="F62" s="26" t="s">
         <v>588</v>
       </c>
-      <c r="G62" s="27"/>
+      <c r="G62" s="26"/>
     </row>
     <row r="63" customHeight="1" spans="1:7">
-      <c r="A63" s="28"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27" t="s">
+      <c r="A63" s="27"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26" t="s">
         <v>637</v>
       </c>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27" t="s">
+      <c r="E63" s="26"/>
+      <c r="F63" s="26" t="s">
         <v>638</v>
       </c>
-      <c r="G63" s="27"/>
+      <c r="G63" s="26"/>
     </row>
     <row r="64" customHeight="1" spans="1:7">
-      <c r="A64" s="28"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27" t="s">
+      <c r="A64" s="27"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26" t="s">
         <v>639</v>
       </c>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27" t="s">
+      <c r="E64" s="26"/>
+      <c r="F64" s="26" t="s">
         <v>640</v>
       </c>
-      <c r="G64" s="27"/>
+      <c r="G64" s="26"/>
     </row>
     <row r="65" customHeight="1" spans="1:7">
-      <c r="A65" s="28"/>
-      <c r="B65" s="25" t="s">
+      <c r="A65" s="27"/>
+      <c r="B65" s="24" t="s">
         <v>641</v>
       </c>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27" t="s">
+      <c r="C65" s="26"/>
+      <c r="D65" s="26" t="s">
         <v>642</v>
       </c>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27" t="s">
+      <c r="E65" s="26"/>
+      <c r="F65" s="26" t="s">
         <v>643</v>
       </c>
-      <c r="G65" s="27"/>
+      <c r="G65" s="26"/>
     </row>
     <row r="66" customHeight="1" spans="1:7">
-      <c r="A66" s="28"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27" t="s">
+      <c r="A66" s="27"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26" t="s">
         <v>644</v>
       </c>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27" t="s">
+      <c r="E66" s="26"/>
+      <c r="F66" s="26" t="s">
         <v>645</v>
       </c>
-      <c r="G66" s="27"/>
+      <c r="G66" s="26"/>
     </row>
     <row r="67" customHeight="1" spans="1:7">
-      <c r="A67" s="28"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27" t="s">
+      <c r="A67" s="27"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26" t="s">
         <v>646</v>
       </c>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27" t="s">
+      <c r="E67" s="26"/>
+      <c r="F67" s="26" t="s">
         <v>647</v>
       </c>
-      <c r="G67" s="27"/>
+      <c r="G67" s="26"/>
     </row>
     <row r="68" customHeight="1" spans="1:7">
-      <c r="A68" s="31"/>
-      <c r="B68" s="31"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27" t="s">
+      <c r="A68" s="30"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26" t="s">
         <v>648</v>
       </c>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27" t="s">
+      <c r="E68" s="26"/>
+      <c r="F68" s="26" t="s">
         <v>649</v>
       </c>
-      <c r="G68" s="27"/>
+      <c r="G68" s="26"/>
     </row>
     <row r="69" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A69" s="26" t="s">
+      <c r="A69" s="25" t="s">
         <v>650</v>
       </c>
-      <c r="B69" s="27" t="s">
+      <c r="B69" s="26" t="s">
         <v>651</v>
       </c>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27" t="s">
+      <c r="C69" s="26"/>
+      <c r="D69" s="26" t="s">
         <v>652</v>
       </c>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27" t="s">
+      <c r="E69" s="26"/>
+      <c r="F69" s="26" t="s">
         <v>653</v>
       </c>
-      <c r="G69" s="27"/>
+      <c r="G69" s="26"/>
     </row>
     <row r="70" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A70" s="29"/>
-      <c r="B70" s="26" t="s">
+      <c r="A70" s="28"/>
+      <c r="B70" s="25" t="s">
         <v>654</v>
       </c>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27" t="s">
+      <c r="C70" s="26"/>
+      <c r="D70" s="26" t="s">
         <v>655</v>
       </c>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27" t="s">
+      <c r="E70" s="26"/>
+      <c r="F70" s="26" t="s">
         <v>656</v>
       </c>
-      <c r="G70" s="27"/>
+      <c r="G70" s="26"/>
     </row>
     <row r="71" ht="15" customHeight="1" spans="1:7">
-      <c r="A71" s="29"/>
-      <c r="B71" s="29"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27" t="s">
+      <c r="A71" s="28"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26" t="s">
         <v>657</v>
       </c>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27" t="s">
+      <c r="E71" s="26"/>
+      <c r="F71" s="26" t="s">
         <v>658</v>
       </c>
-      <c r="G71" s="27"/>
+      <c r="G71" s="26"/>
     </row>
     <row r="72" ht="15" customHeight="1" spans="1:7">
-      <c r="A72" s="29"/>
-      <c r="B72" s="29"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27" t="s">
+      <c r="A72" s="28"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26" t="s">
         <v>659</v>
       </c>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27" t="s">
+      <c r="E72" s="26"/>
+      <c r="F72" s="26" t="s">
         <v>660</v>
       </c>
-      <c r="G72" s="27"/>
+      <c r="G72" s="26"/>
     </row>
     <row r="73" ht="15" customHeight="1" spans="1:7">
-      <c r="A73" s="29"/>
-      <c r="B73" s="29"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27" t="s">
+      <c r="A73" s="28"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26" t="s">
         <v>661</v>
       </c>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27" t="s">
+      <c r="E73" s="26"/>
+      <c r="F73" s="26" t="s">
         <v>662</v>
       </c>
-      <c r="G73" s="27"/>
+      <c r="G73" s="26"/>
     </row>
     <row r="74" ht="15" customHeight="1" spans="1:7">
-      <c r="A74" s="29"/>
-      <c r="B74" s="29"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27" t="s">
+      <c r="A74" s="28"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26" t="s">
         <v>663</v>
       </c>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27" t="s">
+      <c r="E74" s="26"/>
+      <c r="F74" s="26" t="s">
         <v>664</v>
       </c>
-      <c r="G74" s="27"/>
+      <c r="G74" s="26"/>
     </row>
     <row r="75" customHeight="1" spans="1:7">
-      <c r="A75" s="29"/>
-      <c r="B75" s="29"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27" t="s">
+      <c r="A75" s="28"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26" t="s">
         <v>665</v>
       </c>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27" t="s">
+      <c r="E75" s="26"/>
+      <c r="F75" s="26" t="s">
         <v>666</v>
       </c>
-      <c r="G75" s="27"/>
+      <c r="G75" s="26"/>
     </row>
     <row r="76" customHeight="1" spans="1:7">
-      <c r="A76" s="29"/>
-      <c r="B76" s="29"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27" t="s">
+      <c r="A76" s="28"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26" t="s">
         <v>659</v>
       </c>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27" t="s">
+      <c r="E76" s="26"/>
+      <c r="F76" s="26" t="s">
         <v>660</v>
       </c>
-      <c r="G76" s="27"/>
+      <c r="G76" s="26"/>
     </row>
     <row r="77" customHeight="1" spans="1:7">
-      <c r="A77" s="29"/>
-      <c r="B77" s="29"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27" t="s">
+      <c r="A77" s="28"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26" t="s">
         <v>667</v>
       </c>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27" t="s">
+      <c r="E77" s="26"/>
+      <c r="F77" s="26" t="s">
         <v>668</v>
       </c>
-      <c r="G77" s="27"/>
+      <c r="G77" s="26"/>
     </row>
     <row r="78" customHeight="1" spans="1:7">
-      <c r="A78" s="29"/>
-      <c r="B78" s="29"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27" t="s">
+      <c r="A78" s="28"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26" t="s">
         <v>669</v>
       </c>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27" t="s">
+      <c r="E78" s="26"/>
+      <c r="F78" s="26" t="s">
         <v>670</v>
       </c>
-      <c r="G78" s="27"/>
+      <c r="G78" s="26"/>
     </row>
     <row r="79" customHeight="1" spans="1:7">
-      <c r="A79" s="29"/>
-      <c r="B79" s="29"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27" t="s">
+      <c r="A79" s="28"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26" t="s">
         <v>671</v>
       </c>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27" t="s">
+      <c r="E79" s="26"/>
+      <c r="F79" s="26" t="s">
         <v>450</v>
       </c>
-      <c r="G79" s="27"/>
+      <c r="G79" s="26"/>
     </row>
     <row r="80" customHeight="1" spans="1:7">
-      <c r="A80" s="29"/>
-      <c r="B80" s="29"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27" t="s">
+      <c r="A80" s="28"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26" t="s">
         <v>672</v>
       </c>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27" t="s">
+      <c r="E80" s="26"/>
+      <c r="F80" s="26" t="s">
         <v>673</v>
       </c>
-      <c r="G80" s="27"/>
+      <c r="G80" s="26"/>
     </row>
     <row r="81" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A81" s="29"/>
-      <c r="B81" s="26" t="s">
+      <c r="A81" s="28"/>
+      <c r="B81" s="25" t="s">
         <v>674</v>
       </c>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27" t="s">
+      <c r="C81" s="26"/>
+      <c r="D81" s="26" t="s">
         <v>675</v>
       </c>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27" t="s">
+      <c r="E81" s="26"/>
+      <c r="F81" s="26" t="s">
         <v>676</v>
       </c>
-      <c r="G81" s="27"/>
+      <c r="G81" s="26"/>
     </row>
     <row r="82" customHeight="1" spans="1:7">
-      <c r="A82" s="29"/>
-      <c r="B82" s="29"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27" t="s">
+      <c r="A82" s="28"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26" t="s">
         <v>677</v>
       </c>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27" t="s">
+      <c r="E82" s="26"/>
+      <c r="F82" s="26" t="s">
         <v>678</v>
       </c>
-      <c r="G82" s="27"/>
+      <c r="G82" s="26"/>
     </row>
     <row r="83" ht="27" customHeight="1" spans="1:7">
-      <c r="A83" s="29"/>
-      <c r="B83" s="29"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27" t="s">
+      <c r="A83" s="28"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="26" t="s">
         <v>679</v>
       </c>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27" t="s">
+      <c r="E83" s="26"/>
+      <c r="F83" s="26" t="s">
         <v>680</v>
       </c>
-      <c r="G83" s="27"/>
+      <c r="G83" s="26"/>
     </row>
     <row r="84" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A84" s="29"/>
-      <c r="B84" s="29"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27" t="s">
+      <c r="A84" s="28"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26" t="s">
         <v>681</v>
       </c>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27" t="s">
+      <c r="E84" s="26"/>
+      <c r="F84" s="26" t="s">
         <v>682</v>
       </c>
-      <c r="G84" s="27"/>
+      <c r="G84" s="26"/>
     </row>
     <row r="85" ht="13.5" spans="1:7">
-      <c r="A85" s="29"/>
-      <c r="B85" s="29"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27" t="s">
+      <c r="A85" s="28"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26" t="s">
         <v>683</v>
       </c>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27" t="s">
+      <c r="E85" s="26"/>
+      <c r="F85" s="26" t="s">
         <v>684</v>
       </c>
-      <c r="G85" s="27"/>
+      <c r="G85" s="26"/>
     </row>
     <row r="86" ht="13.5" spans="1:7">
-      <c r="A86" s="30"/>
-      <c r="B86" s="30"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27" t="s">
+      <c r="A86" s="29"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="26" t="s">
         <v>685</v>
       </c>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27" t="s">
+      <c r="E86" s="26"/>
+      <c r="F86" s="26" t="s">
         <v>686</v>
       </c>
-      <c r="G86" s="27"/>
+      <c r="G86" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -19928,9 +19925,9 @@
   <dimension ref="A1:AB38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -21527,10 +21524,10 @@
   <sheetPr/>
   <dimension ref="A1:AB130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G126" sqref="G126"/>
+      <selection pane="bottomLeft" activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -25715,7 +25712,7 @@
       <c r="E100" s="13" t="s">
         <v>969</v>
       </c>
-      <c r="F100" s="22" t="s">
+      <c r="F100" s="19" t="s">
         <v>16</v>
       </c>
       <c r="G100" s="18"/>
@@ -27017,10 +27014,10 @@
   <sheetPr/>
   <dimension ref="A1:AB104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C5"/>
+      <selection pane="bottomLeft" activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -27186,9 +27183,7 @@
       <c r="E5" s="13" t="s">
         <v>1036</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>11</v>
-      </c>
+      <c r="F5" s="13"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
@@ -27228,9 +27223,7 @@
       <c r="E6" s="13" t="s">
         <v>1039</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>150</v>
-      </c>
+      <c r="F6" s="13"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
@@ -27270,9 +27263,7 @@
       <c r="E7" s="13" t="s">
         <v>1041</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>150</v>
-      </c>
+      <c r="F7" s="13"/>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
@@ -27312,9 +27303,7 @@
       <c r="E8" s="13" t="s">
         <v>1043</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>150</v>
-      </c>
+      <c r="F8" s="13"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -27354,9 +27343,7 @@
       <c r="E9" s="13" t="s">
         <v>1046</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>150</v>
-      </c>
+      <c r="F9" s="13"/>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
@@ -27396,9 +27383,7 @@
       <c r="E10" s="13" t="s">
         <v>1048</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>150</v>
-      </c>
+      <c r="F10" s="13"/>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
@@ -27438,9 +27423,7 @@
       <c r="E11" s="13" t="s">
         <v>1050</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>150</v>
-      </c>
+      <c r="F11" s="13"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
@@ -27480,9 +27463,7 @@
       <c r="E12" s="13" t="s">
         <v>1053</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>150</v>
-      </c>
+      <c r="F12" s="13"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -27522,9 +27503,7 @@
       <c r="E13" s="13" t="s">
         <v>1048</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>150</v>
-      </c>
+      <c r="F13" s="13"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -27564,9 +27543,7 @@
       <c r="E14" s="13" t="s">
         <v>1056</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>150</v>
-      </c>
+      <c r="F14" s="13"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -27606,9 +27583,7 @@
       <c r="E15" s="13" t="s">
         <v>1059</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>150</v>
-      </c>
+      <c r="F15" s="13"/>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -27688,9 +27663,7 @@
       <c r="E17" s="13" t="s">
         <v>1063</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>150</v>
-      </c>
+      <c r="F17" s="13"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
@@ -31195,7 +31168,7 @@
   <dimension ref="A1:AB76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>

--- a/data/即时通讯测试用例V2.0.xlsx
+++ b/data/即时通讯测试用例V2.0.xlsx
@@ -29,7 +29,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">个人信息!$A$1:$F$78</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">消息列表!$A$1:$F$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">单聊!$A$1:$F$130</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">加号功能区!$A$1:$F$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">加号功能区!$A$1:$F$74</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">群聊!$A$1:$F$104</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">通讯录!$A$1:$F$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">收入支出!$A$1:$F$14</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4173" uniqueCount="1709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4187" uniqueCount="1711">
   <si>
     <t>系统模块</t>
   </si>
@@ -3374,6 +3374,12 @@
     <t>下载地址正确</t>
   </si>
   <si>
+    <t>A拉黑B，在添加好友中搜索B</t>
+  </si>
+  <si>
+    <t>搜索出的结果操作只有移出黑名单</t>
+  </si>
+  <si>
     <t>用户A与用户B已存在好友关系，用户A拉黑B后再删除用户B，用户A通过搜索好友添加用户B，用户B通过申请，校验用户A与用户B是否建立好友关系</t>
   </si>
   <si>
@@ -5200,10 +5206,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -5264,6 +5270,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -5271,7 +5292,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5279,37 +5300,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5340,30 +5331,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5371,6 +5339,36 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5392,6 +5390,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -5400,8 +5405,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5446,7 +5452,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5458,7 +5572,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5470,13 +5590,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5488,115 +5602,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5608,13 +5620,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5734,50 +5740,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5811,6 +5778,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -5831,6 +5822,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5839,10 +5845,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5851,133 +5857,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7296,19 +7302,19 @@
     </row>
     <row r="2" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A2" s="17" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>11</v>
@@ -7338,19 +7344,19 @@
     </row>
     <row r="3" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A3" s="17" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>11</v>
@@ -7380,19 +7386,19 @@
     </row>
     <row r="4" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A4" s="17" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>11</v>
@@ -7422,19 +7428,19 @@
     </row>
     <row r="5" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A5" s="17" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>11</v>
@@ -7464,19 +7470,19 @@
     </row>
     <row r="6" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A6" s="17" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>11</v>
@@ -7506,16 +7512,16 @@
     </row>
     <row r="7" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A7" s="17" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13" t="s">
@@ -7546,16 +7552,16 @@
     </row>
     <row r="8" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A8" s="17" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="22" t="s">
@@ -7586,16 +7592,16 @@
     </row>
     <row r="9" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A9" s="17" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="22" t="s">
@@ -7626,19 +7632,19 @@
     </row>
     <row r="10" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A10" s="17" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>11</v>
@@ -7668,19 +7674,19 @@
     </row>
     <row r="11" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A11" s="17" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>11</v>
@@ -7710,16 +7716,16 @@
     </row>
     <row r="12" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A12" s="17" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13" t="s">
@@ -7750,19 +7756,19 @@
     </row>
     <row r="13" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A13" s="17" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="18"/>
@@ -7790,19 +7796,19 @@
     </row>
     <row r="14" s="15" customFormat="1" ht="34.5" spans="1:28">
       <c r="A14" s="17" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="18"/>
@@ -7830,19 +7836,19 @@
     </row>
     <row r="15" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A15" s="17" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="18"/>
@@ -7870,19 +7876,19 @@
     </row>
     <row r="16" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A16" s="17" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="18"/>
@@ -7910,19 +7916,19 @@
     </row>
     <row r="17" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A17" s="17" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="18"/>
@@ -7950,16 +7956,16 @@
     </row>
     <row r="18" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A18" s="17" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -7988,16 +7994,16 @@
     </row>
     <row r="19" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A19" s="17" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>450</v>
@@ -8028,19 +8034,19 @@
     </row>
     <row r="20" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A20" s="17" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="18"/>
@@ -8068,19 +8074,19 @@
     </row>
     <row r="21" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A21" s="17" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="18"/>
@@ -8108,16 +8114,16 @@
     </row>
     <row r="22" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A22" s="17" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
@@ -8146,19 +8152,19 @@
     </row>
     <row r="23" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A23" s="17" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="18"/>
@@ -8186,19 +8192,19 @@
     </row>
     <row r="24" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A24" s="17" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="18"/>
@@ -8226,221 +8232,221 @@
     </row>
     <row r="25" ht="17.25" spans="1:6">
       <c r="A25" s="17" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="F25" s="4"/>
     </row>
     <row r="26" ht="17.25" spans="1:6">
       <c r="A26" s="17" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
     <row r="27" ht="17.25" spans="1:6">
       <c r="A27" s="17" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
     <row r="28" ht="17.25" spans="1:6">
       <c r="A28" s="17" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
     <row r="29" ht="17.25" spans="1:6">
       <c r="A29" s="17" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
     <row r="30" ht="17.25" spans="1:6">
       <c r="A30" s="17" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
     <row r="31" ht="17.25" spans="1:6">
       <c r="A31" s="17" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
     <row r="32" ht="17.25" spans="1:6">
       <c r="A32" s="17" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
     <row r="33" ht="17.25" spans="1:5">
       <c r="A33" s="17" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="E33" s="7"/>
     </row>
     <row r="34" ht="17.25" spans="1:5">
       <c r="A34" s="17" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="E34" s="7"/>
     </row>
     <row r="35" ht="17.25" spans="1:5">
       <c r="A35" s="17" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="E35" s="7"/>
     </row>
     <row r="36" ht="17.25" spans="1:5">
       <c r="A36" s="17" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="E36" s="7"/>
     </row>
     <row r="37" ht="17.25" spans="1:5">
       <c r="A37" s="17" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="E37" s="7"/>
     </row>
     <row r="38" ht="17.25" spans="1:5">
       <c r="A38" s="17" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="E38" s="7"/>
     </row>
@@ -8494,19 +8500,19 @@
     </row>
     <row r="2" s="15" customFormat="1" ht="34.5" spans="1:28">
       <c r="A2" s="17" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="18"/>
@@ -8534,19 +8540,19 @@
     </row>
     <row r="3" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A3" s="17" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="18"/>
@@ -8574,19 +8580,19 @@
     </row>
     <row r="4" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A4" s="17" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="18"/>
@@ -8614,16 +8620,16 @@
     </row>
     <row r="5" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A5" s="17" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
@@ -8652,19 +8658,19 @@
     </row>
     <row r="6" s="15" customFormat="1" ht="34.5" spans="1:28">
       <c r="A6" s="17" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="18"/>
@@ -8692,19 +8698,19 @@
     </row>
     <row r="7" s="15" customFormat="1" ht="34.5" spans="1:28">
       <c r="A7" s="17" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="18"/>
@@ -8732,16 +8738,16 @@
     </row>
     <row r="8" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A8" s="17" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -8770,16 +8776,16 @@
     </row>
     <row r="9" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A9" s="17" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -8808,16 +8814,16 @@
     </row>
     <row r="10" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A10" s="17" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -8846,19 +8852,19 @@
     </row>
     <row r="11" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A11" s="17" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="18"/>
@@ -8886,55 +8892,55 @@
     </row>
     <row r="12" ht="16.5" spans="1:6">
       <c r="A12" s="4" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="F12" s="7"/>
     </row>
     <row r="13" ht="16.5" spans="1:6">
       <c r="A13" s="4" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="F13" s="7"/>
     </row>
     <row r="14" ht="16.5" spans="1:6">
       <c r="A14" s="4" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="F14" s="7"/>
     </row>
@@ -8998,70 +9004,70 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="F2" s="13"/>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="F3" s="13"/>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="F4" s="13"/>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>10</v>
@@ -9070,340 +9076,340 @@
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="F6" s="13"/>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="F7" s="13"/>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="F8" s="13"/>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="F9" s="13"/>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="F10" s="13"/>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="F11" s="13"/>
     </row>
     <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="D12" s="13" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>1430</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>1428</v>
       </c>
       <c r="F12" s="13"/>
     </row>
     <row r="13" customHeight="1" spans="1:6">
       <c r="A13" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="F13" s="13"/>
     </row>
     <row r="14" customHeight="1" spans="1:6">
       <c r="A14" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="F14" s="13"/>
     </row>
     <row r="15" customHeight="1" spans="1:6">
       <c r="A15" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="F15" s="13"/>
     </row>
     <row r="16" customHeight="1" spans="1:6">
       <c r="A16" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="F16" s="13"/>
     </row>
     <row r="17" customHeight="1" spans="1:6">
       <c r="A17" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="F17" s="13"/>
     </row>
     <row r="18" customHeight="1" spans="1:6">
       <c r="A18" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="F18" s="13"/>
     </row>
     <row r="19" customHeight="1" spans="1:6">
       <c r="A19" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="F19" s="13"/>
     </row>
     <row r="20" customHeight="1" spans="1:6">
       <c r="A20" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="F20" s="13"/>
     </row>
     <row r="21" customHeight="1" spans="1:6">
       <c r="A21" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="F21" s="13"/>
     </row>
     <row r="22" customHeight="1" spans="1:6">
       <c r="A22" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="F22" s="13"/>
     </row>
     <row r="23" customHeight="1" spans="1:6">
       <c r="A23" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="F23" s="13"/>
     </row>
     <row r="24" customHeight="1" spans="1:6">
       <c r="A24" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>10</v>
@@ -9412,444 +9418,444 @@
     </row>
     <row r="25" customHeight="1" spans="1:6">
       <c r="A25" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="F25" s="13"/>
     </row>
     <row r="26" customHeight="1" spans="1:6">
       <c r="A26" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="F26" s="13"/>
     </row>
     <row r="27" customHeight="1" spans="1:6">
       <c r="A27" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="F27" s="13"/>
     </row>
     <row r="28" customHeight="1" spans="1:6">
       <c r="A28" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="F28" s="13"/>
     </row>
     <row r="29" customHeight="1" spans="1:6">
       <c r="A29" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="F29" s="13"/>
     </row>
     <row r="30" customHeight="1" spans="1:6">
       <c r="A30" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="F30" s="13"/>
     </row>
     <row r="31" customHeight="1" spans="1:6">
       <c r="A31" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="F31" s="13"/>
     </row>
     <row r="32" customHeight="1" spans="1:6">
       <c r="A32" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
     </row>
     <row r="33" customHeight="1" spans="1:6">
       <c r="A33" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
     </row>
     <row r="34" customHeight="1" spans="1:6">
       <c r="A34" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="F34" s="13"/>
     </row>
     <row r="35" customHeight="1" spans="1:6">
       <c r="A35" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="F35" s="13"/>
     </row>
     <row r="36" customHeight="1" spans="1:6">
       <c r="A36" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="F36" s="13"/>
     </row>
     <row r="37" customHeight="1" spans="1:6">
       <c r="A37" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="F37" s="13"/>
     </row>
     <row r="38" customHeight="1" spans="1:6">
       <c r="A38" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="F38" s="13"/>
     </row>
     <row r="39" customHeight="1" spans="1:6">
       <c r="A39" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="F39" s="13"/>
     </row>
     <row r="40" customHeight="1" spans="1:6">
       <c r="A40" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="F40" s="13"/>
     </row>
     <row r="41" customHeight="1" spans="1:6">
       <c r="A41" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="F41" s="13"/>
     </row>
     <row r="42" customHeight="1" spans="1:6">
       <c r="A42" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="F42" s="13"/>
     </row>
     <row r="43" customHeight="1" spans="1:6">
       <c r="A43" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="F43" s="13"/>
     </row>
     <row r="44" customHeight="1" spans="1:6">
       <c r="A44" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="F44" s="13"/>
     </row>
     <row r="45" customHeight="1" spans="1:6">
       <c r="A45" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="D45" s="13" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E45" s="13" t="s">
         <v>1497</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>1495</v>
       </c>
       <c r="F45" s="13"/>
     </row>
     <row r="46" customHeight="1" spans="1:6">
       <c r="A46" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="F46" s="13"/>
     </row>
     <row r="47" customHeight="1" spans="1:6">
       <c r="A47" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="F47" s="13"/>
     </row>
     <row r="48" customHeight="1" spans="1:6">
       <c r="A48" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="F48" s="13"/>
     </row>
     <row r="49" customHeight="1" spans="1:6">
       <c r="A49" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="E49" s="13" t="s">
         <v>10</v>
@@ -9858,106 +9864,106 @@
     </row>
     <row r="50" customHeight="1" spans="1:6">
       <c r="A50" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="F50" s="13"/>
     </row>
     <row r="51" customHeight="1" spans="1:6">
       <c r="A51" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="F51" s="13"/>
     </row>
     <row r="52" customHeight="1" spans="1:6">
       <c r="A52" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="F52" s="13"/>
     </row>
     <row r="53" customHeight="1" spans="1:6">
       <c r="A53" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="F53" s="13"/>
     </row>
     <row r="54" customHeight="1" spans="1:6">
       <c r="A54" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="F54" s="13"/>
     </row>
     <row r="55" customHeight="1" spans="1:6">
       <c r="A55" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>450</v>
@@ -9966,82 +9972,82 @@
     </row>
     <row r="56" customHeight="1" spans="1:6">
       <c r="A56" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="F56" s="13"/>
     </row>
     <row r="57" customHeight="1" spans="1:6">
       <c r="A57" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="F57" s="13"/>
     </row>
     <row r="58" customHeight="1" spans="1:6">
       <c r="A58" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="F58" s="13"/>
     </row>
     <row r="59" customHeight="1" spans="1:6">
       <c r="A59" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="F59" s="13"/>
     </row>
     <row r="60" customHeight="1" spans="1:6">
       <c r="A60" s="12" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
@@ -10050,10 +10056,10 @@
     </row>
     <row r="61" customHeight="1" spans="1:6">
       <c r="A61" s="21" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
@@ -10062,10 +10068,10 @@
     </row>
     <row r="62" customHeight="1" spans="1:6">
       <c r="A62" s="21" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
@@ -10122,19 +10128,19 @@
     </row>
     <row r="2" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A2" s="17" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="18"/>
@@ -10162,19 +10168,19 @@
     </row>
     <row r="3" s="15" customFormat="1" ht="34.5" spans="1:28">
       <c r="A3" s="17" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="18"/>
@@ -10202,19 +10208,19 @@
     </row>
     <row r="4" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A4" s="17" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="18"/>
@@ -10242,19 +10248,19 @@
     </row>
     <row r="5" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A5" s="17" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="18"/>
@@ -10282,19 +10288,19 @@
     </row>
     <row r="6" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A6" s="17" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="18"/>
@@ -10322,19 +10328,19 @@
     </row>
     <row r="7" s="15" customFormat="1" ht="34.5" spans="1:28">
       <c r="A7" s="17" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="18"/>
@@ -10362,19 +10368,19 @@
     </row>
     <row r="8" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A8" s="17" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="18"/>
@@ -10402,19 +10408,19 @@
     </row>
     <row r="9" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A9" s="17" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="18"/>
@@ -10442,19 +10448,19 @@
     </row>
     <row r="10" s="15" customFormat="1" ht="34.5" spans="1:28">
       <c r="A10" s="19" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="18"/>
@@ -10482,19 +10488,19 @@
     </row>
     <row r="11" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A11" s="17" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="18"/>
@@ -10522,19 +10528,19 @@
     </row>
     <row r="12" s="15" customFormat="1" ht="34.5" spans="1:28">
       <c r="A12" s="17" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="18"/>
@@ -10562,19 +10568,19 @@
     </row>
     <row r="13" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A13" s="17" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="18"/>
@@ -10602,19 +10608,19 @@
     </row>
     <row r="14" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A14" s="17" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="D14" s="13" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>1557</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>1555</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="18"/>
@@ -10642,19 +10648,19 @@
     </row>
     <row r="15" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A15" s="17" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="18"/>
@@ -10682,19 +10688,19 @@
     </row>
     <row r="16" s="15" customFormat="1" ht="34.5" spans="1:28">
       <c r="A16" s="17" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="18"/>
@@ -10722,19 +10728,19 @@
     </row>
     <row r="17" s="15" customFormat="1" ht="34.5" spans="1:28">
       <c r="A17" s="17" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="18"/>
@@ -10762,19 +10768,19 @@
     </row>
     <row r="18" s="15" customFormat="1" ht="34.5" spans="1:28">
       <c r="A18" s="17" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="18"/>
@@ -10802,19 +10808,19 @@
     </row>
     <row r="19" s="15" customFormat="1" ht="34.5" spans="1:28">
       <c r="A19" s="17" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="18"/>
@@ -10842,19 +10848,19 @@
     </row>
     <row r="20" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A20" s="17" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="18"/>
@@ -10882,19 +10888,19 @@
     </row>
     <row r="21" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A21" s="17" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="18"/>
@@ -10922,19 +10928,19 @@
     </row>
     <row r="22" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A22" s="17" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="18"/>
@@ -10962,19 +10968,19 @@
     </row>
     <row r="23" s="15" customFormat="1" ht="34.5" spans="1:28">
       <c r="A23" s="17" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="18"/>
@@ -11002,19 +11008,19 @@
     </row>
     <row r="24" s="15" customFormat="1" ht="34.5" spans="1:28">
       <c r="A24" s="17" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="18"/>
@@ -11042,19 +11048,19 @@
     </row>
     <row r="25" s="15" customFormat="1" ht="34.5" spans="1:28">
       <c r="A25" s="17" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="18"/>
@@ -11082,19 +11088,19 @@
     </row>
     <row r="26" s="15" customFormat="1" ht="34.5" spans="1:28">
       <c r="A26" s="17" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="18"/>
@@ -11122,19 +11128,19 @@
     </row>
     <row r="27" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A27" s="17" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="18"/>
@@ -11162,7 +11168,7 @@
     </row>
     <row r="28" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A28" s="17" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>185</v>
@@ -11171,10 +11177,10 @@
         <v>185</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="18"/>
@@ -11202,7 +11208,7 @@
     </row>
     <row r="29" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A29" s="17" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>185</v>
@@ -11211,10 +11217,10 @@
         <v>185</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="18"/>
@@ -11317,13 +11323,13 @@
         <v>767</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="F2" s="13"/>
     </row>
@@ -11335,13 +11341,13 @@
         <v>767</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="F3" s="13"/>
     </row>
@@ -11353,13 +11359,13 @@
         <v>767</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="F4" s="13"/>
     </row>
@@ -11371,13 +11377,13 @@
         <v>767</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="F5" s="13"/>
     </row>
@@ -11389,13 +11395,13 @@
         <v>767</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="F6" s="13"/>
     </row>
@@ -11407,13 +11413,13 @@
         <v>767</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="F7" s="13"/>
     </row>
@@ -11425,13 +11431,13 @@
         <v>767</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="F8" s="13"/>
     </row>
@@ -11443,13 +11449,13 @@
         <v>767</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="F9" s="13"/>
     </row>
@@ -11461,13 +11467,13 @@
         <v>767</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="F10" s="13"/>
     </row>
@@ -11479,13 +11485,13 @@
         <v>767</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="F11" s="13"/>
     </row>
@@ -11497,13 +11503,13 @@
         <v>767</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="F12" s="13"/>
     </row>
@@ -11515,13 +11521,13 @@
         <v>767</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="F13" s="13"/>
     </row>
@@ -11533,13 +11539,13 @@
         <v>767</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="F14" s="13"/>
     </row>
@@ -11551,13 +11557,13 @@
         <v>767</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="F15" s="13"/>
     </row>
@@ -11569,13 +11575,13 @@
         <v>767</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="F16" s="13"/>
     </row>
@@ -11587,13 +11593,13 @@
         <v>767</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="F17" s="13"/>
     </row>
@@ -11605,13 +11611,13 @@
         <v>767</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="F18" s="13"/>
     </row>
@@ -11623,13 +11629,13 @@
         <v>767</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="F19" s="13"/>
     </row>
@@ -11641,13 +11647,13 @@
         <v>767</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="F20" s="13"/>
     </row>
@@ -11659,13 +11665,13 @@
         <v>767</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="F21" s="13"/>
     </row>
@@ -11677,10 +11683,10 @@
         <v>767</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
@@ -11693,13 +11699,13 @@
         <v>767</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="F23" s="13"/>
     </row>
@@ -11711,13 +11717,13 @@
         <v>767</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="F24" s="13"/>
     </row>
@@ -11729,13 +11735,13 @@
         <v>767</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="F25" s="13"/>
     </row>
@@ -11747,13 +11753,13 @@
         <v>767</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="F26" s="13"/>
     </row>
@@ -11765,13 +11771,13 @@
         <v>767</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="F27" s="13"/>
     </row>
@@ -11780,16 +11786,16 @@
         <v>689</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="F28" s="13"/>
     </row>
@@ -11798,16 +11804,16 @@
         <v>689</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="F29" s="13"/>
     </row>
@@ -11816,16 +11822,16 @@
         <v>689</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="F30" s="13"/>
     </row>
@@ -11834,16 +11840,16 @@
         <v>689</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="F31" s="13"/>
     </row>
@@ -11852,16 +11858,16 @@
         <v>689</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="F32" s="13"/>
     </row>
@@ -11870,16 +11876,16 @@
         <v>689</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="F33" s="13"/>
     </row>
@@ -11888,16 +11894,16 @@
         <v>689</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="F34" s="13"/>
     </row>
@@ -11906,16 +11912,16 @@
         <v>689</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="F35" s="13"/>
     </row>
@@ -11924,16 +11930,16 @@
         <v>689</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="F36" s="13"/>
     </row>
@@ -11942,16 +11948,16 @@
         <v>689</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="F37" s="13"/>
     </row>
@@ -11960,16 +11966,16 @@
         <v>689</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="F38" s="13"/>
     </row>
@@ -11978,16 +11984,16 @@
         <v>689</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="F39" s="13"/>
     </row>
@@ -11996,16 +12002,16 @@
         <v>689</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="F40" s="13"/>
     </row>
@@ -12014,16 +12020,16 @@
         <v>689</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="F41" s="13"/>
     </row>
@@ -12032,16 +12038,16 @@
         <v>689</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="F42" s="13"/>
     </row>
@@ -12050,16 +12056,16 @@
         <v>689</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="F43" s="13"/>
     </row>
@@ -12068,16 +12074,16 @@
         <v>689</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="F44" s="13"/>
     </row>
@@ -12086,16 +12092,16 @@
         <v>689</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="F45" s="13"/>
     </row>
@@ -12104,16 +12110,16 @@
         <v>689</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="F46" s="13"/>
     </row>
@@ -12122,16 +12128,16 @@
         <v>689</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="F47" s="13"/>
     </row>
@@ -12140,16 +12146,16 @@
         <v>689</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="F48" s="13"/>
     </row>
@@ -12158,16 +12164,16 @@
         <v>689</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="F49" s="13"/>
     </row>
@@ -12176,16 +12182,16 @@
         <v>689</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="F50" s="13"/>
     </row>
@@ -12194,16 +12200,16 @@
         <v>689</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="F51" s="13"/>
     </row>
@@ -12212,16 +12218,16 @@
         <v>689</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="F52" s="13"/>
     </row>
@@ -12230,16 +12236,16 @@
         <v>689</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="F53" s="13"/>
     </row>
@@ -12248,16 +12254,16 @@
         <v>689</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="F54" s="13"/>
     </row>
@@ -12266,16 +12272,16 @@
         <v>689</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="F55" s="13"/>
     </row>
@@ -12284,16 +12290,16 @@
         <v>689</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="F56" s="13"/>
     </row>
@@ -12302,16 +12308,16 @@
         <v>689</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="F57" s="13"/>
     </row>
@@ -12320,16 +12326,16 @@
         <v>689</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C58" s="13" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D58" s="13" t="s">
         <v>1649</v>
       </c>
-      <c r="D58" s="13" t="s">
-        <v>1647</v>
-      </c>
       <c r="E58" s="13" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="F58" s="13"/>
     </row>
@@ -12338,16 +12344,16 @@
         <v>689</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="F59" s="13"/>
     </row>
@@ -12356,16 +12362,16 @@
         <v>689</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="F60" s="13"/>
     </row>
@@ -12374,16 +12380,16 @@
         <v>689</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="F61" s="13"/>
     </row>
@@ -12436,13 +12442,13 @@
     </row>
     <row r="2" ht="16.5" spans="1:11">
       <c r="A2" s="4" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -12455,13 +12461,13 @@
     </row>
     <row r="3" ht="16.5" spans="1:11">
       <c r="A3" s="4" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -12474,13 +12480,13 @@
     </row>
     <row r="4" ht="16.5" spans="1:11">
       <c r="A4" s="4" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -12493,13 +12499,13 @@
     </row>
     <row r="5" ht="16.5" spans="1:11">
       <c r="A5" s="4" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -12512,13 +12518,13 @@
     </row>
     <row r="6" ht="16.5" spans="1:11">
       <c r="A6" s="4" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -12531,13 +12537,13 @@
     </row>
     <row r="7" ht="16.5" spans="1:11">
       <c r="A7" s="4" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -12550,13 +12556,13 @@
     </row>
     <row r="8" ht="16.5" spans="1:11">
       <c r="A8" s="4" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -12569,16 +12575,16 @@
     </row>
     <row r="9" ht="16.5" spans="1:11">
       <c r="A9" s="4" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -12590,16 +12596,16 @@
     </row>
     <row r="10" ht="16.5" spans="1:11">
       <c r="A10" s="4" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -12611,19 +12617,19 @@
     </row>
     <row r="11" ht="16.5" spans="1:11">
       <c r="A11" s="4" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="8"/>
@@ -12634,19 +12640,19 @@
     </row>
     <row r="12" ht="16.5" spans="1:11">
       <c r="A12" s="4" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="8"/>
@@ -12945,7 +12951,7 @@
   <sheetData>
     <row r="1" ht="18" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -12955,16 +12961,16 @@
     <row r="2" ht="16.5" spans="1:5">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:5">
@@ -13037,7 +13043,7 @@
     </row>
     <row r="7" ht="16.5" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="B7" s="4">
         <v>61</v>
@@ -13048,7 +13054,7 @@
     </row>
     <row r="8" ht="16.5" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="B8" s="4">
         <v>99</v>
@@ -13070,7 +13076,7 @@
     </row>
     <row r="10" ht="16.5" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B10" s="4">
         <v>23</v>
@@ -13081,7 +13087,7 @@
     </row>
     <row r="11" ht="16.5" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="B11" s="4">
         <v>13</v>
@@ -13091,7 +13097,7 @@
     </row>
     <row r="12" ht="16.5" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="B12" s="4">
         <v>28</v>
@@ -13102,7 +13108,7 @@
     </row>
     <row r="13" ht="16.5" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="B13" s="4">
         <v>60</v>
@@ -13113,7 +13119,7 @@
     </row>
     <row r="14" ht="16.5" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="B14" s="4">
         <v>12</v>
@@ -13124,7 +13130,7 @@
     </row>
     <row r="15" ht="16.5" spans="1:5">
       <c r="A15" s="4" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="B15" s="4">
         <f>SUM(B3:B14)</f>
@@ -13136,7 +13142,7 @@
     </row>
     <row r="16" ht="16.5" spans="1:5">
       <c r="A16" s="4" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -27042,12 +27048,12 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB75"/>
+  <dimension ref="A1:AB74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -28185,7 +28191,9 @@
       <c r="E28" s="13" t="s">
         <v>1084</v>
       </c>
-      <c r="F28" s="13"/>
+      <c r="F28" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
@@ -28225,7 +28233,9 @@
       <c r="E29" s="13" t="s">
         <v>1086</v>
       </c>
-      <c r="F29" s="13"/>
+      <c r="F29" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
@@ -28265,7 +28275,9 @@
       <c r="E30" s="13" t="s">
         <v>1088</v>
       </c>
-      <c r="F30" s="13"/>
+      <c r="F30" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
@@ -28305,7 +28317,9 @@
       <c r="E31" s="13" t="s">
         <v>1090</v>
       </c>
-      <c r="F31" s="13"/>
+      <c r="F31" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
@@ -28345,7 +28359,9 @@
       <c r="E32" s="13" t="s">
         <v>1092</v>
       </c>
-      <c r="F32" s="13"/>
+      <c r="F32" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
@@ -28385,7 +28401,9 @@
       <c r="E33" s="13" t="s">
         <v>1094</v>
       </c>
-      <c r="F33" s="13"/>
+      <c r="F33" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
       <c r="I33" s="18"/>
@@ -28425,7 +28443,9 @@
       <c r="E34" s="13" t="s">
         <v>1094</v>
       </c>
-      <c r="F34" s="13"/>
+      <c r="F34" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
@@ -28465,7 +28485,9 @@
       <c r="E35" s="13" t="s">
         <v>1097</v>
       </c>
-      <c r="F35" s="13"/>
+      <c r="F35" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
@@ -28505,7 +28527,9 @@
       <c r="E36" s="13" t="s">
         <v>1099</v>
       </c>
-      <c r="F36" s="13"/>
+      <c r="F36" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
@@ -28545,7 +28569,9 @@
       <c r="E37" s="13" t="s">
         <v>1101</v>
       </c>
-      <c r="F37" s="13"/>
+      <c r="F37" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
       <c r="I37" s="18"/>
@@ -28585,7 +28611,9 @@
       <c r="E38" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="F38" s="13"/>
+      <c r="F38" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
       <c r="I38" s="18"/>
@@ -28625,7 +28653,9 @@
       <c r="E39" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F39" s="13"/>
+      <c r="F39" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
@@ -28665,7 +28695,9 @@
       <c r="E40" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="F40" s="13"/>
+      <c r="F40" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="G40" s="18"/>
       <c r="H40" s="18"/>
       <c r="I40" s="18"/>
@@ -28689,7 +28721,7 @@
       <c r="AA40" s="18"/>
       <c r="AB40" s="18"/>
     </row>
-    <row r="41" s="15" customFormat="1" ht="17.25" spans="1:28">
+    <row r="41" s="15" customFormat="1" ht="34.5" spans="1:28">
       <c r="A41" s="17" t="s">
         <v>1027</v>
       </c>
@@ -28705,7 +28737,9 @@
       <c r="E41" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="F41" s="13"/>
+      <c r="F41" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
       <c r="I41" s="18"/>
@@ -28745,7 +28779,9 @@
       <c r="E42" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="F42" s="19"/>
+      <c r="F42" s="19" t="s">
+        <v>11</v>
+      </c>
       <c r="G42" s="18"/>
       <c r="H42" s="18"/>
       <c r="I42" s="18"/>
@@ -28785,7 +28821,9 @@
       <c r="E43" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F43" s="13"/>
+      <c r="F43" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="G43" s="18"/>
       <c r="H43" s="18"/>
       <c r="I43" s="18"/>
@@ -28825,7 +28863,9 @@
       <c r="E44" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="F44" s="13"/>
+      <c r="F44" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
       <c r="I44" s="18"/>
@@ -28866,7 +28906,7 @@
         <v>149</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
@@ -28891,7 +28931,7 @@
       <c r="AA45" s="18"/>
       <c r="AB45" s="18"/>
     </row>
-    <row r="46" s="15" customFormat="1" ht="34.5" spans="1:28">
+    <row r="46" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A46" s="17" t="s">
         <v>1027</v>
       </c>
@@ -28902,13 +28942,13 @@
         <v>133</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="G46" s="18"/>
       <c r="H46" s="18"/>
@@ -28933,7 +28973,7 @@
       <c r="AA46" s="18"/>
       <c r="AB46" s="18"/>
     </row>
-    <row r="47" s="15" customFormat="1" ht="17.25" spans="1:28">
+    <row r="47" s="15" customFormat="1" ht="34.5" spans="1:28">
       <c r="A47" s="17" t="s">
         <v>1027</v>
       </c>
@@ -28944,13 +28984,13 @@
         <v>133</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
@@ -28986,13 +29026,13 @@
         <v>133</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
@@ -29028,13 +29068,13 @@
         <v>133</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="G49" s="18"/>
       <c r="H49" s="18"/>
@@ -29070,13 +29110,13 @@
         <v>133</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="G50" s="18"/>
       <c r="H50" s="18"/>
@@ -29101,7 +29141,7 @@
       <c r="AA50" s="18"/>
       <c r="AB50" s="18"/>
     </row>
-    <row r="51" s="15" customFormat="1" ht="17.25" spans="1:28">
+    <row r="51" s="15" customFormat="1" ht="34.5" spans="1:28">
       <c r="A51" s="17" t="s">
         <v>1027</v>
       </c>
@@ -29112,13 +29152,13 @@
         <v>133</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="G51" s="18"/>
       <c r="H51" s="18"/>
@@ -29154,13 +29194,13 @@
         <v>133</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>161</v>
+        <v>1102</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>162</v>
+        <v>1103</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="G52" s="18"/>
       <c r="H52" s="18"/>
@@ -29196,7 +29236,7 @@
         <v>133</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>152</v>
@@ -29236,7 +29276,7 @@
         <v>133</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>152</v>
@@ -29281,9 +29321,7 @@
       <c r="E55" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="F55" s="13" t="s">
-        <v>165</v>
-      </c>
+      <c r="F55" s="13"/>
       <c r="G55" s="18"/>
       <c r="H55" s="18"/>
       <c r="I55" s="18"/>
@@ -29323,9 +29361,7 @@
       <c r="E56" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="F56" s="13" t="s">
-        <v>165</v>
-      </c>
+      <c r="F56" s="13"/>
       <c r="G56" s="18"/>
       <c r="H56" s="18"/>
       <c r="I56" s="18"/>
@@ -29357,13 +29393,13 @@
         <v>1082</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="F57" s="13"/>
       <c r="G57" s="18"/>
@@ -29397,13 +29433,13 @@
         <v>1082</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="F58" s="13"/>
       <c r="G58" s="18"/>
@@ -29437,15 +29473,17 @@
         <v>1082</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>1110</v>
-      </c>
-      <c r="F59" s="13"/>
+        <v>1112</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="G59" s="18"/>
       <c r="H59" s="18"/>
       <c r="I59" s="18"/>
@@ -29477,13 +29515,13 @@
         <v>1082</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="F60" s="13"/>
       <c r="G60" s="18"/>
@@ -29525,7 +29563,9 @@
       <c r="E61" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="F61" s="13"/>
+      <c r="F61" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="G61" s="18"/>
       <c r="H61" s="18"/>
       <c r="I61" s="18"/>
@@ -29560,12 +29600,14 @@
         <v>185</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="F62" s="13"/>
+        <v>191</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="G62" s="18"/>
       <c r="H62" s="18"/>
       <c r="I62" s="18"/>
@@ -29600,12 +29642,14 @@
         <v>185</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="F63" s="13"/>
+        <v>193</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="G63" s="18"/>
       <c r="H63" s="18"/>
       <c r="I63" s="18"/>
@@ -29634,16 +29678,16 @@
         <v>1027</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F64" s="13"/>
       <c r="G64" s="18"/>
@@ -29680,10 +29724,10 @@
         <v>195</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F65" s="13"/>
       <c r="G65" s="18"/>
@@ -29720,10 +29764,10 @@
         <v>195</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F66" s="13"/>
       <c r="G66" s="18"/>
@@ -29757,13 +29801,13 @@
         <v>194</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F67" s="13"/>
       <c r="G67" s="18"/>
@@ -29789,21 +29833,21 @@
       <c r="AA67" s="18"/>
       <c r="AB67" s="18"/>
     </row>
-    <row r="68" s="15" customFormat="1" ht="17.25" spans="1:28">
+    <row r="68" s="15" customFormat="1" ht="34.5" spans="1:28">
       <c r="A68" s="17" t="s">
         <v>1027</v>
       </c>
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="13" t="s">
         <v>194</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>202</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F68" s="13"/>
       <c r="G68" s="18"/>
@@ -29829,7 +29873,7 @@
       <c r="AA68" s="18"/>
       <c r="AB68" s="18"/>
     </row>
-    <row r="69" s="15" customFormat="1" ht="34.5" spans="1:28">
+    <row r="69" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A69" s="17" t="s">
         <v>1027</v>
       </c>
@@ -29840,10 +29884,10 @@
         <v>202</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F69" s="13"/>
       <c r="G69" s="18"/>
@@ -29879,11 +29923,11 @@
       <c r="C70" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="D70" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>208</v>
+      <c r="D70" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>210</v>
       </c>
       <c r="F70" s="13"/>
       <c r="G70" s="18"/>
@@ -29919,11 +29963,11 @@
       <c r="C71" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="D71" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="E71" s="14" t="s">
-        <v>210</v>
+      <c r="D71" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="F71" s="13"/>
       <c r="G71" s="18"/>
@@ -29954,17 +29998,13 @@
         <v>1027</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>212</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
       <c r="F72" s="13"/>
       <c r="G72" s="18"/>
       <c r="H72" s="18"/>
@@ -29989,7 +30029,7 @@
       <c r="AA72" s="18"/>
       <c r="AB72" s="18"/>
     </row>
-    <row r="73" s="15" customFormat="1" ht="17.25" spans="1:28">
+    <row r="73" s="15" customFormat="1" ht="34.5" spans="1:28">
       <c r="A73" s="17" t="s">
         <v>1027</v>
       </c>
@@ -29997,10 +30037,14 @@
         <v>213</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
+        <v>215</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>217</v>
+      </c>
       <c r="F73" s="13"/>
       <c r="G73" s="18"/>
       <c r="H73" s="18"/>
@@ -30025,7 +30069,7 @@
       <c r="AA73" s="18"/>
       <c r="AB73" s="18"/>
     </row>
-    <row r="74" s="15" customFormat="1" ht="34.5" spans="1:28">
+    <row r="74" s="15" customFormat="1" ht="17.25" spans="1:28">
       <c r="A74" s="17" t="s">
         <v>1027</v>
       </c>
@@ -30036,10 +30080,10 @@
         <v>215</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F74" s="13"/>
       <c r="G74" s="18"/>
@@ -30065,48 +30109,8 @@
       <c r="AA74" s="18"/>
       <c r="AB74" s="18"/>
     </row>
-    <row r="75" s="15" customFormat="1" ht="17.25" spans="1:28">
-      <c r="A75" s="17" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="F75" s="13"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="18"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="18"/>
-      <c r="O75" s="18"/>
-      <c r="P75" s="18"/>
-      <c r="Q75" s="18"/>
-      <c r="R75" s="18"/>
-      <c r="S75" s="18"/>
-      <c r="T75" s="18"/>
-      <c r="U75" s="18"/>
-      <c r="V75" s="18"/>
-      <c r="W75" s="18"/>
-      <c r="X75" s="18"/>
-      <c r="Y75" s="18"/>
-      <c r="Z75" s="18"/>
-      <c r="AA75" s="18"/>
-      <c r="AB75" s="18"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F75">
+  <autoFilter ref="A1:F74">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -30157,16 +30161,16 @@
         <v>689</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="18"/>
@@ -30197,16 +30201,16 @@
         <v>689</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="18"/>
@@ -30237,16 +30241,16 @@
         <v>689</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="18"/>
@@ -30277,16 +30281,16 @@
         <v>689</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="18"/>
@@ -30317,16 +30321,16 @@
         <v>689</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="18"/>
@@ -30357,16 +30361,16 @@
         <v>689</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="18"/>
@@ -30397,16 +30401,16 @@
         <v>689</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="18"/>
@@ -30437,16 +30441,16 @@
         <v>689</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="18"/>
@@ -30477,16 +30481,16 @@
         <v>689</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="18"/>
@@ -30517,16 +30521,16 @@
         <v>689</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="18"/>
@@ -30557,16 +30561,16 @@
         <v>689</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="18"/>
@@ -30597,16 +30601,16 @@
         <v>689</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="18"/>
@@ -30637,16 +30641,16 @@
         <v>689</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="18"/>
@@ -30677,16 +30681,16 @@
         <v>689</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="18"/>
@@ -30717,16 +30721,16 @@
         <v>689</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="18"/>
@@ -30757,16 +30761,16 @@
         <v>689</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="18"/>
@@ -30797,16 +30801,16 @@
         <v>689</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="18"/>
@@ -30837,16 +30841,16 @@
         <v>689</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="18"/>
@@ -30877,16 +30881,16 @@
         <v>689</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="18"/>
@@ -30917,16 +30921,16 @@
         <v>689</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="18"/>
@@ -30957,16 +30961,16 @@
         <v>689</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="18"/>
@@ -30997,16 +31001,16 @@
         <v>689</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="18"/>
@@ -31037,16 +31041,16 @@
         <v>689</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="18"/>
@@ -31077,16 +31081,16 @@
         <v>689</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="18"/>
@@ -31117,16 +31121,16 @@
         <v>689</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="18"/>
@@ -31157,16 +31161,16 @@
         <v>689</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="18"/>
@@ -31197,16 +31201,16 @@
         <v>689</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="18"/>
@@ -31237,16 +31241,16 @@
         <v>689</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="18"/>
@@ -31277,16 +31281,16 @@
         <v>689</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="18"/>
@@ -31317,16 +31321,16 @@
         <v>689</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="18"/>
@@ -31357,16 +31361,16 @@
         <v>689</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="F32" s="19"/>
       <c r="G32" s="18"/>
@@ -31397,16 +31401,16 @@
         <v>689</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="18"/>
@@ -31437,13 +31441,13 @@
         <v>689</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>384</v>
@@ -31477,16 +31481,16 @@
         <v>689</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="18"/>
@@ -31517,16 +31521,16 @@
         <v>689</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="18"/>
@@ -31557,16 +31561,16 @@
         <v>689</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="18"/>
@@ -31597,16 +31601,16 @@
         <v>689</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="18"/>
@@ -31637,16 +31641,16 @@
         <v>689</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="18"/>
@@ -31677,16 +31681,16 @@
         <v>689</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="18"/>
@@ -31717,16 +31721,16 @@
         <v>689</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="18"/>
@@ -31757,16 +31761,16 @@
         <v>689</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="18"/>
@@ -31797,16 +31801,16 @@
         <v>689</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="18"/>
@@ -31837,16 +31841,16 @@
         <v>689</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="18"/>
@@ -31877,16 +31881,16 @@
         <v>689</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="18"/>
@@ -31917,16 +31921,16 @@
         <v>689</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="18"/>
@@ -31957,16 +31961,16 @@
         <v>689</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="18"/>
@@ -31997,16 +32001,16 @@
         <v>689</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="D48" s="13" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E48" s="13" t="s">
         <v>1217</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>1215</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="18"/>
@@ -32037,16 +32041,16 @@
         <v>689</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="18"/>
@@ -32077,16 +32081,16 @@
         <v>689</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="18"/>
@@ -32117,16 +32121,16 @@
         <v>689</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="18"/>
@@ -32157,16 +32161,16 @@
         <v>689</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="18"/>
@@ -32197,16 +32201,16 @@
         <v>689</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="F53" s="13"/>
       <c r="G53" s="18"/>
@@ -32237,16 +32241,16 @@
         <v>689</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="18"/>
@@ -32277,16 +32281,16 @@
         <v>689</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="F55" s="13"/>
       <c r="G55" s="18"/>
@@ -32317,16 +32321,16 @@
         <v>689</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="F56" s="13"/>
       <c r="G56" s="18"/>
@@ -32357,16 +32361,16 @@
         <v>689</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="F57" s="13"/>
       <c r="G57" s="18"/>
@@ -32397,16 +32401,16 @@
         <v>689</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="F58" s="13"/>
       <c r="G58" s="18"/>
@@ -32437,16 +32441,16 @@
         <v>689</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="F59" s="13"/>
       <c r="G59" s="18"/>
@@ -32477,16 +32481,16 @@
         <v>689</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="F60" s="13"/>
       <c r="G60" s="18"/>
@@ -32517,16 +32521,16 @@
         <v>689</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="F61" s="13"/>
       <c r="G61" s="18"/>
@@ -32557,16 +32561,16 @@
         <v>689</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="F62" s="13"/>
       <c r="G62" s="18"/>
@@ -32597,16 +32601,16 @@
         <v>689</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="F63" s="13"/>
       <c r="G63" s="18"/>
@@ -32637,16 +32641,16 @@
         <v>689</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="F64" s="13"/>
       <c r="G64" s="18"/>
@@ -32677,16 +32681,16 @@
         <v>689</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="F65" s="13"/>
       <c r="G65" s="18"/>
@@ -32717,16 +32721,16 @@
         <v>689</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="F66" s="13"/>
       <c r="G66" s="18"/>
@@ -32757,16 +32761,16 @@
         <v>689</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="F67" s="13"/>
       <c r="G67" s="18"/>
@@ -32797,16 +32801,16 @@
         <v>689</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="F68" s="13"/>
       <c r="G68" s="18"/>
@@ -32837,16 +32841,16 @@
         <v>689</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="F69" s="13"/>
       <c r="G69" s="18"/>
@@ -32877,16 +32881,16 @@
         <v>689</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="F70" s="13"/>
       <c r="G70" s="18"/>
@@ -32917,16 +32921,16 @@
         <v>689</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="F71" s="13"/>
       <c r="G71" s="18"/>
@@ -32957,16 +32961,16 @@
         <v>689</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="F72" s="13"/>
       <c r="G72" s="18"/>
@@ -32997,16 +33001,16 @@
         <v>689</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="F73" s="13"/>
       <c r="G73" s="18"/>
@@ -33037,16 +33041,16 @@
         <v>689</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="F74" s="13"/>
       <c r="G74" s="18"/>
@@ -33077,13 +33081,13 @@
         <v>689</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>1020</v>
@@ -33117,16 +33121,16 @@
         <v>689</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="F76" s="13"/>
       <c r="G76" s="18"/>
@@ -33157,16 +33161,16 @@
         <v>689</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="F77" s="13"/>
       <c r="G77" s="18"/>
@@ -33197,16 +33201,16 @@
         <v>689</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="F78" s="13"/>
       <c r="G78" s="18"/>
@@ -33237,16 +33241,16 @@
         <v>689</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="F79" s="13"/>
       <c r="G79" s="18"/>
@@ -33277,16 +33281,16 @@
         <v>689</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="F80" s="13"/>
       <c r="G80" s="18"/>
@@ -33317,16 +33321,16 @@
         <v>689</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="F81" s="13"/>
       <c r="G81" s="18"/>
@@ -33357,16 +33361,16 @@
         <v>689</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="F82" s="13"/>
       <c r="G82" s="18"/>
@@ -33397,16 +33401,16 @@
         <v>689</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="F83" s="13"/>
       <c r="G83" s="18"/>
@@ -33437,16 +33441,16 @@
         <v>689</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="F84" s="13"/>
       <c r="G84" s="18"/>
@@ -33477,16 +33481,16 @@
         <v>689</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F85" s="13"/>
       <c r="G85" s="18"/>
@@ -33517,16 +33521,16 @@
         <v>689</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="F86" s="13"/>
       <c r="G86" s="18"/>
@@ -33557,16 +33561,16 @@
         <v>689</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="F87" s="13"/>
       <c r="G87" s="18"/>
@@ -33597,16 +33601,16 @@
         <v>689</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="F88" s="13"/>
       <c r="G88" s="18"/>
@@ -33637,16 +33641,16 @@
         <v>689</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="F89" s="13"/>
       <c r="G89" s="18"/>
@@ -33677,16 +33681,16 @@
         <v>689</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="F90" s="13"/>
       <c r="G90" s="18"/>
@@ -33717,16 +33721,16 @@
         <v>689</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="F91" s="13"/>
       <c r="G91" s="18"/>
@@ -33757,16 +33761,16 @@
         <v>689</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="F92" s="13"/>
       <c r="G92" s="18"/>
@@ -33797,16 +33801,16 @@
         <v>689</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="F93" s="19"/>
       <c r="G93" s="18"/>
@@ -33837,13 +33841,13 @@
         <v>689</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="E94" s="13"/>
       <c r="F94" s="13"/>
@@ -33875,13 +33879,13 @@
         <v>689</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="E95" s="13"/>
       <c r="F95" s="13"/>
@@ -33913,13 +33917,13 @@
         <v>689</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="E96" s="13"/>
       <c r="F96" s="13"/>
@@ -33951,13 +33955,13 @@
         <v>689</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="E97" s="13"/>
       <c r="F97" s="13"/>
@@ -33989,13 +33993,13 @@
         <v>689</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="E98" s="13"/>
       <c r="F98" s="13"/>
@@ -34027,13 +34031,13 @@
         <v>689</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="E99" s="13"/>
       <c r="F99" s="13"/>
@@ -34065,13 +34069,13 @@
         <v>689</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="E100" s="13"/>
       <c r="F100" s="13"/>
@@ -34103,16 +34107,16 @@
         <v>689</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="F101" s="13"/>
       <c r="G101" s="18"/>
@@ -34143,16 +34147,16 @@
         <v>689</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="F102" s="13"/>
       <c r="G102" s="18"/>
@@ -34183,16 +34187,16 @@
         <v>689</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="E103" s="13" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="F103" s="13"/>
       <c r="G103" s="18"/>
@@ -34223,16 +34227,16 @@
         <v>689</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="F104" s="13"/>
       <c r="G104" s="18"/>

--- a/data/即时通讯测试用例V2.0.xlsx
+++ b/data/即时通讯测试用例V2.0.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4315" uniqueCount="1728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4317" uniqueCount="1728">
   <si>
     <t>系统模块</t>
   </si>
@@ -10049,9 +10049,9 @@
   <dimension ref="A1:AB15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10391,7 +10391,9 @@
         <v>1481</v>
       </c>
       <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="F9" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
@@ -10429,7 +10431,9 @@
         <v>1482</v>
       </c>
       <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="F10" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>

--- a/data/即时通讯测试用例V2.0.xlsx
+++ b/data/即时通讯测试用例V2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28785" windowHeight="13140" tabRatio="612" activeTab="11"/>
+    <workbookView windowWidth="28785" windowHeight="13140" tabRatio="612" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="登录注册" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">消息列表!$A$1:$F$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">单聊!$A$1:$F$130</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">加号功能区!$A$1:$F$72</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">群聊!$A$1:$F$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">群聊!$A$1:$F$96</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">通讯录!$A$1:$F$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">发现!$A$1:$F$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">收入支出!$A$1:$F$14</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4317" uniqueCount="1728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4332" uniqueCount="1731">
   <si>
     <t>系统模块</t>
   </si>
@@ -3848,12 +3848,21 @@
     <t>红包金额已退回，交易记录中存在红包退回的记录，且金额为发出的金额</t>
   </si>
   <si>
+    <t>交易账单</t>
+  </si>
+  <si>
     <t>已过期部分领取的红包，校验是否已将金额退回账号，且交易记录中是否存在一条红包退回的记录，红包金额为未领取的金额</t>
   </si>
   <si>
     <t>红包金额已退回，交易记录中存在红包退回的记录，且金额为未领取的金额</t>
   </si>
   <si>
+    <t>已领取红包的成员，等待红包过期，点击红包查看领取状态</t>
+  </si>
+  <si>
+    <t>已领取的页面，可以看到领取金额</t>
+  </si>
+  <si>
     <t>发送平均红包，输入单个红包金额、红包个数，确认后输入支付密码，校验是否发送成功</t>
   </si>
   <si>
@@ -3878,6 +3887,9 @@
     <t>显示领取红包金额、其他红包领取金额、领取人、领取时间，用户余额中增加相应的领取红包金额</t>
   </si>
   <si>
+    <t>过期后查看不了</t>
+  </si>
+  <si>
     <t>群收款--人均模式</t>
   </si>
   <si>
@@ -4611,9 +4623,6 @@
   </si>
   <si>
     <t>页面跳转成功，跳转到认证页面</t>
-  </si>
-  <si>
-    <t>交易账单</t>
   </si>
   <si>
     <t>点击交易账单，校验是否跳转到账单页面</t>
@@ -5257,10 +5266,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -5321,14 +5330,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5341,9 +5357,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5357,66 +5434,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -5425,17 +5442,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5449,8 +5457,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5458,7 +5467,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5503,13 +5512,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5521,19 +5536,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5545,13 +5578,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5563,91 +5602,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5665,7 +5632,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5677,7 +5656,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5791,6 +5800,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -5809,8 +5827,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5826,35 +5844,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5888,6 +5877,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5896,10 +5905,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5908,16 +5917,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5926,115 +5935,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7353,19 +7362,19 @@
     </row>
     <row r="2" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A2" s="18" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>1319</v>
+        <v>1323</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>1320</v>
+        <v>1324</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>1321</v>
+        <v>1325</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>11</v>
@@ -7395,19 +7404,19 @@
     </row>
     <row r="3" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A3" s="18" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>1319</v>
+        <v>1323</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1322</v>
+        <v>1326</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>1323</v>
+        <v>1327</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>11</v>
@@ -7437,19 +7446,19 @@
     </row>
     <row r="4" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A4" s="18" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>1319</v>
+        <v>1323</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1324</v>
+        <v>1328</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>1325</v>
+        <v>1329</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>11</v>
@@ -7479,19 +7488,19 @@
     </row>
     <row r="5" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A5" s="18" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>1319</v>
+        <v>1323</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>1326</v>
+        <v>1330</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>1327</v>
+        <v>1331</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>11</v>
@@ -7521,19 +7530,19 @@
     </row>
     <row r="6" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A6" s="18" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>1319</v>
+        <v>1323</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>1328</v>
+        <v>1332</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>1329</v>
+        <v>1333</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>11</v>
@@ -7563,16 +7572,16 @@
     </row>
     <row r="7" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A7" s="18" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>1319</v>
+        <v>1323</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>1330</v>
+        <v>1334</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13" t="s">
@@ -7603,16 +7612,16 @@
     </row>
     <row r="8" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A8" s="18" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>1319</v>
+        <v>1323</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>1331</v>
+        <v>1335</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="21" t="s">
@@ -7643,16 +7652,16 @@
     </row>
     <row r="9" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A9" s="18" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>1319</v>
+        <v>1323</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>1332</v>
+        <v>1336</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="21" t="s">
@@ -7683,19 +7692,19 @@
     </row>
     <row r="10" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A10" s="18" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>1333</v>
+        <v>1337</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>1334</v>
+        <v>1338</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>1335</v>
+        <v>1339</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>11</v>
@@ -7725,19 +7734,19 @@
     </row>
     <row r="11" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A11" s="18" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>1333</v>
+        <v>1337</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>1336</v>
+        <v>1340</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>1337</v>
+        <v>1341</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>11</v>
@@ -7767,16 +7776,16 @@
     </row>
     <row r="12" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A12" s="18" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>1333</v>
+        <v>1337</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13" t="s">
@@ -7807,19 +7816,19 @@
     </row>
     <row r="13" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A13" s="18" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>1333</v>
+        <v>1337</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>1339</v>
+        <v>1343</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>1340</v>
+        <v>1344</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>16</v>
@@ -7849,19 +7858,19 @@
     </row>
     <row r="14" s="16" customFormat="1" ht="34.5" spans="1:28">
       <c r="A14" s="18" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>1333</v>
+        <v>1337</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>1341</v>
+        <v>1345</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>1342</v>
+        <v>1346</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="19"/>
@@ -7889,19 +7898,19 @@
     </row>
     <row r="15" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A15" s="18" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>1333</v>
+        <v>1337</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>1343</v>
+        <v>1347</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>1344</v>
+        <v>1348</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>11</v>
@@ -7931,19 +7940,19 @@
     </row>
     <row r="16" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A16" s="18" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>1333</v>
+        <v>1337</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>1345</v>
+        <v>1349</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>16</v>
@@ -7973,25 +7982,25 @@
     </row>
     <row r="17" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A17" s="18" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>1347</v>
+        <v>1351</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>1348</v>
+        <v>1352</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>1349</v>
+        <v>1353</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>1350</v>
+        <v>1354</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -8017,19 +8026,19 @@
     </row>
     <row r="18" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A18" s="18" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>1347</v>
+        <v>1351</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>1351</v>
+        <v>1355</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>1352</v>
+        <v>1356</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>11</v>
@@ -8061,16 +8070,16 @@
     </row>
     <row r="19" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A19" s="18" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>1353</v>
+        <v>1357</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>1354</v>
+        <v>1358</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>450</v>
@@ -8103,19 +8112,19 @@
     </row>
     <row r="20" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A20" s="18" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>1353</v>
+        <v>1357</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>1355</v>
+        <v>1359</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>1356</v>
+        <v>1360</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>11</v>
@@ -8145,19 +8154,19 @@
     </row>
     <row r="21" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A21" s="18" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>1353</v>
+        <v>1357</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>1357</v>
+        <v>1361</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>1358</v>
+        <v>1362</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>11</v>
@@ -8187,19 +8196,19 @@
     </row>
     <row r="22" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A22" s="18" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>1353</v>
+        <v>1357</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>1359</v>
+        <v>1363</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>1360</v>
+        <v>1364</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>11</v>
@@ -8229,22 +8238,22 @@
     </row>
     <row r="23" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A23" s="18" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>1353</v>
+        <v>1357</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>1361</v>
+        <v>1365</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>1362</v>
+        <v>1366</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>1363</v>
+        <v>1367</v>
       </c>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
@@ -8271,19 +8280,19 @@
     </row>
     <row r="24" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A24" s="18" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>1353</v>
+        <v>1357</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>1364</v>
+        <v>1368</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>1365</v>
+        <v>1369</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>11</v>
@@ -8313,19 +8322,19 @@
     </row>
     <row r="25" ht="17.25" spans="1:6">
       <c r="A25" s="18" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1366</v>
+        <v>1370</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>1367</v>
+        <v>1371</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>1368</v>
+        <v>1372</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>11</v>
@@ -8333,19 +8342,19 @@
     </row>
     <row r="26" ht="17.25" spans="1:6">
       <c r="A26" s="18" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1366</v>
+        <v>1370</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>1369</v>
+        <v>1373</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>1370</v>
+        <v>1374</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>11</v>
@@ -8353,19 +8362,19 @@
     </row>
     <row r="27" ht="17.25" spans="1:6">
       <c r="A27" s="18" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1366</v>
+        <v>1370</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>1371</v>
+        <v>1375</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>1372</v>
+        <v>1376</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>16</v>
@@ -8373,19 +8382,19 @@
     </row>
     <row r="28" ht="17.25" spans="1:6">
       <c r="A28" s="18" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1366</v>
+        <v>1370</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>1373</v>
+        <v>1377</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>1374</v>
+        <v>1378</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>16</v>
@@ -8393,19 +8402,19 @@
     </row>
     <row r="29" ht="17.25" spans="1:6">
       <c r="A29" s="18" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1366</v>
+        <v>1370</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>1375</v>
+        <v>1379</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>1376</v>
+        <v>1380</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>11</v>
@@ -8413,19 +8422,19 @@
     </row>
     <row r="30" ht="17.25" spans="1:6">
       <c r="A30" s="18" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1366</v>
+        <v>1370</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1377</v>
+        <v>1381</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>1378</v>
+        <v>1382</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>11</v>
@@ -8433,19 +8442,19 @@
     </row>
     <row r="31" ht="17.25" spans="1:6">
       <c r="A31" s="18" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1366</v>
+        <v>1370</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1379</v>
+        <v>1383</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>1380</v>
+        <v>1384</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>16</v>
@@ -8453,19 +8462,19 @@
     </row>
     <row r="32" ht="17.25" spans="1:6">
       <c r="A32" s="18" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>1381</v>
+        <v>1385</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>1382</v>
+        <v>1386</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>1383</v>
+        <v>1387</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>16</v>
@@ -8473,19 +8482,19 @@
     </row>
     <row r="33" ht="17.25" spans="1:6">
       <c r="A33" s="18" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1381</v>
+        <v>1385</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>1384</v>
+        <v>1388</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>1385</v>
+        <v>1389</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>11</v>
@@ -8493,19 +8502,19 @@
     </row>
     <row r="34" ht="17.25" spans="1:6">
       <c r="A34" s="18" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>1381</v>
+        <v>1385</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>1386</v>
+        <v>1390</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>1387</v>
+        <v>1391</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>11</v>
@@ -8513,19 +8522,19 @@
     </row>
     <row r="35" ht="17.25" spans="1:6">
       <c r="A35" s="18" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1381</v>
+        <v>1385</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>1388</v>
+        <v>1392</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>1389</v>
+        <v>1393</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>11</v>
@@ -8533,19 +8542,19 @@
     </row>
     <row r="36" ht="17.25" spans="1:6">
       <c r="A36" s="18" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1381</v>
+        <v>1385</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>1391</v>
+        <v>1395</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>11</v>
@@ -8553,19 +8562,19 @@
     </row>
     <row r="37" ht="17.25" spans="1:6">
       <c r="A37" s="18" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1381</v>
+        <v>1385</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>1223</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>1392</v>
+        <v>1396</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>11</v>
@@ -8573,19 +8582,19 @@
     </row>
     <row r="38" ht="17.25" spans="1:6">
       <c r="A38" s="18" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>1381</v>
+        <v>1385</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>1393</v>
+        <v>1397</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>1394</v>
+        <v>1398</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>11</v>
@@ -8593,40 +8602,40 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>1395</v>
+        <v>1399</v>
       </c>
       <c r="C41" t="s">
-        <v>1396</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>1397</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>1398</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>1399</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>1400</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>1401</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>1402</v>
+        <v>1406</v>
       </c>
     </row>
   </sheetData>
@@ -8678,19 +8687,19 @@
     </row>
     <row r="2" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A2" s="18" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>1405</v>
+        <v>1409</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>1406</v>
+        <v>1410</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>1407</v>
+        <v>1411</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>11</v>
@@ -8720,19 +8729,19 @@
     </row>
     <row r="3" s="16" customFormat="1" ht="34.5" spans="1:28">
       <c r="A3" s="18" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>1405</v>
+        <v>1409</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1408</v>
+        <v>1412</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>1409</v>
+        <v>1413</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>11</v>
@@ -8762,19 +8771,19 @@
     </row>
     <row r="4" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A4" s="18" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>1410</v>
+        <v>1414</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1411</v>
+        <v>1415</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>1412</v>
+        <v>1416</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>11</v>
@@ -8804,19 +8813,19 @@
     </row>
     <row r="5" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A5" s="18" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>1410</v>
+        <v>1414</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>1413</v>
+        <v>1417</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>1414</v>
+        <v>1418</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>11</v>
@@ -8846,19 +8855,19 @@
     </row>
     <row r="6" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A6" s="18" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>1410</v>
+        <v>1414</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>1415</v>
+        <v>1419</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>1416</v>
+        <v>1420</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>11</v>
@@ -8888,25 +8897,25 @@
     </row>
     <row r="7" s="16" customFormat="1" ht="34.5" spans="1:28">
       <c r="A7" s="18" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>1417</v>
+        <v>1421</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>1418</v>
+        <v>1422</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>1419</v>
+        <v>1423</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>1420</v>
+        <v>1424</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
@@ -8932,19 +8941,19 @@
     </row>
     <row r="8" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A8" s="18" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>1417</v>
+        <v>1421</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>1421</v>
+        <v>1425</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>1422</v>
+        <v>1426</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>11</v>
@@ -8974,19 +8983,19 @@
     </row>
     <row r="9" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A9" s="18" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>1417</v>
+        <v>1421</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>1423</v>
+        <v>1427</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>1424</v>
+        <v>1428</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>11</v>
@@ -9016,19 +9025,19 @@
     </row>
     <row r="10" s="16" customFormat="1" ht="34.5" spans="1:28">
       <c r="A10" s="20" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>1417</v>
+        <v>1421</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>1425</v>
+        <v>1429</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>1426</v>
+        <v>1430</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>11</v>
@@ -9058,19 +9067,19 @@
     </row>
     <row r="11" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A11" s="18" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>1428</v>
+        <v>1432</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>1429</v>
+        <v>1433</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>11</v>
@@ -9100,19 +9109,19 @@
     </row>
     <row r="12" s="16" customFormat="1" ht="34.5" spans="1:28">
       <c r="A12" s="18" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>1430</v>
+        <v>1434</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>1431</v>
+        <v>1435</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>16</v>
@@ -9142,19 +9151,19 @@
     </row>
     <row r="13" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A13" s="18" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>1432</v>
+        <v>1436</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>1431</v>
+        <v>1435</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>16</v>
@@ -9184,19 +9193,19 @@
     </row>
     <row r="14" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A14" s="18" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>1431</v>
+        <v>1435</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>16</v>
@@ -9226,19 +9235,19 @@
     </row>
     <row r="15" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A15" s="18" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>1434</v>
+        <v>1438</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>1435</v>
+        <v>1439</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>16</v>
@@ -9268,19 +9277,19 @@
     </row>
     <row r="16" s="16" customFormat="1" ht="34.5" spans="1:28">
       <c r="A16" s="18" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>1436</v>
+        <v>1440</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>1437</v>
+        <v>1441</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>1438</v>
+        <v>1442</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>11</v>
@@ -9310,19 +9319,19 @@
     </row>
     <row r="17" s="16" customFormat="1" ht="34.5" spans="1:28">
       <c r="A17" s="18" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>1436</v>
+        <v>1440</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>1439</v>
+        <v>1443</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>1440</v>
+        <v>1444</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>11</v>
@@ -9352,19 +9361,19 @@
     </row>
     <row r="18" s="16" customFormat="1" ht="34.5" spans="1:28">
       <c r="A18" s="18" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>1436</v>
+        <v>1440</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>1441</v>
+        <v>1445</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>1442</v>
+        <v>1446</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>16</v>
@@ -9394,19 +9403,19 @@
     </row>
     <row r="19" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A19" s="18" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>1436</v>
+        <v>1440</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>1443</v>
+        <v>1447</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>1444</v>
+        <v>1448</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>11</v>
@@ -9436,19 +9445,19 @@
     </row>
     <row r="20" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A20" s="18" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>1436</v>
+        <v>1440</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>1445</v>
+        <v>1449</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>1446</v>
+        <v>1450</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>11</v>
@@ -9478,19 +9487,19 @@
     </row>
     <row r="21" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A21" s="18" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>1436</v>
+        <v>1440</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>1447</v>
+        <v>1451</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>1448</v>
+        <v>1452</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>11</v>
@@ -9520,19 +9529,19 @@
     </row>
     <row r="22" s="16" customFormat="1" ht="34.5" spans="1:28">
       <c r="A22" s="18" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>1436</v>
+        <v>1440</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>1449</v>
+        <v>1453</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>1450</v>
+        <v>1454</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>11</v>
@@ -9562,19 +9571,19 @@
     </row>
     <row r="23" s="16" customFormat="1" ht="34.5" spans="1:28">
       <c r="A23" s="18" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>1436</v>
+        <v>1440</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>1451</v>
+        <v>1455</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>1452</v>
+        <v>1456</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>16</v>
@@ -9604,19 +9613,19 @@
     </row>
     <row r="24" s="16" customFormat="1" ht="34.5" spans="1:28">
       <c r="A24" s="18" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>1436</v>
+        <v>1440</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>1453</v>
+        <v>1457</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>1454</v>
+        <v>1458</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>11</v>
@@ -9646,19 +9655,19 @@
     </row>
     <row r="25" s="16" customFormat="1" ht="34.5" spans="1:28">
       <c r="A25" s="18" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>1436</v>
+        <v>1440</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>1455</v>
+        <v>1459</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>1456</v>
+        <v>1460</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>16</v>
@@ -9688,19 +9697,19 @@
     </row>
     <row r="26" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A26" s="18" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>1436</v>
+        <v>1440</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>1457</v>
+        <v>1461</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>1458</v>
+        <v>1462</v>
       </c>
       <c r="F26" s="13" t="s">
         <v>11</v>
@@ -9730,16 +9739,16 @@
     </row>
     <row r="27" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A27" s="18" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>1436</v>
+        <v>1440</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>1459</v>
+        <v>1463</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
@@ -9768,16 +9777,16 @@
     </row>
     <row r="28" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A28" s="18" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>1436</v>
+        <v>1440</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>1460</v>
+        <v>1464</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
@@ -9806,16 +9815,16 @@
     </row>
     <row r="29" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A29" s="18" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>1436</v>
+        <v>1440</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>1461</v>
+        <v>1465</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
@@ -9844,13 +9853,13 @@
     </row>
     <row r="30" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A30" s="18" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>1436</v>
+        <v>1440</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
@@ -9880,13 +9889,13 @@
     </row>
     <row r="31" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A31" s="18" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>1436</v>
+        <v>1440</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
@@ -9916,13 +9925,13 @@
     </row>
     <row r="32" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A32" s="18" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>1436</v>
+        <v>1440</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
@@ -9952,7 +9961,7 @@
     </row>
     <row r="33" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A33" s="18" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>185</v>
@@ -9961,10 +9970,10 @@
         <v>185</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>1462</v>
+        <v>1466</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>1463</v>
+        <v>1467</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>11</v>
@@ -9994,7 +10003,7 @@
     </row>
     <row r="34" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A34" s="18" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>185</v>
@@ -10003,10 +10012,10 @@
         <v>185</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>1464</v>
+        <v>1468</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>1465</v>
+        <v>1469</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>11</v>
@@ -10048,7 +10057,7 @@
   <sheetPr/>
   <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
@@ -10085,19 +10094,19 @@
     </row>
     <row r="2" s="16" customFormat="1" ht="34.5" spans="1:28">
       <c r="A2" s="18" t="s">
-        <v>1466</v>
+        <v>1470</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>1467</v>
+        <v>1471</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>1468</v>
+        <v>1472</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>1469</v>
+        <v>1473</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>1470</v>
+        <v>1474</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>11</v>
@@ -10127,19 +10136,19 @@
     </row>
     <row r="3" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A3" s="18" t="s">
-        <v>1466</v>
+        <v>1470</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>1467</v>
+        <v>1471</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>1468</v>
+        <v>1472</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1471</v>
+        <v>1475</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>1472</v>
+        <v>1476</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>11</v>
@@ -10169,19 +10178,19 @@
     </row>
     <row r="4" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A4" s="18" t="s">
-        <v>1466</v>
+        <v>1470</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>1467</v>
+        <v>1471</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>1468</v>
+        <v>1472</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1473</v>
+        <v>1477</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>1472</v>
+        <v>1476</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>16</v>
@@ -10211,25 +10220,25 @@
     </row>
     <row r="5" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A5" s="18" t="s">
-        <v>1466</v>
+        <v>1470</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>1467</v>
+        <v>1471</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>1468</v>
+        <v>1472</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>1474</v>
+        <v>1478</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>1472</v>
+        <v>1476</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>1475</v>
+        <v>1479</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
@@ -10255,19 +10264,19 @@
     </row>
     <row r="6" s="16" customFormat="1" ht="34.5" spans="1:28">
       <c r="A6" s="18" t="s">
-        <v>1466</v>
+        <v>1470</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>1467</v>
+        <v>1471</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>1468</v>
+        <v>1472</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>1477</v>
+        <v>1481</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>16</v>
@@ -10297,19 +10306,19 @@
     </row>
     <row r="7" s="16" customFormat="1" ht="34.5" spans="1:28">
       <c r="A7" s="18" t="s">
-        <v>1466</v>
+        <v>1470</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>1467</v>
+        <v>1471</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>1468</v>
+        <v>1472</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>1478</v>
+        <v>1482</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>1479</v>
+        <v>1483</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>16</v>
@@ -10339,16 +10348,16 @@
     </row>
     <row r="8" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A8" s="18" t="s">
-        <v>1466</v>
+        <v>1470</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>1467</v>
+        <v>1471</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>1468</v>
+        <v>1472</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>1480</v>
+        <v>1484</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
@@ -10379,16 +10388,16 @@
     </row>
     <row r="9" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A9" s="18" t="s">
-        <v>1466</v>
+        <v>1470</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>1467</v>
+        <v>1471</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>1468</v>
+        <v>1472</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>1481</v>
+        <v>1485</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
@@ -10419,16 +10428,16 @@
     </row>
     <row r="10" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A10" s="18" t="s">
-        <v>1466</v>
+        <v>1470</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>1467</v>
+        <v>1471</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>1468</v>
+        <v>1472</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13" t="s">
@@ -10459,19 +10468,19 @@
     </row>
     <row r="11" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A11" s="18" t="s">
-        <v>1466</v>
+        <v>1470</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>1467</v>
+        <v>1471</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>1468</v>
+        <v>1472</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="19"/>
@@ -10499,55 +10508,55 @@
     </row>
     <row r="12" ht="16.5" spans="1:6">
       <c r="A12" s="4" t="s">
-        <v>1485</v>
+        <v>1489</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1485</v>
+        <v>1489</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1485</v>
+        <v>1489</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1486</v>
+        <v>1490</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>1487</v>
+        <v>1491</v>
       </c>
       <c r="F12" s="7"/>
     </row>
     <row r="13" ht="16.5" spans="1:6">
       <c r="A13" s="4" t="s">
-        <v>1485</v>
+        <v>1489</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1485</v>
+        <v>1489</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1485</v>
+        <v>1489</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1488</v>
+        <v>1492</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>1489</v>
+        <v>1493</v>
       </c>
       <c r="F13" s="7"/>
     </row>
     <row r="14" ht="16.5" spans="1:6">
       <c r="A14" s="4" t="s">
-        <v>1485</v>
+        <v>1489</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1485</v>
+        <v>1489</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1485</v>
+        <v>1489</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1490</v>
+        <v>1494</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>1489</v>
+        <v>1493</v>
       </c>
       <c r="F14" s="7"/>
     </row>
@@ -10611,19 +10620,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>1492</v>
+        <v>1496</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>1492</v>
+        <v>1496</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>1493</v>
+        <v>1497</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>1494</v>
+        <v>1498</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>11</v>
@@ -10631,19 +10640,19 @@
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>1492</v>
+        <v>1496</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>1492</v>
+        <v>1496</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1495</v>
+        <v>1499</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>1496</v>
+        <v>1500</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>11</v>
@@ -10651,34 +10660,34 @@
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1498</v>
+        <v>1502</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>1499</v>
+        <v>1503</v>
       </c>
       <c r="F4" s="13"/>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>1500</v>
+        <v>1504</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>10</v>
@@ -10687,163 +10696,163 @@
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>1501</v>
+        <v>1505</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>1502</v>
+        <v>1506</v>
       </c>
       <c r="F6" s="13"/>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>1503</v>
+        <v>1507</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>1504</v>
+        <v>1508</v>
       </c>
       <c r="F7" s="13"/>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>1505</v>
+        <v>1509</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>1506</v>
+        <v>1510</v>
       </c>
       <c r="F8" s="13"/>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>1507</v>
+        <v>1511</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>1508</v>
+        <v>1512</v>
       </c>
       <c r="F9" s="13"/>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>1509</v>
+        <v>1513</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>1510</v>
+        <v>1514</v>
       </c>
       <c r="F10" s="13"/>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>1511</v>
+        <v>1515</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>1510</v>
+        <v>1514</v>
       </c>
       <c r="F11" s="13"/>
     </row>
     <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>1512</v>
+        <v>1516</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>1510</v>
+        <v>1514</v>
       </c>
       <c r="F12" s="13"/>
     </row>
     <row r="13" customHeight="1" spans="1:6">
       <c r="A13" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>1513</v>
+        <v>1517</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>1514</v>
+        <v>1518</v>
       </c>
       <c r="F13" s="13"/>
     </row>
     <row r="14" customHeight="1" spans="1:6">
       <c r="A14" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>1515</v>
+        <v>1260</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>1515</v>
+        <v>1260</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>1516</v>
+        <v>1519</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>1517</v>
+        <v>1520</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>16</v>
@@ -10851,19 +10860,19 @@
     </row>
     <row r="15" customHeight="1" spans="1:6">
       <c r="A15" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>1515</v>
+        <v>1260</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>1515</v>
+        <v>1260</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>1519</v>
+        <v>1522</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>16</v>
@@ -10871,160 +10880,160 @@
     </row>
     <row r="16" customHeight="1" spans="1:6">
       <c r="A16" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>1522</v>
+        <v>1525</v>
       </c>
       <c r="F16" s="13"/>
     </row>
     <row r="17" customHeight="1" spans="1:6">
       <c r="A17" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>1523</v>
+        <v>1526</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>1524</v>
+        <v>1527</v>
       </c>
       <c r="F17" s="13"/>
     </row>
     <row r="18" customHeight="1" spans="1:6">
       <c r="A18" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>1525</v>
+        <v>1528</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>1526</v>
+        <v>1529</v>
       </c>
       <c r="F18" s="13"/>
     </row>
     <row r="19" customHeight="1" spans="1:6">
       <c r="A19" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>1528</v>
+        <v>1531</v>
       </c>
       <c r="F19" s="13"/>
     </row>
     <row r="20" customHeight="1" spans="1:6">
       <c r="A20" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>1530</v>
+        <v>1533</v>
       </c>
       <c r="F20" s="13"/>
     </row>
     <row r="21" customHeight="1" spans="1:6">
       <c r="A21" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>1531</v>
+        <v>1534</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>1532</v>
+        <v>1535</v>
       </c>
       <c r="F21" s="13"/>
     </row>
     <row r="22" customHeight="1" spans="1:6">
       <c r="A22" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>1534</v>
+        <v>1537</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>1535</v>
+        <v>1538</v>
       </c>
       <c r="F22" s="13"/>
     </row>
     <row r="23" customHeight="1" spans="1:6">
       <c r="A23" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>1536</v>
+        <v>1539</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="F23" s="13"/>
     </row>
     <row r="24" customHeight="1" spans="1:6">
       <c r="A24" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>10</v>
@@ -11033,444 +11042,444 @@
     </row>
     <row r="25" customHeight="1" spans="1:6">
       <c r="A25" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>1540</v>
+        <v>1543</v>
       </c>
       <c r="F25" s="13"/>
     </row>
     <row r="26" customHeight="1" spans="1:6">
       <c r="A26" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>1541</v>
+        <v>1544</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>1542</v>
+        <v>1545</v>
       </c>
       <c r="F26" s="13"/>
     </row>
     <row r="27" customHeight="1" spans="1:6">
       <c r="A27" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>1543</v>
+        <v>1546</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>1544</v>
+        <v>1547</v>
       </c>
       <c r="F27" s="13"/>
     </row>
     <row r="28" customHeight="1" spans="1:6">
       <c r="A28" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>1545</v>
+        <v>1548</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>1546</v>
+        <v>1549</v>
       </c>
       <c r="F28" s="13"/>
     </row>
     <row r="29" customHeight="1" spans="1:6">
       <c r="A29" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>1547</v>
+        <v>1550</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>1547</v>
+        <v>1550</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>1549</v>
+        <v>1552</v>
       </c>
       <c r="F29" s="13"/>
     </row>
     <row r="30" customHeight="1" spans="1:6">
       <c r="A30" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>1547</v>
+        <v>1550</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>1547</v>
+        <v>1550</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>1549</v>
+        <v>1552</v>
       </c>
       <c r="F30" s="13"/>
     </row>
     <row r="31" customHeight="1" spans="1:6">
       <c r="A31" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>1547</v>
+        <v>1550</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>1547</v>
+        <v>1550</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>1551</v>
+        <v>1554</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>1552</v>
+        <v>1555</v>
       </c>
       <c r="F31" s="13"/>
     </row>
     <row r="32" customHeight="1" spans="1:6">
       <c r="A32" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>1547</v>
+        <v>1550</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>1547</v>
+        <v>1550</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>1553</v>
+        <v>1556</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
     </row>
     <row r="33" customHeight="1" spans="1:6">
       <c r="A33" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>1547</v>
+        <v>1550</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>1547</v>
+        <v>1550</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>1554</v>
+        <v>1557</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
     </row>
     <row r="34" customHeight="1" spans="1:6">
       <c r="A34" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>1556</v>
+        <v>1559</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>1557</v>
+        <v>1560</v>
       </c>
       <c r="F34" s="13"/>
     </row>
     <row r="35" customHeight="1" spans="1:6">
       <c r="A35" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>1558</v>
+        <v>1561</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>1559</v>
+        <v>1562</v>
       </c>
       <c r="F35" s="13"/>
     </row>
     <row r="36" customHeight="1" spans="1:6">
       <c r="A36" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>1560</v>
+        <v>1563</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>1561</v>
+        <v>1564</v>
       </c>
       <c r="F36" s="13"/>
     </row>
     <row r="37" customHeight="1" spans="1:6">
       <c r="A37" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>1562</v>
+        <v>1565</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="F37" s="13"/>
     </row>
     <row r="38" customHeight="1" spans="1:6">
       <c r="A38" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>1564</v>
+        <v>1567</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>1564</v>
+        <v>1567</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>1565</v>
+        <v>1568</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>1566</v>
+        <v>1569</v>
       </c>
       <c r="F38" s="13"/>
     </row>
     <row r="39" customHeight="1" spans="1:6">
       <c r="A39" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>1564</v>
+        <v>1567</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>1564</v>
+        <v>1567</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>1567</v>
+        <v>1570</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>1568</v>
+        <v>1571</v>
       </c>
       <c r="F39" s="13"/>
     </row>
     <row r="40" customHeight="1" spans="1:6">
       <c r="A40" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>1564</v>
+        <v>1567</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>1564</v>
+        <v>1567</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>1569</v>
+        <v>1572</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>1570</v>
+        <v>1573</v>
       </c>
       <c r="F40" s="13"/>
     </row>
     <row r="41" customHeight="1" spans="1:6">
       <c r="A41" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>1564</v>
+        <v>1567</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>1564</v>
+        <v>1567</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>1571</v>
+        <v>1574</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>1572</v>
+        <v>1575</v>
       </c>
       <c r="F41" s="13"/>
     </row>
     <row r="42" customHeight="1" spans="1:6">
       <c r="A42" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>1564</v>
+        <v>1567</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>1564</v>
+        <v>1567</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>1573</v>
+        <v>1576</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>1574</v>
+        <v>1577</v>
       </c>
       <c r="F42" s="13"/>
     </row>
     <row r="43" customHeight="1" spans="1:6">
       <c r="A43" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>1576</v>
+        <v>1579</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>1577</v>
+        <v>1580</v>
       </c>
       <c r="F43" s="13"/>
     </row>
     <row r="44" customHeight="1" spans="1:6">
       <c r="A44" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>1578</v>
+        <v>1581</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>1577</v>
+        <v>1580</v>
       </c>
       <c r="F44" s="13"/>
     </row>
     <row r="45" customHeight="1" spans="1:6">
       <c r="A45" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>1579</v>
+        <v>1582</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>1577</v>
+        <v>1580</v>
       </c>
       <c r="F45" s="13"/>
     </row>
     <row r="46" customHeight="1" spans="1:6">
       <c r="A46" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>1580</v>
+        <v>1583</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
       <c r="F46" s="13"/>
     </row>
     <row r="47" customHeight="1" spans="1:6">
       <c r="A47" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>1583</v>
+        <v>1586</v>
       </c>
       <c r="F47" s="13"/>
     </row>
     <row r="48" customHeight="1" spans="1:6">
       <c r="A48" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>1585</v>
+        <v>1588</v>
       </c>
       <c r="F48" s="13"/>
     </row>
     <row r="49" customHeight="1" spans="1:6">
       <c r="A49" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>1586</v>
+        <v>1589</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>1586</v>
+        <v>1589</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>1587</v>
+        <v>1590</v>
       </c>
       <c r="E49" s="13" t="s">
         <v>10</v>
@@ -11479,106 +11488,106 @@
     </row>
     <row r="50" customHeight="1" spans="1:6">
       <c r="A50" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>1586</v>
+        <v>1589</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>1586</v>
+        <v>1589</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>1588</v>
+        <v>1591</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>1589</v>
+        <v>1592</v>
       </c>
       <c r="F50" s="13"/>
     </row>
     <row r="51" customHeight="1" spans="1:6">
       <c r="A51" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>1586</v>
+        <v>1589</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>1586</v>
+        <v>1589</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>1590</v>
+        <v>1593</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>1591</v>
+        <v>1594</v>
       </c>
       <c r="F51" s="13"/>
     </row>
     <row r="52" customHeight="1" spans="1:6">
       <c r="A52" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>1586</v>
+        <v>1589</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>1586</v>
+        <v>1589</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>1592</v>
+        <v>1595</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>1591</v>
+        <v>1594</v>
       </c>
       <c r="F52" s="13"/>
     </row>
     <row r="53" customHeight="1" spans="1:6">
       <c r="A53" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>1586</v>
+        <v>1589</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>1586</v>
+        <v>1589</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>1593</v>
+        <v>1596</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>1594</v>
+        <v>1597</v>
       </c>
       <c r="F53" s="13"/>
     </row>
     <row r="54" customHeight="1" spans="1:6">
       <c r="A54" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>1595</v>
+        <v>1598</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>1595</v>
+        <v>1598</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>1596</v>
+        <v>1599</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>1597</v>
+        <v>1600</v>
       </c>
       <c r="F54" s="13"/>
     </row>
     <row r="55" customHeight="1" spans="1:6">
       <c r="A55" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>1595</v>
+        <v>1598</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>1595</v>
+        <v>1598</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>1598</v>
+        <v>1601</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>450</v>
@@ -11587,73 +11596,73 @@
     </row>
     <row r="56" customHeight="1" spans="1:6">
       <c r="A56" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>1595</v>
+        <v>1598</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>1595</v>
+        <v>1598</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>1599</v>
+        <v>1602</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>1600</v>
+        <v>1603</v>
       </c>
       <c r="F56" s="13"/>
     </row>
     <row r="57" customHeight="1" spans="1:6">
       <c r="A57" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>1595</v>
+        <v>1598</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>1595</v>
+        <v>1598</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>1601</v>
+        <v>1604</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>1602</v>
+        <v>1605</v>
       </c>
       <c r="F57" s="13"/>
     </row>
     <row r="58" customHeight="1" spans="1:6">
       <c r="A58" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>1595</v>
+        <v>1598</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>1595</v>
+        <v>1598</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>1603</v>
+        <v>1606</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>1604</v>
+        <v>1607</v>
       </c>
       <c r="F58" s="13"/>
     </row>
     <row r="59" customHeight="1" spans="1:6">
       <c r="A59" s="12" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>1595</v>
+        <v>1598</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>1595</v>
+        <v>1598</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>1605</v>
+        <v>1608</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>1606</v>
+        <v>1609</v>
       </c>
       <c r="F59" s="13"/>
     </row>
@@ -11735,13 +11744,13 @@
         <v>767</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>1608</v>
+        <v>1611</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>1609</v>
+        <v>1612</v>
       </c>
       <c r="F2" s="13"/>
     </row>
@@ -11753,13 +11762,13 @@
         <v>767</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1610</v>
+        <v>1613</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>1611</v>
+        <v>1614</v>
       </c>
       <c r="F3" s="13"/>
     </row>
@@ -11771,13 +11780,13 @@
         <v>767</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1612</v>
+        <v>1615</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>1613</v>
+        <v>1616</v>
       </c>
       <c r="F4" s="13"/>
     </row>
@@ -11789,13 +11798,13 @@
         <v>767</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>1614</v>
+        <v>1617</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>1615</v>
+        <v>1618</v>
       </c>
       <c r="F5" s="13"/>
     </row>
@@ -11807,13 +11816,13 @@
         <v>767</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>1616</v>
+        <v>1619</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>1617</v>
+        <v>1620</v>
       </c>
       <c r="F6" s="13"/>
     </row>
@@ -11825,13 +11834,13 @@
         <v>767</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>1618</v>
+        <v>1621</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>1619</v>
+        <v>1622</v>
       </c>
       <c r="F7" s="13"/>
     </row>
@@ -11843,13 +11852,13 @@
         <v>767</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>1620</v>
+        <v>1623</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>1621</v>
+        <v>1624</v>
       </c>
       <c r="F8" s="13"/>
     </row>
@@ -11861,13 +11870,13 @@
         <v>767</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>1622</v>
+        <v>1625</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>1623</v>
+        <v>1626</v>
       </c>
       <c r="F9" s="13"/>
     </row>
@@ -11879,13 +11888,13 @@
         <v>767</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>1624</v>
+        <v>1627</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>1625</v>
+        <v>1628</v>
       </c>
       <c r="F10" s="13"/>
     </row>
@@ -11897,13 +11906,13 @@
         <v>767</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
       <c r="F11" s="13"/>
     </row>
@@ -11915,13 +11924,13 @@
         <v>767</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>1628</v>
+        <v>1631</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>1629</v>
+        <v>1632</v>
       </c>
       <c r="F12" s="13"/>
     </row>
@@ -11933,13 +11942,13 @@
         <v>767</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>1630</v>
+        <v>1633</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>1631</v>
+        <v>1634</v>
       </c>
       <c r="F13" s="13"/>
     </row>
@@ -11951,13 +11960,13 @@
         <v>767</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>1632</v>
+        <v>1635</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>1633</v>
+        <v>1636</v>
       </c>
       <c r="F14" s="13"/>
     </row>
@@ -11969,13 +11978,13 @@
         <v>767</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>1634</v>
+        <v>1637</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>1635</v>
+        <v>1638</v>
       </c>
       <c r="F15" s="13"/>
     </row>
@@ -11987,13 +11996,13 @@
         <v>767</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>1636</v>
+        <v>1639</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>1637</v>
+        <v>1640</v>
       </c>
       <c r="F16" s="13"/>
     </row>
@@ -12005,13 +12014,13 @@
         <v>767</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>1638</v>
+        <v>1641</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>1639</v>
+        <v>1642</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>1640</v>
+        <v>1643</v>
       </c>
       <c r="F17" s="13"/>
     </row>
@@ -12023,13 +12032,13 @@
         <v>767</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>1638</v>
+        <v>1641</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>1612</v>
+        <v>1615</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>1641</v>
+        <v>1644</v>
       </c>
       <c r="F18" s="13"/>
     </row>
@@ -12041,13 +12050,13 @@
         <v>767</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>1638</v>
+        <v>1641</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>1642</v>
+        <v>1645</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>1643</v>
+        <v>1646</v>
       </c>
       <c r="F19" s="13"/>
     </row>
@@ -12059,13 +12068,13 @@
         <v>767</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>1638</v>
+        <v>1641</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>1618</v>
+        <v>1621</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>1644</v>
+        <v>1647</v>
       </c>
       <c r="F20" s="13"/>
     </row>
@@ -12077,13 +12086,13 @@
         <v>767</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>1638</v>
+        <v>1641</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>1645</v>
+        <v>1648</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>1646</v>
+        <v>1649</v>
       </c>
       <c r="F21" s="13"/>
     </row>
@@ -12095,10 +12104,10 @@
         <v>767</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>1638</v>
+        <v>1641</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>1647</v>
+        <v>1650</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
@@ -12111,13 +12120,13 @@
         <v>767</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>1638</v>
+        <v>1641</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>1648</v>
+        <v>1651</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>1649</v>
+        <v>1652</v>
       </c>
       <c r="F23" s="13"/>
     </row>
@@ -12129,13 +12138,13 @@
         <v>767</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>1638</v>
+        <v>1641</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>1610</v>
+        <v>1613</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>1650</v>
+        <v>1653</v>
       </c>
       <c r="F24" s="13"/>
     </row>
@@ -12147,13 +12156,13 @@
         <v>767</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>1638</v>
+        <v>1641</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>1651</v>
+        <v>1654</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>1631</v>
+        <v>1634</v>
       </c>
       <c r="F25" s="13"/>
     </row>
@@ -12165,13 +12174,13 @@
         <v>767</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>1638</v>
+        <v>1641</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>1632</v>
+        <v>1635</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>1652</v>
+        <v>1655</v>
       </c>
       <c r="F26" s="13"/>
     </row>
@@ -12183,13 +12192,13 @@
         <v>767</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>1638</v>
+        <v>1641</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>1630</v>
+        <v>1633</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>1631</v>
+        <v>1634</v>
       </c>
       <c r="F27" s="13"/>
     </row>
@@ -12201,13 +12210,13 @@
         <v>1116</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>1653</v>
+        <v>1656</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>1654</v>
+        <v>1657</v>
       </c>
       <c r="F28" s="13"/>
     </row>
@@ -12219,13 +12228,13 @@
         <v>1116</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>1655</v>
+        <v>1658</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>1656</v>
+        <v>1659</v>
       </c>
       <c r="F29" s="13"/>
     </row>
@@ -12237,13 +12246,13 @@
         <v>1116</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>1657</v>
+        <v>1660</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>1658</v>
+        <v>1661</v>
       </c>
       <c r="F30" s="13"/>
     </row>
@@ -12255,13 +12264,13 @@
         <v>1116</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>1659</v>
+        <v>1662</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>1660</v>
+        <v>1663</v>
       </c>
       <c r="F31" s="13"/>
     </row>
@@ -12273,13 +12282,13 @@
         <v>1116</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>1612</v>
+        <v>1615</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>1661</v>
+        <v>1664</v>
       </c>
       <c r="F32" s="13"/>
     </row>
@@ -12291,13 +12300,13 @@
         <v>1116</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>1614</v>
+        <v>1617</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>1615</v>
+        <v>1618</v>
       </c>
       <c r="F33" s="13"/>
     </row>
@@ -12309,13 +12318,13 @@
         <v>1116</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>1616</v>
+        <v>1619</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>1617</v>
+        <v>1620</v>
       </c>
       <c r="F34" s="13"/>
     </row>
@@ -12327,13 +12336,13 @@
         <v>1116</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>1662</v>
+        <v>1665</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>1663</v>
+        <v>1666</v>
       </c>
       <c r="F35" s="13"/>
     </row>
@@ -12345,13 +12354,13 @@
         <v>1116</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>1664</v>
+        <v>1667</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>1665</v>
+        <v>1668</v>
       </c>
       <c r="F36" s="13"/>
     </row>
@@ -12363,13 +12372,13 @@
         <v>1116</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>1618</v>
+        <v>1621</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>1619</v>
+        <v>1622</v>
       </c>
       <c r="F37" s="13"/>
     </row>
@@ -12381,13 +12390,13 @@
         <v>1116</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>1620</v>
+        <v>1623</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>1621</v>
+        <v>1624</v>
       </c>
       <c r="F38" s="13"/>
     </row>
@@ -12399,13 +12408,13 @@
         <v>1116</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>1622</v>
+        <v>1625</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>1623</v>
+        <v>1626</v>
       </c>
       <c r="F39" s="13"/>
     </row>
@@ -12417,13 +12426,13 @@
         <v>1116</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>1624</v>
+        <v>1627</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>1625</v>
+        <v>1628</v>
       </c>
       <c r="F40" s="13"/>
     </row>
@@ -12435,13 +12444,13 @@
         <v>1116</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
       <c r="F41" s="13"/>
     </row>
@@ -12453,13 +12462,13 @@
         <v>1116</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>1628</v>
+        <v>1631</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>1629</v>
+        <v>1632</v>
       </c>
       <c r="F42" s="13"/>
     </row>
@@ -12471,13 +12480,13 @@
         <v>1116</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>1666</v>
+        <v>1669</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>1667</v>
+        <v>1670</v>
       </c>
       <c r="F43" s="13"/>
     </row>
@@ -12489,13 +12498,13 @@
         <v>1116</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>1630</v>
+        <v>1633</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>1631</v>
+        <v>1634</v>
       </c>
       <c r="F44" s="13"/>
     </row>
@@ -12507,13 +12516,13 @@
         <v>1116</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>1632</v>
+        <v>1635</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>1633</v>
+        <v>1636</v>
       </c>
       <c r="F45" s="13"/>
     </row>
@@ -12525,13 +12534,13 @@
         <v>1116</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>1634</v>
+        <v>1637</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>1635</v>
+        <v>1638</v>
       </c>
       <c r="F46" s="13"/>
     </row>
@@ -12543,13 +12552,13 @@
         <v>1116</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>1636</v>
+        <v>1639</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>1637</v>
+        <v>1640</v>
       </c>
       <c r="F47" s="13"/>
     </row>
@@ -12561,13 +12570,13 @@
         <v>1116</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>1669</v>
+        <v>1672</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>1670</v>
+        <v>1673</v>
       </c>
       <c r="F48" s="13"/>
     </row>
@@ -12579,13 +12588,13 @@
         <v>1116</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>1671</v>
+        <v>1674</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>1672</v>
+        <v>1675</v>
       </c>
       <c r="F49" s="13"/>
     </row>
@@ -12597,13 +12606,13 @@
         <v>1116</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>1673</v>
+        <v>1676</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>1674</v>
+        <v>1677</v>
       </c>
       <c r="F50" s="13"/>
     </row>
@@ -12615,13 +12624,13 @@
         <v>1116</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>1675</v>
+        <v>1678</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>1676</v>
+        <v>1679</v>
       </c>
       <c r="F51" s="13"/>
     </row>
@@ -12633,13 +12642,13 @@
         <v>1116</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>1677</v>
+        <v>1680</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>1678</v>
+        <v>1681</v>
       </c>
       <c r="F52" s="13"/>
     </row>
@@ -12651,13 +12660,13 @@
         <v>1116</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>1679</v>
+        <v>1682</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>1680</v>
+        <v>1683</v>
       </c>
       <c r="F53" s="13"/>
     </row>
@@ -12669,13 +12678,13 @@
         <v>1116</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>1681</v>
+        <v>1684</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>1682</v>
+        <v>1685</v>
       </c>
       <c r="F54" s="13"/>
     </row>
@@ -12687,13 +12696,13 @@
         <v>1116</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>1683</v>
+        <v>1686</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>1684</v>
+        <v>1687</v>
       </c>
       <c r="F55" s="13"/>
     </row>
@@ -12705,13 +12714,13 @@
         <v>1116</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>1685</v>
+        <v>1688</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>1686</v>
+        <v>1689</v>
       </c>
       <c r="F56" s="13"/>
     </row>
@@ -12723,13 +12732,13 @@
         <v>1116</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>1687</v>
+        <v>1690</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>1688</v>
+        <v>1691</v>
       </c>
       <c r="F57" s="13"/>
     </row>
@@ -12741,13 +12750,13 @@
         <v>1116</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>1666</v>
+        <v>1669</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>1667</v>
+        <v>1670</v>
       </c>
       <c r="F58" s="13"/>
     </row>
@@ -12759,13 +12768,13 @@
         <v>1116</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>1630</v>
+        <v>1633</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>1631</v>
+        <v>1634</v>
       </c>
       <c r="F59" s="13"/>
     </row>
@@ -12777,13 +12786,13 @@
         <v>1116</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>1632</v>
+        <v>1635</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>1633</v>
+        <v>1636</v>
       </c>
       <c r="F60" s="13"/>
     </row>
@@ -12795,13 +12804,13 @@
         <v>1116</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>1689</v>
+        <v>1692</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>1690</v>
+        <v>1693</v>
       </c>
       <c r="F61" s="13"/>
     </row>
@@ -12854,13 +12863,13 @@
     </row>
     <row r="2" ht="16.5" spans="1:11">
       <c r="A2" s="4" t="s">
-        <v>1691</v>
+        <v>1694</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1692</v>
+        <v>1695</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1693</v>
+        <v>1696</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -12873,13 +12882,13 @@
     </row>
     <row r="3" ht="16.5" spans="1:11">
       <c r="A3" s="4" t="s">
-        <v>1691</v>
+        <v>1694</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1694</v>
+        <v>1697</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1695</v>
+        <v>1698</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -12892,13 +12901,13 @@
     </row>
     <row r="4" ht="16.5" spans="1:11">
       <c r="A4" s="4" t="s">
-        <v>1691</v>
+        <v>1694</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1696</v>
+        <v>1699</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1697</v>
+        <v>1700</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -12911,13 +12920,13 @@
     </row>
     <row r="5" ht="16.5" spans="1:11">
       <c r="A5" s="4" t="s">
-        <v>1691</v>
+        <v>1694</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1698</v>
+        <v>1701</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1699</v>
+        <v>1702</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -12930,13 +12939,13 @@
     </row>
     <row r="6" ht="16.5" spans="1:11">
       <c r="A6" s="4" t="s">
-        <v>1691</v>
+        <v>1694</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1700</v>
+        <v>1703</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1701</v>
+        <v>1704</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -12949,13 +12958,13 @@
     </row>
     <row r="7" ht="16.5" spans="1:11">
       <c r="A7" s="4" t="s">
-        <v>1691</v>
+        <v>1694</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1702</v>
+        <v>1705</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1703</v>
+        <v>1706</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -12968,13 +12977,13 @@
     </row>
     <row r="8" ht="16.5" spans="1:11">
       <c r="A8" s="4" t="s">
-        <v>1691</v>
+        <v>1694</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1704</v>
+        <v>1707</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1705</v>
+        <v>1708</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -12987,16 +12996,16 @@
     </row>
     <row r="9" ht="16.5" spans="1:11">
       <c r="A9" s="4" t="s">
-        <v>1691</v>
+        <v>1694</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1706</v>
+        <v>1709</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1707</v>
+        <v>1710</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1708</v>
+        <v>1711</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -13008,16 +13017,16 @@
     </row>
     <row r="10" ht="16.5" spans="1:11">
       <c r="A10" s="4" t="s">
-        <v>1691</v>
+        <v>1694</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1709</v>
+        <v>1712</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1710</v>
+        <v>1713</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>1711</v>
+        <v>1714</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -13029,19 +13038,19 @@
     </row>
     <row r="11" ht="16.5" spans="1:11">
       <c r="A11" s="4" t="s">
-        <v>1691</v>
+        <v>1694</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1712</v>
+        <v>1715</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1713</v>
+        <v>1716</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>1714</v>
+        <v>1717</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>1715</v>
+        <v>1718</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="8"/>
@@ -13052,19 +13061,19 @@
     </row>
     <row r="12" ht="16.5" spans="1:11">
       <c r="A12" s="4" t="s">
-        <v>1691</v>
+        <v>1694</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1716</v>
+        <v>1719</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>1718</v>
+        <v>1721</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="8"/>
@@ -13363,7 +13372,7 @@
   <sheetData>
     <row r="1" ht="18" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1719</v>
+        <v>1722</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -13373,16 +13382,16 @@
     <row r="2" ht="16.5" spans="1:5">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
-        <v>1720</v>
+        <v>1723</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1721</v>
+        <v>1724</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1722</v>
+        <v>1725</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1723</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:5">
@@ -13455,7 +13464,7 @@
     </row>
     <row r="7" ht="16.5" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>1724</v>
+        <v>1727</v>
       </c>
       <c r="B7" s="4">
         <v>61</v>
@@ -13488,7 +13497,7 @@
     </row>
     <row r="10" ht="16.5" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B10" s="4">
         <v>23</v>
@@ -13499,7 +13508,7 @@
     </row>
     <row r="11" ht="16.5" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>1466</v>
+        <v>1470</v>
       </c>
       <c r="B11" s="4">
         <v>13</v>
@@ -13509,7 +13518,7 @@
     </row>
     <row r="12" ht="16.5" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="B12" s="4">
         <v>28</v>
@@ -13520,7 +13529,7 @@
     </row>
     <row r="13" ht="16.5" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>1725</v>
+        <v>1728</v>
       </c>
       <c r="B13" s="4">
         <v>60</v>
@@ -13531,7 +13540,7 @@
     </row>
     <row r="14" ht="16.5" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>1691</v>
+        <v>1694</v>
       </c>
       <c r="B14" s="4">
         <v>12</v>
@@ -13542,7 +13551,7 @@
     </row>
     <row r="15" ht="16.5" spans="1:5">
       <c r="A15" s="4" t="s">
-        <v>1726</v>
+        <v>1729</v>
       </c>
       <c r="B15" s="4">
         <f>SUM(B3:B14)</f>
@@ -13554,7 +13563,7 @@
     </row>
     <row r="16" ht="16.5" spans="1:5">
       <c r="A16" s="4" t="s">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -30481,12 +30490,12 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB95"/>
+  <dimension ref="A1:AB96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E96" sqref="E96"/>
+      <selection pane="bottomLeft" activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -33012,7 +33021,9 @@
       <c r="E61" s="14" t="s">
         <v>1251</v>
       </c>
-      <c r="F61" s="13"/>
+      <c r="F61" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="G61" s="19"/>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -33052,7 +33063,9 @@
       <c r="E62" s="13" t="s">
         <v>1253</v>
       </c>
-      <c r="F62" s="13"/>
+      <c r="F62" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="G62" s="19"/>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -33092,7 +33105,9 @@
       <c r="E63" s="13" t="s">
         <v>1255</v>
       </c>
-      <c r="F63" s="13"/>
+      <c r="F63" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="G63" s="19"/>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -33132,7 +33147,9 @@
       <c r="E64" s="13" t="s">
         <v>1257</v>
       </c>
-      <c r="F64" s="13"/>
+      <c r="F64" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="G64" s="19"/>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -33172,8 +33189,12 @@
       <c r="E65" s="13" t="s">
         <v>1259</v>
       </c>
-      <c r="F65" s="13"/>
-      <c r="G65" s="19"/>
+      <c r="F65" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" s="19" t="s">
+        <v>1260</v>
+      </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
       <c r="J65" s="19"/>
@@ -33207,12 +33228,14 @@
         <v>1231</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>1261</v>
-      </c>
-      <c r="F66" s="13"/>
+        <v>1262</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="G66" s="19"/>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -33236,23 +33259,19 @@
       <c r="AA66" s="19"/>
       <c r="AB66" s="19"/>
     </row>
-    <row r="67" s="16" customFormat="1" ht="34.5" spans="1:28">
-      <c r="A67" s="18" t="s">
-        <v>689</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>1231</v>
-      </c>
+    <row r="67" s="16" customFormat="1" ht="17.25" spans="1:28">
+      <c r="A67" s="18"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
       <c r="D67" s="13" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>1263</v>
-      </c>
-      <c r="F67" s="13"/>
+        <v>1264</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="G67" s="19"/>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -33287,12 +33306,14 @@
         <v>1231</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>1265</v>
-      </c>
-      <c r="F68" s="13"/>
+        <v>1266</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="G68" s="19"/>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -33316,7 +33337,7 @@
       <c r="AA68" s="19"/>
       <c r="AB68" s="19"/>
     </row>
-    <row r="69" s="16" customFormat="1" ht="17.25" spans="1:28">
+    <row r="69" s="16" customFormat="1" ht="34.5" spans="1:28">
       <c r="A69" s="18" t="s">
         <v>689</v>
       </c>
@@ -33327,12 +33348,14 @@
         <v>1231</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>1267</v>
-      </c>
-      <c r="F69" s="13"/>
+        <v>1268</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="G69" s="19"/>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -33356,7 +33379,7 @@
       <c r="AA69" s="19"/>
       <c r="AB69" s="19"/>
     </row>
-    <row r="70" s="16" customFormat="1" ht="34.5" spans="1:28">
+    <row r="70" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A70" s="18" t="s">
         <v>689</v>
       </c>
@@ -33367,12 +33390,14 @@
         <v>1231</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>1269</v>
-      </c>
-      <c r="F70" s="13"/>
+        <v>1270</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="G70" s="19"/>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -33404,7 +33429,7 @@
         <v>1116</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>1270</v>
+        <v>1231</v>
       </c>
       <c r="D71" s="13" t="s">
         <v>1271</v>
@@ -33415,7 +33440,9 @@
       <c r="F71" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G71" s="19"/>
+      <c r="G71" s="19" t="s">
+        <v>1273</v>
+      </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
       <c r="J71" s="19"/>
@@ -33446,15 +33473,17 @@
         <v>1116</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>1270</v>
+        <v>1274</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>1274</v>
-      </c>
-      <c r="F72" s="13"/>
+        <v>1276</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="G72" s="19"/>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -33486,13 +33515,13 @@
         <v>1116</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>1270</v>
+        <v>1274</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="F73" s="13"/>
       <c r="G73" s="19"/>
@@ -33526,13 +33555,13 @@
         <v>1116</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>1270</v>
+        <v>1274</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="F74" s="13"/>
       <c r="G74" s="19"/>
@@ -33566,13 +33595,13 @@
         <v>1116</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>1270</v>
+        <v>1274</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>1020</v>
+        <v>1282</v>
       </c>
       <c r="F75" s="13"/>
       <c r="G75" s="19"/>
@@ -33606,13 +33635,13 @@
         <v>1116</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>1270</v>
+        <v>1274</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>1280</v>
+        <v>1283</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>1281</v>
+        <v>1020</v>
       </c>
       <c r="F76" s="13"/>
       <c r="G76" s="19"/>
@@ -33646,13 +33675,13 @@
         <v>1116</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>1270</v>
+        <v>1274</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="F77" s="13"/>
       <c r="G77" s="19"/>
@@ -33686,13 +33715,13 @@
         <v>1116</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>1270</v>
+        <v>1274</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="F78" s="13"/>
       <c r="G78" s="19"/>
@@ -33726,13 +33755,13 @@
         <v>1116</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>1286</v>
+        <v>1274</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="F79" s="13"/>
       <c r="G79" s="19"/>
@@ -33766,13 +33795,13 @@
         <v>1116</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>1286</v>
+        <v>1290</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="F80" s="13"/>
       <c r="G80" s="19"/>
@@ -33806,13 +33835,13 @@
         <v>1116</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>1286</v>
+        <v>1290</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="F81" s="13"/>
       <c r="G81" s="19"/>
@@ -33846,13 +33875,13 @@
         <v>1116</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>1286</v>
+        <v>1290</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="F82" s="13"/>
       <c r="G82" s="19"/>
@@ -33886,13 +33915,13 @@
         <v>1116</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="F83" s="13"/>
       <c r="G83" s="19"/>
@@ -33918,7 +33947,7 @@
       <c r="AA83" s="19"/>
       <c r="AB83" s="19"/>
     </row>
-    <row r="84" s="16" customFormat="1" ht="17.25" spans="1:28">
+    <row r="84" s="16" customFormat="1" ht="34.5" spans="1:28">
       <c r="A84" s="18" t="s">
         <v>689</v>
       </c>
@@ -33926,13 +33955,13 @@
         <v>1116</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>1295</v>
+        <v>1299</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="F84" s="13"/>
       <c r="G84" s="19"/>
@@ -33966,13 +33995,13 @@
         <v>1116</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>1295</v>
+        <v>1299</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="F85" s="13"/>
       <c r="G85" s="19"/>
@@ -33998,7 +34027,7 @@
       <c r="AA85" s="19"/>
       <c r="AB85" s="19"/>
     </row>
-    <row r="86" s="16" customFormat="1" ht="34.5" spans="1:28">
+    <row r="86" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A86" s="18" t="s">
         <v>689</v>
       </c>
@@ -34006,13 +34035,13 @@
         <v>1116</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>1295</v>
+        <v>1299</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="F86" s="13"/>
       <c r="G86" s="19"/>
@@ -34038,7 +34067,7 @@
       <c r="AA86" s="19"/>
       <c r="AB86" s="19"/>
     </row>
-    <row r="87" s="16" customFormat="1" ht="17.25" spans="1:28">
+    <row r="87" s="16" customFormat="1" ht="34.5" spans="1:28">
       <c r="A87" s="18" t="s">
         <v>689</v>
       </c>
@@ -34046,13 +34075,13 @@
         <v>1116</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>1295</v>
+        <v>1299</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="F87" s="13"/>
       <c r="G87" s="19"/>
@@ -34078,7 +34107,7 @@
       <c r="AA87" s="19"/>
       <c r="AB87" s="19"/>
     </row>
-    <row r="88" s="16" customFormat="1" ht="34.5" spans="1:28">
+    <row r="88" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A88" s="18" t="s">
         <v>689</v>
       </c>
@@ -34086,13 +34115,13 @@
         <v>1116</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>1295</v>
+        <v>1299</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="F88" s="13"/>
       <c r="G88" s="19"/>
@@ -34118,7 +34147,7 @@
       <c r="AA88" s="19"/>
       <c r="AB88" s="19"/>
     </row>
-    <row r="89" s="16" customFormat="1" ht="17.25" spans="1:28">
+    <row r="89" s="16" customFormat="1" ht="34.5" spans="1:28">
       <c r="A89" s="18" t="s">
         <v>689</v>
       </c>
@@ -34126,13 +34155,13 @@
         <v>1116</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>1295</v>
+        <v>1299</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="F89" s="13"/>
       <c r="G89" s="19"/>
@@ -34166,13 +34195,13 @@
         <v>1116</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>1295</v>
+        <v>1299</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="F90" s="13"/>
       <c r="G90" s="19"/>
@@ -34206,13 +34235,13 @@
         <v>1116</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>1295</v>
+        <v>1299</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="F91" s="13"/>
       <c r="G91" s="19"/>
@@ -34238,7 +34267,7 @@
       <c r="AA91" s="19"/>
       <c r="AB91" s="19"/>
     </row>
-    <row r="92" s="16" customFormat="1" ht="34.5" spans="1:28">
+    <row r="92" s="16" customFormat="1" ht="17.25" spans="1:28">
       <c r="A92" s="18" t="s">
         <v>689</v>
       </c>
@@ -34246,13 +34275,13 @@
         <v>1116</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>1295</v>
+        <v>1299</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>1306</v>
+        <v>1316</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>1307</v>
+        <v>1317</v>
       </c>
       <c r="F92" s="13"/>
       <c r="G92" s="19"/>
@@ -34278,21 +34307,21 @@
       <c r="AA92" s="19"/>
       <c r="AB92" s="19"/>
     </row>
-    <row r="93" s="16" customFormat="1" ht="17.25" spans="1:28">
+    <row r="93" s="16" customFormat="1" ht="34.5" spans="1:28">
       <c r="A93" s="18" t="s">
         <v>689</v>
       </c>
-      <c r="B93" s="18" t="s">
+      <c r="B93" s="13" t="s">
         <v>1116</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>1314</v>
+        <v>1299</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>1315</v>
+        <v>1310</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="F93" s="13"/>
       <c r="G93" s="19"/>
@@ -34326,13 +34355,13 @@
         <v>1116</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>1314</v>
+        <v>1318</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="F94" s="13"/>
       <c r="G94" s="19"/>
@@ -34366,13 +34395,13 @@
         <v>1116</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>1314</v>
+        <v>1318</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="F95" s="13"/>
       <c r="G95" s="19"/>
@@ -34398,8 +34427,48 @@
       <c r="AA95" s="19"/>
       <c r="AB95" s="19"/>
     </row>
+    <row r="96" s="16" customFormat="1" ht="17.25" spans="1:28">
+      <c r="A96" s="18" t="s">
+        <v>689</v>
+      </c>
+      <c r="B96" s="18" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F96" s="13"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="19"/>
+      <c r="K96" s="19"/>
+      <c r="L96" s="19"/>
+      <c r="M96" s="19"/>
+      <c r="N96" s="19"/>
+      <c r="O96" s="19"/>
+      <c r="P96" s="19"/>
+      <c r="Q96" s="19"/>
+      <c r="R96" s="19"/>
+      <c r="S96" s="19"/>
+      <c r="T96" s="19"/>
+      <c r="U96" s="19"/>
+      <c r="V96" s="19"/>
+      <c r="W96" s="19"/>
+      <c r="X96" s="19"/>
+      <c r="Y96" s="19"/>
+      <c r="Z96" s="19"/>
+      <c r="AA96" s="19"/>
+      <c r="AB96" s="19"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F95">
+  <autoFilter ref="A1:F96">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
